--- a/rf_unyo/ch_list/masters/master.xlsx
+++ b/rf_unyo/ch_list/masters/master.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshi/python_works/rf_unyo/ch_list/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ECBE1E-BA87-F641-9ABC-4EB0965F5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C6469-E507-6B44-AE6F-1A8850A19943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_01" sheetId="1" r:id="rId1"/>
-    <sheet name="master_02" sheetId="2" r:id="rId2"/>
-    <sheet name="master_03" sheetId="3" r:id="rId3"/>
+    <sheet name="master_02" sheetId="8" r:id="rId2"/>
+    <sheet name="master_03" sheetId="9" r:id="rId3"/>
     <sheet name="③記入解説" sheetId="5" r:id="rId4"/>
     <sheet name="④地デジTVch周波数表" sheetId="6" r:id="rId5"/>
     <sheet name="⑤機種別TVWS使用可能帯域_対比表" sheetId="7" r:id="rId6"/>
@@ -81,7 +81,7 @@
     <author>平山 恭兵</author>
   </authors>
   <commentList>
-    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{5F02048A-6411-8A4D-9BF0-75AE4E69CAD3}">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
     <author>平山 恭兵</author>
   </authors>
   <commentList>
-    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{0A05F9C4-06F0-FA43-8562-396D06CAF233}">
       <text>
         <r>
           <rPr>
@@ -2664,7 +2664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="466">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3817,7 +3817,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -3888,8 +3888,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3937,10 +3943,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -3990,10 +4000,6 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="15" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4002,16 +4008,16 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="15" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4103,10 +4109,6 @@
     <xf numFmtId="49" fontId="14" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="29" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4118,9 +4120,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4135,6 +4134,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="94" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4152,6 +4158,10 @@
     </xf>
     <xf numFmtId="49" fontId="38" fillId="15" borderId="94" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4205,7 +4215,7 @@
     <cellStyle name="標準 6" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="標準 6 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="258">
     <dxf>
       <fill>
         <patternFill>
@@ -4546,6 +4556,20 @@
         <b/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4993,6 +5017,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -5418,6 +5456,20 @@
         <b/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6161,7 +6213,7 @@
   <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L28"/>
+      <selection activeCell="H18" sqref="H18:AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -6188,7 +6240,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="433" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="339"/>
@@ -6199,7 +6251,7 @@
       <c r="G1" s="339"/>
       <c r="H1" s="339"/>
       <c r="I1" s="249"/>
-      <c r="J1" s="433" t="s">
+      <c r="J1" s="434" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="339"/>
@@ -6214,22 +6266,22 @@
       <c r="T1" s="339"/>
       <c r="U1" s="284"/>
       <c r="V1" s="285"/>
-      <c r="W1" s="430"/>
+      <c r="W1" s="432"/>
       <c r="X1" s="339"/>
       <c r="Y1" s="339"/>
       <c r="Z1" s="339"/>
       <c r="AA1" s="339"/>
-      <c r="AB1" s="425" t="s">
+      <c r="AB1" s="427" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="339"/>
-      <c r="AD1" s="434">
+      <c r="AD1" s="435">
         <f ca="1">TODAY()</f>
-        <v>46054</v>
-      </c>
-      <c r="AE1" s="435"/>
-      <c r="AF1" s="435"/>
-      <c r="AG1" s="436"/>
+        <v>46055</v>
+      </c>
+      <c r="AE1" s="436"/>
+      <c r="AF1" s="436"/>
+      <c r="AG1" s="437"/>
       <c r="AH1" s="270"/>
       <c r="AI1" s="249"/>
       <c r="AJ1" s="249"/>
@@ -6262,7 +6314,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="339"/>
-      <c r="X2" s="426" t="s">
+      <c r="X2" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Y2" s="339"/>
@@ -6322,26 +6374,26 @@
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
       <c r="A4" s="249"/>
-      <c r="B4" s="400" t="s">
+      <c r="B4" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="401"/>
-      <c r="D4" s="406" t="s">
+      <c r="C4" s="403"/>
+      <c r="D4" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="407"/>
+      <c r="E4" s="409"/>
       <c r="F4" s="252"/>
       <c r="G4" s="283"/>
-      <c r="H4" s="428" t="s">
+      <c r="H4" s="430" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="339"/>
       <c r="J4" s="277"/>
-      <c r="K4" s="411" t="s">
+      <c r="K4" s="413" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="339"/>
-      <c r="M4" s="412"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="344"/>
       <c r="O4" s="270" t="s">
         <v>9</v>
@@ -6374,10 +6426,10 @@
     </row>
     <row r="5" spans="1:38" ht="3.75" customHeight="1">
       <c r="A5" s="249"/>
-      <c r="B5" s="402"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="408"/>
+      <c r="B5" s="404"/>
+      <c r="C5" s="405"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="410"/>
       <c r="F5" s="252"/>
       <c r="G5" s="283"/>
       <c r="H5" s="339"/>
@@ -6414,16 +6466,16 @@
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1">
       <c r="A6" s="249"/>
-      <c r="B6" s="402"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="408"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="410"/>
       <c r="F6" s="252"/>
       <c r="G6" s="283"/>
       <c r="H6" s="339"/>
       <c r="I6" s="339"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="415" t="s">
+      <c r="K6" s="417" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="339"/>
@@ -6434,7 +6486,7 @@
       <c r="Q6" s="343"/>
       <c r="R6" s="344"/>
       <c r="S6" s="269"/>
-      <c r="T6" s="371" t="s">
+      <c r="T6" s="373" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="339"/>
@@ -6458,10 +6510,10 @@
     </row>
     <row r="7" spans="1:38" ht="3.75" customHeight="1">
       <c r="A7" s="249"/>
-      <c r="B7" s="402"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="408"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="385"/>
+      <c r="E7" s="410"/>
       <c r="F7" s="252"/>
       <c r="G7" s="283"/>
       <c r="H7" s="339"/>
@@ -6498,16 +6550,16 @@
     </row>
     <row r="8" spans="1:38" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="249"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="409"/>
-      <c r="E8" s="410"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="412"/>
       <c r="F8" s="252"/>
       <c r="G8" s="283"/>
       <c r="H8" s="339"/>
       <c r="I8" s="339"/>
       <c r="J8" s="277"/>
-      <c r="K8" s="415" t="s">
+      <c r="K8" s="417" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="339"/>
@@ -6523,7 +6575,7 @@
       </c>
       <c r="U8" s="339"/>
       <c r="V8" s="339"/>
-      <c r="W8" s="397"/>
+      <c r="W8" s="398"/>
       <c r="X8" s="343"/>
       <c r="Y8" s="343"/>
       <c r="Z8" s="343"/>
@@ -6581,7 +6633,7 @@
       <c r="AL9" s="249"/>
     </row>
     <row r="10" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A10" s="421"/>
+      <c r="A10" s="423"/>
       <c r="B10" s="339"/>
       <c r="C10" s="339"/>
       <c r="D10" s="339"/>
@@ -6598,7 +6650,7 @@
       <c r="O10" s="339"/>
       <c r="P10" s="339"/>
       <c r="Q10" s="339"/>
-      <c r="R10" s="374" t="s">
+      <c r="R10" s="377" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="339"/>
@@ -6704,7 +6756,7 @@
     </row>
     <row r="13" spans="1:38" ht="18" customHeight="1">
       <c r="A13" s="325"/>
-      <c r="B13" s="413" t="s">
+      <c r="B13" s="415" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="339"/>
@@ -6721,7 +6773,7 @@
       <c r="L13" s="339"/>
       <c r="M13" s="339"/>
       <c r="N13" s="339"/>
-      <c r="O13" s="389"/>
+      <c r="O13" s="392"/>
       <c r="P13" s="343"/>
       <c r="Q13" s="343"/>
       <c r="R13" s="343"/>
@@ -6800,7 +6852,7 @@
       <c r="I15" s="339"/>
       <c r="J15" s="339"/>
       <c r="K15" s="339"/>
-      <c r="L15" s="394"/>
+      <c r="L15" s="396"/>
       <c r="M15" s="343"/>
       <c r="N15" s="343"/>
       <c r="O15" s="343"/>
@@ -6912,15 +6964,15 @@
     </row>
     <row r="18" spans="1:41" ht="18" customHeight="1">
       <c r="A18" s="249"/>
-      <c r="B18" s="423" t="s">
+      <c r="B18" s="425" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="339"/>
       <c r="D18" s="339"/>
       <c r="E18" s="339"/>
       <c r="F18" s="339"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="379"/>
+      <c r="G18" s="426"/>
+      <c r="H18" s="382"/>
       <c r="I18" s="343"/>
       <c r="J18" s="343"/>
       <c r="K18" s="343"/>
@@ -6994,41 +7046,41 @@
     </row>
     <row r="20" spans="1:41" ht="18.5" customHeight="1">
       <c r="A20" s="249"/>
-      <c r="B20" s="372" t="s">
+      <c r="B20" s="374" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="363"/>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
-      <c r="I20" s="364"/>
-      <c r="J20" s="364"/>
-      <c r="K20" s="364"/>
-      <c r="L20" s="364"/>
-      <c r="M20" s="364"/>
-      <c r="N20" s="364"/>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
-      <c r="Y20" s="364"/>
-      <c r="Z20" s="364"/>
-      <c r="AA20" s="364"/>
-      <c r="AB20" s="364"/>
-      <c r="AC20" s="364"/>
-      <c r="AD20" s="364"/>
-      <c r="AE20" s="364"/>
-      <c r="AF20" s="364"/>
-      <c r="AG20" s="364"/>
-      <c r="AH20" s="365"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="365"/>
+      <c r="F20" s="366"/>
+      <c r="G20" s="366"/>
+      <c r="H20" s="366"/>
+      <c r="I20" s="366"/>
+      <c r="J20" s="366"/>
+      <c r="K20" s="366"/>
+      <c r="L20" s="366"/>
+      <c r="M20" s="366"/>
+      <c r="N20" s="366"/>
+      <c r="O20" s="366"/>
+      <c r="P20" s="366"/>
+      <c r="Q20" s="366"/>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
+      <c r="T20" s="366"/>
+      <c r="U20" s="366"/>
+      <c r="V20" s="366"/>
+      <c r="W20" s="366"/>
+      <c r="X20" s="366"/>
+      <c r="Y20" s="366"/>
+      <c r="Z20" s="366"/>
+      <c r="AA20" s="366"/>
+      <c r="AB20" s="366"/>
+      <c r="AC20" s="366"/>
+      <c r="AD20" s="366"/>
+      <c r="AE20" s="366"/>
+      <c r="AF20" s="366"/>
+      <c r="AG20" s="366"/>
+      <c r="AH20" s="367"/>
       <c r="AI20" s="249"/>
       <c r="AJ20" s="249"/>
       <c r="AK20" s="249"/>
@@ -7036,39 +7088,39 @@
     </row>
     <row r="21" spans="1:41" ht="18.5" customHeight="1">
       <c r="A21" s="249"/>
-      <c r="B21" s="360"/>
-      <c r="C21" s="361"/>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="361"/>
-      <c r="J21" s="361"/>
-      <c r="K21" s="361"/>
-      <c r="L21" s="361"/>
-      <c r="M21" s="361"/>
-      <c r="N21" s="361"/>
-      <c r="O21" s="361"/>
-      <c r="P21" s="361"/>
-      <c r="Q21" s="361"/>
-      <c r="R21" s="361"/>
-      <c r="S21" s="361"/>
-      <c r="T21" s="361"/>
-      <c r="U21" s="361"/>
-      <c r="V21" s="361"/>
-      <c r="W21" s="361"/>
-      <c r="X21" s="361"/>
-      <c r="Y21" s="361"/>
-      <c r="Z21" s="361"/>
-      <c r="AA21" s="361"/>
-      <c r="AB21" s="361"/>
-      <c r="AC21" s="361"/>
-      <c r="AD21" s="361"/>
-      <c r="AE21" s="361"/>
-      <c r="AF21" s="361"/>
-      <c r="AG21" s="361"/>
-      <c r="AH21" s="362"/>
+      <c r="B21" s="362"/>
+      <c r="C21" s="363"/>
+      <c r="D21" s="363"/>
+      <c r="E21" s="363"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="363"/>
+      <c r="H21" s="363"/>
+      <c r="I21" s="363"/>
+      <c r="J21" s="363"/>
+      <c r="K21" s="363"/>
+      <c r="L21" s="363"/>
+      <c r="M21" s="363"/>
+      <c r="N21" s="363"/>
+      <c r="O21" s="363"/>
+      <c r="P21" s="363"/>
+      <c r="Q21" s="363"/>
+      <c r="R21" s="363"/>
+      <c r="S21" s="363"/>
+      <c r="T21" s="363"/>
+      <c r="U21" s="363"/>
+      <c r="V21" s="363"/>
+      <c r="W21" s="363"/>
+      <c r="X21" s="363"/>
+      <c r="Y21" s="363"/>
+      <c r="Z21" s="363"/>
+      <c r="AA21" s="363"/>
+      <c r="AB21" s="363"/>
+      <c r="AC21" s="363"/>
+      <c r="AD21" s="363"/>
+      <c r="AE21" s="363"/>
+      <c r="AF21" s="363"/>
+      <c r="AG21" s="363"/>
+      <c r="AH21" s="364"/>
       <c r="AI21" s="249"/>
       <c r="AJ21" s="249"/>
       <c r="AK21" s="249"/>
@@ -7076,39 +7128,39 @@
     </row>
     <row r="22" spans="1:41" ht="18.5" customHeight="1">
       <c r="A22" s="249"/>
-      <c r="B22" s="416"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
-      <c r="K22" s="417"/>
-      <c r="L22" s="417"/>
-      <c r="M22" s="417"/>
-      <c r="N22" s="417"/>
-      <c r="O22" s="417"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="417"/>
-      <c r="R22" s="417"/>
-      <c r="S22" s="417"/>
-      <c r="T22" s="417"/>
-      <c r="U22" s="417"/>
-      <c r="V22" s="417"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
-      <c r="AB22" s="417"/>
-      <c r="AC22" s="417"/>
-      <c r="AD22" s="417"/>
-      <c r="AE22" s="417"/>
-      <c r="AF22" s="417"/>
-      <c r="AG22" s="417"/>
-      <c r="AH22" s="418"/>
+      <c r="B22" s="418"/>
+      <c r="C22" s="419"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="419"/>
+      <c r="M22" s="419"/>
+      <c r="N22" s="419"/>
+      <c r="O22" s="419"/>
+      <c r="P22" s="419"/>
+      <c r="Q22" s="419"/>
+      <c r="R22" s="419"/>
+      <c r="S22" s="419"/>
+      <c r="T22" s="419"/>
+      <c r="U22" s="419"/>
+      <c r="V22" s="419"/>
+      <c r="W22" s="419"/>
+      <c r="X22" s="419"/>
+      <c r="Y22" s="419"/>
+      <c r="Z22" s="419"/>
+      <c r="AA22" s="419"/>
+      <c r="AB22" s="419"/>
+      <c r="AC22" s="419"/>
+      <c r="AD22" s="419"/>
+      <c r="AE22" s="419"/>
+      <c r="AF22" s="419"/>
+      <c r="AG22" s="419"/>
+      <c r="AH22" s="420"/>
       <c r="AI22" s="249"/>
       <c r="AJ22" s="249"/>
       <c r="AK22" s="249"/>
@@ -7116,41 +7168,41 @@
     </row>
     <row r="23" spans="1:41" ht="16.5" customHeight="1">
       <c r="A23" s="249"/>
-      <c r="B23" s="386" t="s">
+      <c r="B23" s="389" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="387"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="387"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="387"/>
-      <c r="H23" s="387"/>
-      <c r="I23" s="387"/>
-      <c r="J23" s="387"/>
-      <c r="K23" s="387"/>
-      <c r="L23" s="387"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="387"/>
-      <c r="U23" s="387"/>
-      <c r="V23" s="387"/>
-      <c r="W23" s="387"/>
-      <c r="X23" s="387"/>
-      <c r="Y23" s="387"/>
-      <c r="Z23" s="387"/>
-      <c r="AA23" s="387"/>
-      <c r="AB23" s="387"/>
-      <c r="AC23" s="387"/>
-      <c r="AD23" s="387"/>
-      <c r="AE23" s="387"/>
-      <c r="AF23" s="387"/>
-      <c r="AG23" s="387"/>
-      <c r="AH23" s="388"/>
+      <c r="C23" s="390"/>
+      <c r="D23" s="390"/>
+      <c r="E23" s="390"/>
+      <c r="F23" s="390"/>
+      <c r="G23" s="390"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="390"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="390"/>
+      <c r="L23" s="390"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="390"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="390"/>
+      <c r="V23" s="390"/>
+      <c r="W23" s="390"/>
+      <c r="X23" s="390"/>
+      <c r="Y23" s="390"/>
+      <c r="Z23" s="390"/>
+      <c r="AA23" s="390"/>
+      <c r="AB23" s="390"/>
+      <c r="AC23" s="390"/>
+      <c r="AD23" s="390"/>
+      <c r="AE23" s="390"/>
+      <c r="AF23" s="390"/>
+      <c r="AG23" s="390"/>
+      <c r="AH23" s="391"/>
       <c r="AI23" s="249"/>
       <c r="AJ23" s="249"/>
       <c r="AK23" s="249"/>
@@ -7198,45 +7250,45 @@
     </row>
     <row r="25" spans="1:41" ht="17" customHeight="1">
       <c r="A25" s="249"/>
-      <c r="B25" s="419" t="s">
+      <c r="B25" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="420"/>
-      <c r="D25" s="420"/>
-      <c r="E25" s="420"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="420"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="422"/>
+      <c r="I25" s="422"/>
       <c r="J25" s="249"/>
-      <c r="K25" s="427" t="s">
+      <c r="K25" s="429" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="367"/>
-      <c r="M25" s="367"/>
-      <c r="N25" s="367"/>
-      <c r="O25" s="367"/>
+      <c r="L25" s="369"/>
+      <c r="M25" s="369"/>
+      <c r="N25" s="369"/>
+      <c r="O25" s="369"/>
       <c r="P25" s="350"/>
       <c r="Q25" s="249"/>
-      <c r="R25" s="378" t="s">
+      <c r="R25" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="S25" s="367"/>
-      <c r="T25" s="367"/>
-      <c r="U25" s="367"/>
-      <c r="V25" s="367"/>
-      <c r="W25" s="367"/>
+      <c r="S25" s="369"/>
+      <c r="T25" s="369"/>
+      <c r="U25" s="369"/>
+      <c r="V25" s="369"/>
+      <c r="W25" s="369"/>
       <c r="X25" s="350"/>
       <c r="Y25" s="249"/>
-      <c r="Z25" s="429" t="s">
+      <c r="Z25" s="431" t="s">
         <v>23</v>
       </c>
-      <c r="AA25" s="367"/>
-      <c r="AB25" s="367"/>
-      <c r="AC25" s="367"/>
-      <c r="AD25" s="367"/>
-      <c r="AE25" s="367"/>
-      <c r="AF25" s="367"/>
+      <c r="AA25" s="369"/>
+      <c r="AB25" s="369"/>
+      <c r="AC25" s="369"/>
+      <c r="AD25" s="369"/>
+      <c r="AE25" s="369"/>
+      <c r="AF25" s="369"/>
       <c r="AG25" s="350"/>
       <c r="AH25" s="241"/>
       <c r="AI25" s="249"/>
@@ -7246,15 +7298,15 @@
     </row>
     <row r="26" spans="1:41" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="287"/>
-      <c r="B26" s="398" t="s">
+      <c r="B26" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="367"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="369"/>
+      <c r="H26" s="369"/>
       <c r="I26" s="350"/>
       <c r="J26" s="287"/>
       <c r="K26" s="349" t="s">
@@ -7273,7 +7325,7 @@
       <c r="R26" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="367"/>
+      <c r="S26" s="369"/>
       <c r="T26" s="350"/>
       <c r="U26" s="349" t="s">
         <v>26</v>
@@ -7308,18 +7360,18 @@
     </row>
     <row r="27" spans="1:41" ht="17" customHeight="1">
       <c r="A27" s="249"/>
-      <c r="B27" s="398" t="s">
+      <c r="B27" s="400" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="367"/>
-      <c r="D27" s="367"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="367"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="367"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="369"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="369"/>
       <c r="I27" s="350"/>
       <c r="J27" s="249"/>
-      <c r="K27" s="393"/>
+      <c r="K27" s="395"/>
       <c r="L27" s="344"/>
       <c r="M27" s="353" t="s">
         <v>30</v>
@@ -7354,10 +7406,10 @@
         <v>30</v>
       </c>
       <c r="AE27" s="350"/>
-      <c r="AF27" s="380" t="s">
+      <c r="AF27" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="AG27" s="381"/>
+      <c r="AG27" s="384"/>
       <c r="AH27" s="241"/>
       <c r="AI27" s="249"/>
       <c r="AJ27" s="321"/>
@@ -7366,15 +7418,15 @@
     </row>
     <row r="28" spans="1:41" ht="17" customHeight="1">
       <c r="A28" s="249"/>
-      <c r="B28" s="398" t="s">
+      <c r="B28" s="400" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="367"/>
-      <c r="D28" s="367"/>
-      <c r="E28" s="367"/>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="369"/>
+      <c r="E28" s="369"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
       <c r="I28" s="350"/>
       <c r="J28" s="249"/>
       <c r="K28" s="346"/>
@@ -7412,8 +7464,8 @@
         <v>30</v>
       </c>
       <c r="AE28" s="350"/>
-      <c r="AF28" s="382"/>
-      <c r="AG28" s="383"/>
+      <c r="AF28" s="385"/>
+      <c r="AG28" s="386"/>
       <c r="AH28" s="241"/>
       <c r="AI28" s="249"/>
       <c r="AJ28" s="249"/>
@@ -7422,18 +7474,18 @@
     </row>
     <row r="29" spans="1:41" ht="17" customHeight="1">
       <c r="A29" s="249"/>
-      <c r="B29" s="398" t="s">
+      <c r="B29" s="400" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="367"/>
-      <c r="D29" s="367"/>
-      <c r="E29" s="367"/>
-      <c r="F29" s="367"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="367"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="369"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="369"/>
+      <c r="G29" s="369"/>
+      <c r="H29" s="369"/>
       <c r="I29" s="350"/>
       <c r="J29" s="249"/>
-      <c r="K29" s="412"/>
+      <c r="K29" s="414"/>
       <c r="L29" s="344"/>
       <c r="M29" s="346"/>
       <c r="N29" s="344"/>
@@ -7448,14 +7500,14 @@
       <c r="W29" s="346"/>
       <c r="X29" s="344"/>
       <c r="Y29" s="289"/>
-      <c r="Z29" s="377"/>
+      <c r="Z29" s="380"/>
       <c r="AA29" s="344"/>
       <c r="AB29" s="346"/>
       <c r="AC29" s="344"/>
       <c r="AD29" s="346"/>
       <c r="AE29" s="344"/>
-      <c r="AF29" s="384"/>
-      <c r="AG29" s="385"/>
+      <c r="AF29" s="387"/>
+      <c r="AG29" s="388"/>
       <c r="AH29" s="241"/>
       <c r="AI29" s="249"/>
       <c r="AJ29" s="249"/>
@@ -7464,7 +7516,7 @@
     </row>
     <row r="30" spans="1:41" ht="16.5" customHeight="1">
       <c r="A30" s="249"/>
-      <c r="B30" s="414" t="s">
+      <c r="B30" s="416" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="339"/>
@@ -7507,39 +7559,39 @@
     </row>
     <row r="31" spans="1:41" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="314"/>
-      <c r="B31" s="369" t="s">
+      <c r="B31" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="367"/>
-      <c r="D31" s="367"/>
-      <c r="E31" s="367"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="367"/>
-      <c r="I31" s="367"/>
-      <c r="J31" s="367"/>
-      <c r="K31" s="367"/>
-      <c r="L31" s="367"/>
-      <c r="M31" s="367"/>
-      <c r="N31" s="367"/>
-      <c r="O31" s="367"/>
-      <c r="P31" s="367"/>
-      <c r="Q31" s="367"/>
-      <c r="R31" s="367"/>
-      <c r="S31" s="367"/>
-      <c r="T31" s="367"/>
-      <c r="U31" s="367"/>
-      <c r="V31" s="367"/>
-      <c r="W31" s="367"/>
-      <c r="X31" s="367"/>
-      <c r="Y31" s="367"/>
-      <c r="Z31" s="367"/>
-      <c r="AA31" s="367"/>
-      <c r="AB31" s="367"/>
-      <c r="AC31" s="367"/>
-      <c r="AD31" s="367"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="369"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="369"/>
+      <c r="G31" s="369"/>
+      <c r="H31" s="369"/>
+      <c r="I31" s="369"/>
+      <c r="J31" s="369"/>
+      <c r="K31" s="369"/>
+      <c r="L31" s="369"/>
+      <c r="M31" s="369"/>
+      <c r="N31" s="369"/>
+      <c r="O31" s="369"/>
+      <c r="P31" s="369"/>
+      <c r="Q31" s="369"/>
+      <c r="R31" s="369"/>
+      <c r="S31" s="369"/>
+      <c r="T31" s="369"/>
+      <c r="U31" s="369"/>
+      <c r="V31" s="369"/>
+      <c r="W31" s="369"/>
+      <c r="X31" s="369"/>
+      <c r="Y31" s="369"/>
+      <c r="Z31" s="369"/>
+      <c r="AA31" s="369"/>
+      <c r="AB31" s="369"/>
+      <c r="AC31" s="369"/>
+      <c r="AD31" s="369"/>
       <c r="AE31" s="291"/>
-      <c r="AF31" s="396"/>
+      <c r="AF31" s="397"/>
       <c r="AG31" s="344"/>
       <c r="AH31" s="292"/>
       <c r="AI31" s="315"/>
@@ -7632,11 +7684,11 @@
       <c r="B34" s="326" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="376" t="s">
+      <c r="C34" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="355"/>
-      <c r="E34" s="392"/>
+      <c r="E34" s="336"/>
       <c r="F34" s="337"/>
       <c r="G34" s="337"/>
       <c r="H34" s="337"/>
@@ -7648,23 +7700,23 @@
         <v>37</v>
       </c>
       <c r="N34" s="358"/>
-      <c r="O34" s="337"/>
-      <c r="P34" s="337"/>
-      <c r="Q34" s="337"/>
-      <c r="R34" s="357"/>
+      <c r="O34" s="359"/>
+      <c r="P34" s="359"/>
+      <c r="Q34" s="359"/>
+      <c r="R34" s="360"/>
       <c r="S34" s="299"/>
-      <c r="T34" s="376" t="s">
+      <c r="T34" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U34" s="355"/>
-      <c r="V34" s="395"/>
+      <c r="V34" s="376"/>
       <c r="W34" s="337"/>
       <c r="X34" s="337"/>
       <c r="Y34" s="337"/>
       <c r="Z34" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA34" s="431"/>
+      <c r="AA34" s="378"/>
       <c r="AB34" s="337"/>
       <c r="AC34" s="337"/>
       <c r="AD34" s="357"/>
@@ -7719,7 +7771,7 @@
     </row>
     <row r="36" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="317"/>
-      <c r="B36" s="422" t="s">
+      <c r="B36" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="355"/>
@@ -7727,7 +7779,7 @@
       <c r="E36" s="355"/>
       <c r="F36" s="286"/>
       <c r="G36" s="286"/>
-      <c r="H36" s="376" t="s">
+      <c r="H36" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I36" s="355"/>
@@ -7736,11 +7788,11 @@
       <c r="L36" s="337"/>
       <c r="M36" s="337"/>
       <c r="N36" s="357"/>
-      <c r="O36" s="390" t="s">
+      <c r="O36" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="355"/>
-      <c r="Q36" s="391"/>
+      <c r="Q36" s="394"/>
       <c r="R36" s="356"/>
       <c r="S36" s="337"/>
       <c r="T36" s="337"/>
@@ -7811,7 +7863,7 @@
       <c r="E38" s="355"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
-      <c r="H38" s="368" t="s">
+      <c r="H38" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I38" s="355"/>
@@ -7820,7 +7872,7 @@
       <c r="L38" s="347"/>
       <c r="M38" s="343"/>
       <c r="N38" s="344"/>
-      <c r="O38" s="370" t="s">
+      <c r="O38" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P38" s="355"/>
@@ -7906,7 +7958,7 @@
       <c r="L40" s="355"/>
       <c r="M40" s="355"/>
       <c r="N40" s="355"/>
-      <c r="O40" s="366"/>
+      <c r="O40" s="368"/>
       <c r="P40" s="337"/>
       <c r="Q40" s="337"/>
       <c r="R40" s="337"/>
@@ -7988,7 +8040,7 @@
       <c r="L42" s="355"/>
       <c r="M42" s="355"/>
       <c r="N42" s="355"/>
-      <c r="O42" s="366"/>
+      <c r="O42" s="368"/>
       <c r="P42" s="337"/>
       <c r="Q42" s="337"/>
       <c r="R42" s="337"/>
@@ -8138,7 +8190,7 @@
       <c r="B46" s="326" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="376" t="s">
+      <c r="C46" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="355"/>
@@ -8154,23 +8206,23 @@
         <v>37</v>
       </c>
       <c r="N46" s="358"/>
-      <c r="O46" s="337"/>
-      <c r="P46" s="337"/>
-      <c r="Q46" s="337"/>
-      <c r="R46" s="357"/>
+      <c r="O46" s="359"/>
+      <c r="P46" s="359"/>
+      <c r="Q46" s="359"/>
+      <c r="R46" s="360"/>
       <c r="S46" s="299"/>
-      <c r="T46" s="376" t="s">
+      <c r="T46" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U46" s="355"/>
-      <c r="V46" s="359"/>
+      <c r="V46" s="361"/>
       <c r="W46" s="337"/>
       <c r="X46" s="337"/>
       <c r="Y46" s="337"/>
       <c r="Z46" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA46" s="375"/>
+      <c r="AA46" s="399"/>
       <c r="AB46" s="337"/>
       <c r="AC46" s="337"/>
       <c r="AD46" s="357"/>
@@ -8225,7 +8277,7 @@
     </row>
     <row r="48" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="317"/>
-      <c r="B48" s="422" t="s">
+      <c r="B48" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="355"/>
@@ -8233,7 +8285,7 @@
       <c r="E48" s="355"/>
       <c r="F48" s="286"/>
       <c r="G48" s="286"/>
-      <c r="H48" s="376" t="s">
+      <c r="H48" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I48" s="355"/>
@@ -8242,12 +8294,12 @@
       <c r="L48" s="337"/>
       <c r="M48" s="337"/>
       <c r="N48" s="357"/>
-      <c r="O48" s="390" t="s">
+      <c r="O48" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P48" s="355"/>
-      <c r="Q48" s="391"/>
-      <c r="R48" s="399"/>
+      <c r="Q48" s="394"/>
+      <c r="R48" s="401"/>
       <c r="S48" s="337"/>
       <c r="T48" s="337"/>
       <c r="U48" s="337"/>
@@ -8317,7 +8369,7 @@
       <c r="E50" s="355"/>
       <c r="F50" s="286"/>
       <c r="G50" s="286"/>
-      <c r="H50" s="368" t="s">
+      <c r="H50" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I50" s="355"/>
@@ -8326,12 +8378,12 @@
       <c r="L50" s="347"/>
       <c r="M50" s="343"/>
       <c r="N50" s="344"/>
-      <c r="O50" s="370" t="s">
+      <c r="O50" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P50" s="355"/>
       <c r="Q50" s="355"/>
-      <c r="R50" s="399"/>
+      <c r="R50" s="401"/>
       <c r="S50" s="337"/>
       <c r="T50" s="337"/>
       <c r="U50" s="337"/>
@@ -8412,7 +8464,7 @@
       <c r="L52" s="355"/>
       <c r="M52" s="355"/>
       <c r="N52" s="355"/>
-      <c r="O52" s="366"/>
+      <c r="O52" s="368"/>
       <c r="P52" s="337"/>
       <c r="Q52" s="337"/>
       <c r="R52" s="337"/>
@@ -8494,7 +8546,7 @@
       <c r="L54" s="355"/>
       <c r="M54" s="355"/>
       <c r="N54" s="355"/>
-      <c r="O54" s="366"/>
+      <c r="O54" s="368"/>
       <c r="P54" s="337"/>
       <c r="Q54" s="337"/>
       <c r="R54" s="337"/>
@@ -8644,7 +8696,7 @@
       <c r="B58" s="326" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="376" t="s">
+      <c r="C58" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="355"/>
@@ -8660,23 +8712,23 @@
         <v>37</v>
       </c>
       <c r="N58" s="358"/>
-      <c r="O58" s="337"/>
-      <c r="P58" s="337"/>
-      <c r="Q58" s="337"/>
-      <c r="R58" s="357"/>
+      <c r="O58" s="359"/>
+      <c r="P58" s="359"/>
+      <c r="Q58" s="359"/>
+      <c r="R58" s="360"/>
       <c r="S58" s="299"/>
-      <c r="T58" s="376" t="s">
+      <c r="T58" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U58" s="355"/>
-      <c r="V58" s="359"/>
+      <c r="V58" s="376"/>
       <c r="W58" s="337"/>
       <c r="X58" s="337"/>
       <c r="Y58" s="337"/>
       <c r="Z58" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA58" s="375"/>
+      <c r="AA58" s="378"/>
       <c r="AB58" s="337"/>
       <c r="AC58" s="337"/>
       <c r="AD58" s="357"/>
@@ -8731,7 +8783,7 @@
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A60" s="317"/>
-      <c r="B60" s="422" t="s">
+      <c r="B60" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="355"/>
@@ -8739,7 +8791,7 @@
       <c r="E60" s="355"/>
       <c r="F60" s="286"/>
       <c r="G60" s="286"/>
-      <c r="H60" s="376" t="s">
+      <c r="H60" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="355"/>
@@ -8748,11 +8800,11 @@
       <c r="L60" s="337"/>
       <c r="M60" s="337"/>
       <c r="N60" s="357"/>
-      <c r="O60" s="390" t="s">
+      <c r="O60" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P60" s="355"/>
-      <c r="Q60" s="391"/>
+      <c r="Q60" s="394"/>
       <c r="R60" s="356"/>
       <c r="S60" s="337"/>
       <c r="T60" s="337"/>
@@ -8823,7 +8875,7 @@
       <c r="E62" s="355"/>
       <c r="F62" s="286"/>
       <c r="G62" s="286"/>
-      <c r="H62" s="368" t="s">
+      <c r="H62" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="355"/>
@@ -8832,7 +8884,7 @@
       <c r="L62" s="347"/>
       <c r="M62" s="343"/>
       <c r="N62" s="344"/>
-      <c r="O62" s="370" t="s">
+      <c r="O62" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P62" s="355"/>
@@ -8918,7 +8970,7 @@
       <c r="L64" s="355"/>
       <c r="M64" s="355"/>
       <c r="N64" s="355"/>
-      <c r="O64" s="366"/>
+      <c r="O64" s="368"/>
       <c r="P64" s="337"/>
       <c r="Q64" s="337"/>
       <c r="R64" s="337"/>
@@ -9000,7 +9052,7 @@
       <c r="L66" s="355"/>
       <c r="M66" s="355"/>
       <c r="N66" s="355"/>
-      <c r="O66" s="366"/>
+      <c r="O66" s="368"/>
       <c r="P66" s="337"/>
       <c r="Q66" s="337"/>
       <c r="R66" s="337"/>
@@ -9150,11 +9202,11 @@
       <c r="B70" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="376" t="s">
+      <c r="C70" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="355"/>
-      <c r="E70" s="392"/>
+      <c r="E70" s="336"/>
       <c r="F70" s="337"/>
       <c r="G70" s="337"/>
       <c r="H70" s="337"/>
@@ -9166,23 +9218,23 @@
         <v>37</v>
       </c>
       <c r="N70" s="358"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="357"/>
+      <c r="O70" s="359"/>
+      <c r="P70" s="359"/>
+      <c r="Q70" s="359"/>
+      <c r="R70" s="360"/>
       <c r="S70" s="299"/>
-      <c r="T70" s="376" t="s">
+      <c r="T70" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U70" s="355"/>
-      <c r="V70" s="359"/>
+      <c r="V70" s="361"/>
       <c r="W70" s="337"/>
       <c r="X70" s="337"/>
       <c r="Y70" s="337"/>
       <c r="Z70" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA70" s="375"/>
+      <c r="AA70" s="399"/>
       <c r="AB70" s="337"/>
       <c r="AC70" s="337"/>
       <c r="AD70" s="357"/>
@@ -9237,7 +9289,7 @@
     </row>
     <row r="72" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A72" s="317"/>
-      <c r="B72" s="422" t="s">
+      <c r="B72" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="355"/>
@@ -9245,7 +9297,7 @@
       <c r="E72" s="355"/>
       <c r="F72" s="286"/>
       <c r="G72" s="286"/>
-      <c r="H72" s="376" t="s">
+      <c r="H72" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I72" s="355"/>
@@ -9254,11 +9306,11 @@
       <c r="L72" s="337"/>
       <c r="M72" s="337"/>
       <c r="N72" s="357"/>
-      <c r="O72" s="390" t="s">
+      <c r="O72" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P72" s="355"/>
-      <c r="Q72" s="391"/>
+      <c r="Q72" s="394"/>
       <c r="R72" s="356"/>
       <c r="S72" s="337"/>
       <c r="T72" s="337"/>
@@ -9329,7 +9381,7 @@
       <c r="E74" s="355"/>
       <c r="F74" s="286"/>
       <c r="G74" s="286"/>
-      <c r="H74" s="368" t="s">
+      <c r="H74" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I74" s="355"/>
@@ -9338,7 +9390,7 @@
       <c r="L74" s="347"/>
       <c r="M74" s="343"/>
       <c r="N74" s="344"/>
-      <c r="O74" s="370" t="s">
+      <c r="O74" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P74" s="355"/>
@@ -9424,7 +9476,7 @@
       <c r="L76" s="355"/>
       <c r="M76" s="355"/>
       <c r="N76" s="355"/>
-      <c r="O76" s="366"/>
+      <c r="O76" s="368"/>
       <c r="P76" s="337"/>
       <c r="Q76" s="337"/>
       <c r="R76" s="337"/>
@@ -9506,7 +9558,7 @@
       <c r="L78" s="355"/>
       <c r="M78" s="355"/>
       <c r="N78" s="355"/>
-      <c r="O78" s="366"/>
+      <c r="O78" s="368"/>
       <c r="P78" s="337"/>
       <c r="Q78" s="337"/>
       <c r="R78" s="337"/>
@@ -9869,341 +9921,351 @@
   </mergeCells>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="B13:E15">
-    <cfRule type="expression" dxfId="251" priority="109">
+    <cfRule type="expression" dxfId="257" priority="116">
       <formula>AND($O$13,$L$15,$W$15)=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:G18">
-    <cfRule type="expression" dxfId="250" priority="114">
+    <cfRule type="expression" dxfId="256" priority="121">
       <formula>$H$18=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:I25">
-    <cfRule type="expression" dxfId="249" priority="97">
+    <cfRule type="expression" dxfId="255" priority="104">
       <formula>AND($K$27="",$K$28="",$K$29="",$M$29="",$O$29="",$R$27="",$R$28="",$R$29="",$U$29="",$W$29="",$Z$29="",$AB$29="",$AD$29="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="expression" dxfId="248" priority="96">
+    <cfRule type="expression" dxfId="254" priority="103">
       <formula>$E$34=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:D46">
-    <cfRule type="expression" dxfId="247" priority="35">
+    <cfRule type="expression" dxfId="253" priority="42">
       <formula>$E$46=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:D58">
-    <cfRule type="expression" dxfId="246" priority="23">
+    <cfRule type="expression" dxfId="252" priority="30">
       <formula>$E$58=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:D70">
-    <cfRule type="expression" dxfId="245" priority="11">
+    <cfRule type="expression" dxfId="251" priority="18">
       <formula>$E$70=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E8">
-    <cfRule type="containsBlanks" dxfId="244" priority="118">
+    <cfRule type="containsBlanks" dxfId="250" priority="125">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:L34">
-    <cfRule type="containsBlanks" dxfId="243" priority="95">
+    <cfRule type="containsBlanks" dxfId="249" priority="102">
       <formula>LEN(TRIM(E34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:L46">
-    <cfRule type="containsBlanks" dxfId="242" priority="135">
+    <cfRule type="containsBlanks" dxfId="248" priority="149" stopIfTrue="1">
       <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:L58">
-    <cfRule type="containsBlanks" dxfId="241" priority="22">
+    <cfRule type="containsBlanks" dxfId="247" priority="3">
       <formula>LEN(TRIM(E58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:L70">
-    <cfRule type="containsBlanks" dxfId="240" priority="139">
+    <cfRule type="containsBlanks" dxfId="246" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:I36">
-    <cfRule type="expression" dxfId="239" priority="91">
+    <cfRule type="expression" dxfId="245" priority="98">
       <formula>$J$36=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:I48">
-    <cfRule type="expression" dxfId="238" priority="30">
+    <cfRule type="expression" dxfId="244" priority="37">
       <formula>$J$48=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:I60">
-    <cfRule type="expression" dxfId="237" priority="18">
+    <cfRule type="expression" dxfId="243" priority="25">
       <formula>$J$60=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:I72">
-    <cfRule type="expression" dxfId="236" priority="6">
+    <cfRule type="expression" dxfId="242" priority="13">
       <formula>$J$72=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:K15">
-    <cfRule type="expression" dxfId="235" priority="112">
+    <cfRule type="expression" dxfId="241" priority="119">
       <formula>$L$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:K38">
-    <cfRule type="expression" dxfId="234" priority="87">
+    <cfRule type="expression" dxfId="240" priority="94">
       <formula>$L$38=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:K50">
-    <cfRule type="expression" dxfId="233" priority="27">
+    <cfRule type="expression" dxfId="239" priority="34">
       <formula>$L$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:K62">
-    <cfRule type="expression" dxfId="232" priority="15">
+    <cfRule type="expression" dxfId="238" priority="22">
       <formula>$L$62=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:K74">
-    <cfRule type="expression" dxfId="231" priority="3">
+    <cfRule type="expression" dxfId="237" priority="10">
       <formula>$L$74=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:N13">
-    <cfRule type="expression" dxfId="230" priority="113">
+    <cfRule type="expression" dxfId="236" priority="120">
       <formula>$O$13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:N40">
-    <cfRule type="expression" dxfId="229" priority="86">
+    <cfRule type="expression" dxfId="235" priority="93">
       <formula>$O$40=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:N42">
-    <cfRule type="expression" dxfId="228" priority="85">
+    <cfRule type="expression" dxfId="234" priority="92">
       <formula>$O$42=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:N52">
-    <cfRule type="expression" dxfId="227" priority="26">
+    <cfRule type="expression" dxfId="233" priority="33">
       <formula>$O$52=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:N54">
-    <cfRule type="expression" dxfId="226" priority="25">
+    <cfRule type="expression" dxfId="232" priority="32">
       <formula>$O$54=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:N64">
-    <cfRule type="expression" dxfId="225" priority="14">
+    <cfRule type="expression" dxfId="231" priority="21">
       <formula>$O$64=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:N66">
-    <cfRule type="expression" dxfId="224" priority="13">
+    <cfRule type="expression" dxfId="230" priority="20">
       <formula>$O$66=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:N76">
-    <cfRule type="expression" dxfId="223" priority="2">
+    <cfRule type="expression" dxfId="229" priority="9">
       <formula>$O$76=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:N78">
-    <cfRule type="expression" dxfId="222" priority="1">
+    <cfRule type="expression" dxfId="228" priority="8">
       <formula>$O$78=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AH18">
-    <cfRule type="containsBlanks" dxfId="221" priority="108">
+    <cfRule type="containsBlanks" dxfId="227" priority="115">
       <formula>LEN(TRIM(H18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:N36 R36:AG36 R38:AG38 O40:AG40 O42:AG42">
-    <cfRule type="containsBlanks" dxfId="220" priority="93">
+    <cfRule type="containsBlanks" dxfId="226" priority="100">
       <formula>LEN(TRIM(J36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:N48 R48:AG48 R50:AG50 O52:AG52 O54:AG54">
-    <cfRule type="containsBlanks" dxfId="219" priority="137">
+    <cfRule type="containsBlanks" dxfId="225" priority="144">
       <formula>LEN(TRIM(J48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:N60 R60:AG60 R62:AG62 O64:AG64 O66:AG66">
-    <cfRule type="containsBlanks" dxfId="218" priority="20">
+    <cfRule type="containsBlanks" dxfId="224" priority="27">
       <formula>LEN(TRIM(J60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:N72 R72:AG72 R74:AG74 O76:AG76 O78:AG78">
-    <cfRule type="containsBlanks" dxfId="217" priority="141">
+    <cfRule type="containsBlanks" dxfId="223" priority="148">
       <formula>LEN(TRIM(J72))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:N38">
-    <cfRule type="containsBlanks" dxfId="216" priority="129">
+    <cfRule type="containsBlanks" dxfId="222" priority="136">
       <formula>LEN(TRIM(L38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:N50">
-    <cfRule type="containsBlanks" dxfId="215" priority="134">
+    <cfRule type="containsBlanks" dxfId="221" priority="141">
       <formula>LEN(TRIM(L50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62:N62">
-    <cfRule type="containsBlanks" dxfId="214" priority="24">
+    <cfRule type="containsBlanks" dxfId="220" priority="31">
       <formula>LEN(TRIM(L62))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74:N74">
-    <cfRule type="containsBlanks" dxfId="213" priority="138">
+    <cfRule type="containsBlanks" dxfId="219" priority="145">
       <formula>LEN(TRIM(L74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:R15">
-    <cfRule type="containsBlanks" dxfId="212" priority="99">
+    <cfRule type="containsBlanks" dxfId="218" priority="106">
       <formula>LEN(TRIM(L15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N4">
-    <cfRule type="containsBlanks" dxfId="211" priority="107">
+    <cfRule type="containsBlanks" dxfId="217" priority="114">
       <formula>LEN(TRIM(M4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:R6">
-    <cfRule type="containsBlanks" dxfId="210" priority="105">
+    <cfRule type="containsBlanks" dxfId="216" priority="112">
       <formula>LEN(TRIM(M6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:R8">
-    <cfRule type="containsBlanks" dxfId="209" priority="104">
+    <cfRule type="containsBlanks" dxfId="215" priority="111">
       <formula>LEN(TRIM(M8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36:Q36">
-    <cfRule type="expression" dxfId="208" priority="89">
+    <cfRule type="expression" dxfId="214" priority="96">
       <formula>$R$36=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:Q38">
-    <cfRule type="expression" dxfId="207" priority="88">
+    <cfRule type="expression" dxfId="213" priority="95">
       <formula>$R$38=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48:Q48">
-    <cfRule type="expression" dxfId="206" priority="29">
+    <cfRule type="expression" dxfId="212" priority="36">
       <formula>$R$48=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:Q50">
-    <cfRule type="expression" dxfId="205" priority="28">
+    <cfRule type="expression" dxfId="211" priority="35">
       <formula>$R$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:Q60">
-    <cfRule type="expression" dxfId="204" priority="17">
+    <cfRule type="expression" dxfId="210" priority="24">
       <formula>$R$60=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62:Q62">
-    <cfRule type="expression" dxfId="203" priority="16">
+    <cfRule type="expression" dxfId="209" priority="23">
       <formula>$R$62=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:Q72">
-    <cfRule type="expression" dxfId="202" priority="5">
+    <cfRule type="expression" dxfId="208" priority="12">
       <formula>$R$72=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O74:Q74">
-    <cfRule type="expression" dxfId="201" priority="4">
+    <cfRule type="expression" dxfId="207" priority="11">
       <formula>$R$74=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:AG13">
-    <cfRule type="containsBlanks" dxfId="200" priority="100">
+    <cfRule type="containsBlanks" dxfId="206" priority="107">
       <formula>LEN(TRIM(O13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="containsBlanks" dxfId="199" priority="106">
+    <cfRule type="containsBlanks" dxfId="205" priority="113">
       <formula>LEN(TRIM(P4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:U34">
-    <cfRule type="expression" dxfId="198" priority="92">
+    <cfRule type="expression" dxfId="204" priority="99">
       <formula>OR($V$34="",$AA$34="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U46">
-    <cfRule type="expression" dxfId="197" priority="31">
+    <cfRule type="expression" dxfId="203" priority="38">
       <formula>OR($V$46="",$AA$46="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T58:U58">
-    <cfRule type="expression" dxfId="196" priority="19">
+    <cfRule type="expression" dxfId="202" priority="26">
       <formula>OR($V$58="",$AA$58="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T70:U70">
-    <cfRule type="expression" dxfId="195" priority="7">
+    <cfRule type="expression" dxfId="201" priority="14">
       <formula>OR($V$70="",$AA$70="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:V15">
-    <cfRule type="expression" dxfId="194" priority="111">
+    <cfRule type="expression" dxfId="200" priority="118">
       <formula>$W$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:Y34 AA34:AD34">
-    <cfRule type="containsBlanks" dxfId="193" priority="94">
+    <cfRule type="containsBlanks" dxfId="199" priority="101">
       <formula>LEN(TRIM(V34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V46:Y46 AA46:AD46">
-    <cfRule type="containsBlanks" dxfId="192" priority="136">
+    <cfRule type="containsBlanks" dxfId="198" priority="143">
       <formula>LEN(TRIM(V46))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V58:Y58 AA58:AD58">
-    <cfRule type="containsBlanks" dxfId="191" priority="21">
+  <conditionalFormatting sqref="V58:Y58">
+    <cfRule type="containsBlanks" dxfId="197" priority="7">
       <formula>LEN(TRIM(V58))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V70:Y70 AA70:AD70">
-    <cfRule type="containsBlanks" dxfId="190" priority="140">
+  <conditionalFormatting sqref="V70:Y70">
+    <cfRule type="containsBlanks" dxfId="196" priority="5">
       <formula>LEN(TRIM(V70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AG4">
-    <cfRule type="containsBlanks" dxfId="189" priority="103">
+    <cfRule type="containsBlanks" dxfId="195" priority="110">
       <formula>LEN(TRIM(W4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:AG6">
-    <cfRule type="containsBlanks" dxfId="188" priority="102">
+    <cfRule type="containsBlanks" dxfId="194" priority="109">
       <formula>LEN(TRIM(W6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:AG8">
-    <cfRule type="containsBlanks" dxfId="187" priority="101">
+    <cfRule type="containsBlanks" dxfId="193" priority="108">
       <formula>LEN(TRIM(W8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="containsBlanks" dxfId="186" priority="98">
+    <cfRule type="containsBlanks" dxfId="192" priority="105">
       <formula>LEN(TRIM(W15))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA58:AD58">
+    <cfRule type="containsBlanks" dxfId="191" priority="6">
+      <formula>LEN(TRIM(AA58))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA70:AD70">
+    <cfRule type="containsBlanks" dxfId="190" priority="4">
+      <formula>LEN(TRIM(AA70))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF27:AG29">
-    <cfRule type="containsBlanks" dxfId="185" priority="126">
+    <cfRule type="containsBlanks" dxfId="189" priority="133">
       <formula>LEN(TRIM(AF27))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="739" yWindow="658" count="8">
+  <dataValidations xWindow="739" yWindow="658" count="11">
     <dataValidation type="list" showInputMessage="1" sqref="AF31:AG31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"○,　"</formula1>
     </dataValidation>
@@ -10222,6 +10284,15 @@
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" prompt="セル右側の▼をクリックして｢新規｣｢変更｣｢削除｣を選んで下さい。_x000a_「変更」の場合は、必ずコメント欄に変更内容を明記して下さい。" sqref="D4:E9" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"新規,変更,削除,　"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="V34:Y34 AA34:AD34 V46:Y46 AA46:AD46 V58:Y58 AA58:AD58 V70:Y70 AA70:AD70" xr:uid="{288FD43A-652C-BF43-B8F0-D18321CC4BF0}">
+      <formula1>"09:00, 10:00, 11:00, 12:00, 13:00, 14:00, 15:00, 16:00, 17:00, 18:00, 19:00, 20:00, 21:00, 22:00, 23:00"</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日付確認" error="本日より前の日付です。" promptTitle="開始日入力" prompt="1/1 or 2026/1/1 のような形で入力してください。" sqref="E34:L34 E58:L58 E46:L46 E70:L70" xr:uid="{1A74CA76-37AC-F744-93FC-553E9644EC0C}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日付確認" error="使用開始日より前の日付が入力されています。" promptTitle="終了日入力" prompt="1/1 or 2026/1/1 のような形で入力してください。" sqref="N34:R34 N58:R58 N46:R46 N70:R70" xr:uid="{7AB3BE43-BB34-EB41-A587-C5B1BACDFFB0}">
+      <formula1>E34</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="X2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10234,14 +10305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099C9C62-E835-0047-96EE-7E51E50CAED0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:L28"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="V70" sqref="V70:Y70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -10268,7 +10339,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="433" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="339"/>
@@ -10279,7 +10350,7 @@
       <c r="G1" s="339"/>
       <c r="H1" s="339"/>
       <c r="I1" s="249"/>
-      <c r="J1" s="433" t="s">
+      <c r="J1" s="434" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="339"/>
@@ -10294,22 +10365,22 @@
       <c r="T1" s="339"/>
       <c r="U1" s="284"/>
       <c r="V1" s="285"/>
-      <c r="W1" s="430"/>
+      <c r="W1" s="432"/>
       <c r="X1" s="339"/>
       <c r="Y1" s="339"/>
       <c r="Z1" s="339"/>
       <c r="AA1" s="339"/>
-      <c r="AB1" s="425" t="s">
+      <c r="AB1" s="427" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="339"/>
-      <c r="AD1" s="434">
+      <c r="AD1" s="435">
         <f ca="1">TODAY()</f>
-        <v>46054</v>
-      </c>
-      <c r="AE1" s="435"/>
-      <c r="AF1" s="435"/>
-      <c r="AG1" s="436"/>
+        <v>46055</v>
+      </c>
+      <c r="AE1" s="436"/>
+      <c r="AF1" s="436"/>
+      <c r="AG1" s="437"/>
       <c r="AH1" s="270"/>
       <c r="AI1" s="249"/>
       <c r="AJ1" s="249"/>
@@ -10342,7 +10413,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="339"/>
-      <c r="X2" s="426" t="s">
+      <c r="X2" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Y2" s="339"/>
@@ -10400,28 +10471,28 @@
       <c r="AK3" s="249"/>
       <c r="AL3" s="249"/>
     </row>
-    <row r="4" spans="1:38" ht="18" customHeight="1">
+    <row r="4" spans="1:38" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="249"/>
-      <c r="B4" s="400" t="s">
+      <c r="B4" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="401"/>
-      <c r="D4" s="406" t="s">
+      <c r="C4" s="403"/>
+      <c r="D4" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="407"/>
+      <c r="E4" s="409"/>
       <c r="F4" s="252"/>
       <c r="G4" s="283"/>
-      <c r="H4" s="428" t="s">
+      <c r="H4" s="430" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="339"/>
       <c r="J4" s="277"/>
-      <c r="K4" s="411" t="s">
+      <c r="K4" s="413" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="339"/>
-      <c r="M4" s="412"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="344"/>
       <c r="O4" s="270" t="s">
         <v>9</v>
@@ -10454,10 +10525,10 @@
     </row>
     <row r="5" spans="1:38" ht="3.75" customHeight="1">
       <c r="A5" s="249"/>
-      <c r="B5" s="402"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="408"/>
+      <c r="B5" s="404"/>
+      <c r="C5" s="405"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="410"/>
       <c r="F5" s="252"/>
       <c r="G5" s="283"/>
       <c r="H5" s="339"/>
@@ -10494,16 +10565,16 @@
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1">
       <c r="A6" s="249"/>
-      <c r="B6" s="402"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="408"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="410"/>
       <c r="F6" s="252"/>
       <c r="G6" s="283"/>
       <c r="H6" s="339"/>
       <c r="I6" s="339"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="415" t="s">
+      <c r="K6" s="417" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="339"/>
@@ -10514,7 +10585,7 @@
       <c r="Q6" s="343"/>
       <c r="R6" s="344"/>
       <c r="S6" s="269"/>
-      <c r="T6" s="371" t="s">
+      <c r="T6" s="373" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="339"/>
@@ -10538,10 +10609,10 @@
     </row>
     <row r="7" spans="1:38" ht="3.75" customHeight="1">
       <c r="A7" s="249"/>
-      <c r="B7" s="402"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="408"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="385"/>
+      <c r="E7" s="410"/>
       <c r="F7" s="252"/>
       <c r="G7" s="283"/>
       <c r="H7" s="339"/>
@@ -10578,16 +10649,16 @@
     </row>
     <row r="8" spans="1:38" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="249"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="409"/>
-      <c r="E8" s="410"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="412"/>
       <c r="F8" s="252"/>
       <c r="G8" s="283"/>
       <c r="H8" s="339"/>
       <c r="I8" s="339"/>
       <c r="J8" s="277"/>
-      <c r="K8" s="415" t="s">
+      <c r="K8" s="417" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="339"/>
@@ -10603,7 +10674,7 @@
       </c>
       <c r="U8" s="339"/>
       <c r="V8" s="339"/>
-      <c r="W8" s="397"/>
+      <c r="W8" s="398"/>
       <c r="X8" s="343"/>
       <c r="Y8" s="343"/>
       <c r="Z8" s="343"/>
@@ -10661,7 +10732,7 @@
       <c r="AL9" s="249"/>
     </row>
     <row r="10" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A10" s="421"/>
+      <c r="A10" s="423"/>
       <c r="B10" s="339"/>
       <c r="C10" s="339"/>
       <c r="D10" s="339"/>
@@ -10678,7 +10749,7 @@
       <c r="O10" s="339"/>
       <c r="P10" s="339"/>
       <c r="Q10" s="339"/>
-      <c r="R10" s="374" t="s">
+      <c r="R10" s="377" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="339"/>
@@ -10784,7 +10855,7 @@
     </row>
     <row r="13" spans="1:38" ht="18" customHeight="1">
       <c r="A13" s="325"/>
-      <c r="B13" s="413" t="s">
+      <c r="B13" s="415" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="339"/>
@@ -10801,7 +10872,7 @@
       <c r="L13" s="339"/>
       <c r="M13" s="339"/>
       <c r="N13" s="339"/>
-      <c r="O13" s="389"/>
+      <c r="O13" s="392"/>
       <c r="P13" s="343"/>
       <c r="Q13" s="343"/>
       <c r="R13" s="343"/>
@@ -10880,7 +10951,7 @@
       <c r="I15" s="339"/>
       <c r="J15" s="339"/>
       <c r="K15" s="339"/>
-      <c r="L15" s="394"/>
+      <c r="L15" s="396"/>
       <c r="M15" s="343"/>
       <c r="N15" s="343"/>
       <c r="O15" s="343"/>
@@ -10992,15 +11063,15 @@
     </row>
     <row r="18" spans="1:41" ht="18" customHeight="1">
       <c r="A18" s="249"/>
-      <c r="B18" s="423" t="s">
+      <c r="B18" s="425" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="339"/>
       <c r="D18" s="339"/>
       <c r="E18" s="339"/>
       <c r="F18" s="339"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="379"/>
+      <c r="G18" s="426"/>
+      <c r="H18" s="382"/>
       <c r="I18" s="343"/>
       <c r="J18" s="343"/>
       <c r="K18" s="343"/>
@@ -11074,41 +11145,41 @@
     </row>
     <row r="20" spans="1:41" ht="18.5" customHeight="1">
       <c r="A20" s="249"/>
-      <c r="B20" s="372" t="s">
+      <c r="B20" s="374" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="363"/>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
-      <c r="I20" s="364"/>
-      <c r="J20" s="364"/>
-      <c r="K20" s="364"/>
-      <c r="L20" s="364"/>
-      <c r="M20" s="364"/>
-      <c r="N20" s="364"/>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
-      <c r="Y20" s="364"/>
-      <c r="Z20" s="364"/>
-      <c r="AA20" s="364"/>
-      <c r="AB20" s="364"/>
-      <c r="AC20" s="364"/>
-      <c r="AD20" s="364"/>
-      <c r="AE20" s="364"/>
-      <c r="AF20" s="364"/>
-      <c r="AG20" s="364"/>
-      <c r="AH20" s="365"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="365"/>
+      <c r="F20" s="366"/>
+      <c r="G20" s="366"/>
+      <c r="H20" s="366"/>
+      <c r="I20" s="366"/>
+      <c r="J20" s="366"/>
+      <c r="K20" s="366"/>
+      <c r="L20" s="366"/>
+      <c r="M20" s="366"/>
+      <c r="N20" s="366"/>
+      <c r="O20" s="366"/>
+      <c r="P20" s="366"/>
+      <c r="Q20" s="366"/>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
+      <c r="T20" s="366"/>
+      <c r="U20" s="366"/>
+      <c r="V20" s="366"/>
+      <c r="W20" s="366"/>
+      <c r="X20" s="366"/>
+      <c r="Y20" s="366"/>
+      <c r="Z20" s="366"/>
+      <c r="AA20" s="366"/>
+      <c r="AB20" s="366"/>
+      <c r="AC20" s="366"/>
+      <c r="AD20" s="366"/>
+      <c r="AE20" s="366"/>
+      <c r="AF20" s="366"/>
+      <c r="AG20" s="366"/>
+      <c r="AH20" s="367"/>
       <c r="AI20" s="249"/>
       <c r="AJ20" s="249"/>
       <c r="AK20" s="249"/>
@@ -11116,39 +11187,39 @@
     </row>
     <row r="21" spans="1:41" ht="18.5" customHeight="1">
       <c r="A21" s="249"/>
-      <c r="B21" s="360"/>
-      <c r="C21" s="361"/>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="361"/>
-      <c r="J21" s="361"/>
-      <c r="K21" s="361"/>
-      <c r="L21" s="361"/>
-      <c r="M21" s="361"/>
-      <c r="N21" s="361"/>
-      <c r="O21" s="361"/>
-      <c r="P21" s="361"/>
-      <c r="Q21" s="361"/>
-      <c r="R21" s="361"/>
-      <c r="S21" s="361"/>
-      <c r="T21" s="361"/>
-      <c r="U21" s="361"/>
-      <c r="V21" s="361"/>
-      <c r="W21" s="361"/>
-      <c r="X21" s="361"/>
-      <c r="Y21" s="361"/>
-      <c r="Z21" s="361"/>
-      <c r="AA21" s="361"/>
-      <c r="AB21" s="361"/>
-      <c r="AC21" s="361"/>
-      <c r="AD21" s="361"/>
-      <c r="AE21" s="361"/>
-      <c r="AF21" s="361"/>
-      <c r="AG21" s="361"/>
-      <c r="AH21" s="362"/>
+      <c r="B21" s="362"/>
+      <c r="C21" s="363"/>
+      <c r="D21" s="363"/>
+      <c r="E21" s="363"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="363"/>
+      <c r="H21" s="363"/>
+      <c r="I21" s="363"/>
+      <c r="J21" s="363"/>
+      <c r="K21" s="363"/>
+      <c r="L21" s="363"/>
+      <c r="M21" s="363"/>
+      <c r="N21" s="363"/>
+      <c r="O21" s="363"/>
+      <c r="P21" s="363"/>
+      <c r="Q21" s="363"/>
+      <c r="R21" s="363"/>
+      <c r="S21" s="363"/>
+      <c r="T21" s="363"/>
+      <c r="U21" s="363"/>
+      <c r="V21" s="363"/>
+      <c r="W21" s="363"/>
+      <c r="X21" s="363"/>
+      <c r="Y21" s="363"/>
+      <c r="Z21" s="363"/>
+      <c r="AA21" s="363"/>
+      <c r="AB21" s="363"/>
+      <c r="AC21" s="363"/>
+      <c r="AD21" s="363"/>
+      <c r="AE21" s="363"/>
+      <c r="AF21" s="363"/>
+      <c r="AG21" s="363"/>
+      <c r="AH21" s="364"/>
       <c r="AI21" s="249"/>
       <c r="AJ21" s="249"/>
       <c r="AK21" s="249"/>
@@ -11156,39 +11227,39 @@
     </row>
     <row r="22" spans="1:41" ht="18.5" customHeight="1">
       <c r="A22" s="249"/>
-      <c r="B22" s="416"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
-      <c r="K22" s="417"/>
-      <c r="L22" s="417"/>
-      <c r="M22" s="417"/>
-      <c r="N22" s="417"/>
-      <c r="O22" s="417"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="417"/>
-      <c r="R22" s="417"/>
-      <c r="S22" s="417"/>
-      <c r="T22" s="417"/>
-      <c r="U22" s="417"/>
-      <c r="V22" s="417"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
-      <c r="AB22" s="417"/>
-      <c r="AC22" s="417"/>
-      <c r="AD22" s="417"/>
-      <c r="AE22" s="417"/>
-      <c r="AF22" s="417"/>
-      <c r="AG22" s="417"/>
-      <c r="AH22" s="418"/>
+      <c r="B22" s="418"/>
+      <c r="C22" s="419"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="419"/>
+      <c r="M22" s="419"/>
+      <c r="N22" s="419"/>
+      <c r="O22" s="419"/>
+      <c r="P22" s="419"/>
+      <c r="Q22" s="419"/>
+      <c r="R22" s="419"/>
+      <c r="S22" s="419"/>
+      <c r="T22" s="419"/>
+      <c r="U22" s="419"/>
+      <c r="V22" s="419"/>
+      <c r="W22" s="419"/>
+      <c r="X22" s="419"/>
+      <c r="Y22" s="419"/>
+      <c r="Z22" s="419"/>
+      <c r="AA22" s="419"/>
+      <c r="AB22" s="419"/>
+      <c r="AC22" s="419"/>
+      <c r="AD22" s="419"/>
+      <c r="AE22" s="419"/>
+      <c r="AF22" s="419"/>
+      <c r="AG22" s="419"/>
+      <c r="AH22" s="420"/>
       <c r="AI22" s="249"/>
       <c r="AJ22" s="249"/>
       <c r="AK22" s="249"/>
@@ -11196,41 +11267,41 @@
     </row>
     <row r="23" spans="1:41" ht="16.5" customHeight="1">
       <c r="A23" s="249"/>
-      <c r="B23" s="386" t="s">
+      <c r="B23" s="389" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="387"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="387"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="387"/>
-      <c r="H23" s="387"/>
-      <c r="I23" s="387"/>
-      <c r="J23" s="387"/>
-      <c r="K23" s="387"/>
-      <c r="L23" s="387"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="387"/>
-      <c r="U23" s="387"/>
-      <c r="V23" s="387"/>
-      <c r="W23" s="387"/>
-      <c r="X23" s="387"/>
-      <c r="Y23" s="387"/>
-      <c r="Z23" s="387"/>
-      <c r="AA23" s="387"/>
-      <c r="AB23" s="387"/>
-      <c r="AC23" s="387"/>
-      <c r="AD23" s="387"/>
-      <c r="AE23" s="387"/>
-      <c r="AF23" s="387"/>
-      <c r="AG23" s="387"/>
-      <c r="AH23" s="388"/>
+      <c r="C23" s="390"/>
+      <c r="D23" s="390"/>
+      <c r="E23" s="390"/>
+      <c r="F23" s="390"/>
+      <c r="G23" s="390"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="390"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="390"/>
+      <c r="L23" s="390"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="390"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="390"/>
+      <c r="V23" s="390"/>
+      <c r="W23" s="390"/>
+      <c r="X23" s="390"/>
+      <c r="Y23" s="390"/>
+      <c r="Z23" s="390"/>
+      <c r="AA23" s="390"/>
+      <c r="AB23" s="390"/>
+      <c r="AC23" s="390"/>
+      <c r="AD23" s="390"/>
+      <c r="AE23" s="390"/>
+      <c r="AF23" s="390"/>
+      <c r="AG23" s="390"/>
+      <c r="AH23" s="391"/>
       <c r="AI23" s="249"/>
       <c r="AJ23" s="249"/>
       <c r="AK23" s="249"/>
@@ -11278,45 +11349,45 @@
     </row>
     <row r="25" spans="1:41" ht="17" customHeight="1">
       <c r="A25" s="249"/>
-      <c r="B25" s="419" t="s">
+      <c r="B25" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="420"/>
-      <c r="D25" s="420"/>
-      <c r="E25" s="420"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="420"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="422"/>
+      <c r="I25" s="422"/>
       <c r="J25" s="249"/>
-      <c r="K25" s="427" t="s">
+      <c r="K25" s="429" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="367"/>
-      <c r="M25" s="367"/>
-      <c r="N25" s="367"/>
-      <c r="O25" s="367"/>
+      <c r="L25" s="369"/>
+      <c r="M25" s="369"/>
+      <c r="N25" s="369"/>
+      <c r="O25" s="369"/>
       <c r="P25" s="350"/>
       <c r="Q25" s="249"/>
-      <c r="R25" s="378" t="s">
+      <c r="R25" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="S25" s="367"/>
-      <c r="T25" s="367"/>
-      <c r="U25" s="367"/>
-      <c r="V25" s="367"/>
-      <c r="W25" s="367"/>
+      <c r="S25" s="369"/>
+      <c r="T25" s="369"/>
+      <c r="U25" s="369"/>
+      <c r="V25" s="369"/>
+      <c r="W25" s="369"/>
       <c r="X25" s="350"/>
       <c r="Y25" s="249"/>
-      <c r="Z25" s="429" t="s">
+      <c r="Z25" s="431" t="s">
         <v>23</v>
       </c>
-      <c r="AA25" s="367"/>
-      <c r="AB25" s="367"/>
-      <c r="AC25" s="367"/>
-      <c r="AD25" s="367"/>
-      <c r="AE25" s="367"/>
-      <c r="AF25" s="367"/>
+      <c r="AA25" s="369"/>
+      <c r="AB25" s="369"/>
+      <c r="AC25" s="369"/>
+      <c r="AD25" s="369"/>
+      <c r="AE25" s="369"/>
+      <c r="AF25" s="369"/>
       <c r="AG25" s="350"/>
       <c r="AH25" s="241"/>
       <c r="AI25" s="249"/>
@@ -11326,15 +11397,15 @@
     </row>
     <row r="26" spans="1:41" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="287"/>
-      <c r="B26" s="398" t="s">
+      <c r="B26" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="367"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="369"/>
+      <c r="H26" s="369"/>
       <c r="I26" s="350"/>
       <c r="J26" s="287"/>
       <c r="K26" s="349" t="s">
@@ -11353,7 +11424,7 @@
       <c r="R26" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="367"/>
+      <c r="S26" s="369"/>
       <c r="T26" s="350"/>
       <c r="U26" s="349" t="s">
         <v>26</v>
@@ -11388,18 +11459,18 @@
     </row>
     <row r="27" spans="1:41" ht="17" customHeight="1">
       <c r="A27" s="249"/>
-      <c r="B27" s="398" t="s">
+      <c r="B27" s="400" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="367"/>
-      <c r="D27" s="367"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="367"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="367"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="369"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="369"/>
       <c r="I27" s="350"/>
       <c r="J27" s="249"/>
-      <c r="K27" s="393"/>
+      <c r="K27" s="395"/>
       <c r="L27" s="344"/>
       <c r="M27" s="353" t="s">
         <v>30</v>
@@ -11434,10 +11505,10 @@
         <v>30</v>
       </c>
       <c r="AE27" s="350"/>
-      <c r="AF27" s="380" t="s">
+      <c r="AF27" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="AG27" s="381"/>
+      <c r="AG27" s="384"/>
       <c r="AH27" s="241"/>
       <c r="AI27" s="249"/>
       <c r="AJ27" s="321"/>
@@ -11446,15 +11517,15 @@
     </row>
     <row r="28" spans="1:41" ht="17" customHeight="1">
       <c r="A28" s="249"/>
-      <c r="B28" s="398" t="s">
+      <c r="B28" s="400" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="367"/>
-      <c r="D28" s="367"/>
-      <c r="E28" s="367"/>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="369"/>
+      <c r="E28" s="369"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
       <c r="I28" s="350"/>
       <c r="J28" s="249"/>
       <c r="K28" s="346"/>
@@ -11492,8 +11563,8 @@
         <v>30</v>
       </c>
       <c r="AE28" s="350"/>
-      <c r="AF28" s="382"/>
-      <c r="AG28" s="383"/>
+      <c r="AF28" s="385"/>
+      <c r="AG28" s="386"/>
       <c r="AH28" s="241"/>
       <c r="AI28" s="249"/>
       <c r="AJ28" s="249"/>
@@ -11502,18 +11573,18 @@
     </row>
     <row r="29" spans="1:41" ht="17" customHeight="1">
       <c r="A29" s="249"/>
-      <c r="B29" s="398" t="s">
+      <c r="B29" s="400" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="367"/>
-      <c r="D29" s="367"/>
-      <c r="E29" s="367"/>
-      <c r="F29" s="367"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="367"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="369"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="369"/>
+      <c r="G29" s="369"/>
+      <c r="H29" s="369"/>
       <c r="I29" s="350"/>
       <c r="J29" s="249"/>
-      <c r="K29" s="412"/>
+      <c r="K29" s="414"/>
       <c r="L29" s="344"/>
       <c r="M29" s="346"/>
       <c r="N29" s="344"/>
@@ -11528,14 +11599,14 @@
       <c r="W29" s="346"/>
       <c r="X29" s="344"/>
       <c r="Y29" s="289"/>
-      <c r="Z29" s="377"/>
+      <c r="Z29" s="380"/>
       <c r="AA29" s="344"/>
       <c r="AB29" s="346"/>
       <c r="AC29" s="344"/>
       <c r="AD29" s="346"/>
       <c r="AE29" s="344"/>
-      <c r="AF29" s="384"/>
-      <c r="AG29" s="385"/>
+      <c r="AF29" s="387"/>
+      <c r="AG29" s="388"/>
       <c r="AH29" s="241"/>
       <c r="AI29" s="249"/>
       <c r="AJ29" s="249"/>
@@ -11544,7 +11615,7 @@
     </row>
     <row r="30" spans="1:41" ht="16.5" customHeight="1">
       <c r="A30" s="249"/>
-      <c r="B30" s="414" t="s">
+      <c r="B30" s="416" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="339"/>
@@ -11587,39 +11658,39 @@
     </row>
     <row r="31" spans="1:41" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="314"/>
-      <c r="B31" s="369" t="s">
+      <c r="B31" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="367"/>
-      <c r="D31" s="367"/>
-      <c r="E31" s="367"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="367"/>
-      <c r="I31" s="367"/>
-      <c r="J31" s="367"/>
-      <c r="K31" s="367"/>
-      <c r="L31" s="367"/>
-      <c r="M31" s="367"/>
-      <c r="N31" s="367"/>
-      <c r="O31" s="367"/>
-      <c r="P31" s="367"/>
-      <c r="Q31" s="367"/>
-      <c r="R31" s="367"/>
-      <c r="S31" s="367"/>
-      <c r="T31" s="367"/>
-      <c r="U31" s="367"/>
-      <c r="V31" s="367"/>
-      <c r="W31" s="367"/>
-      <c r="X31" s="367"/>
-      <c r="Y31" s="367"/>
-      <c r="Z31" s="367"/>
-      <c r="AA31" s="367"/>
-      <c r="AB31" s="367"/>
-      <c r="AC31" s="367"/>
-      <c r="AD31" s="367"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="369"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="369"/>
+      <c r="G31" s="369"/>
+      <c r="H31" s="369"/>
+      <c r="I31" s="369"/>
+      <c r="J31" s="369"/>
+      <c r="K31" s="369"/>
+      <c r="L31" s="369"/>
+      <c r="M31" s="369"/>
+      <c r="N31" s="369"/>
+      <c r="O31" s="369"/>
+      <c r="P31" s="369"/>
+      <c r="Q31" s="369"/>
+      <c r="R31" s="369"/>
+      <c r="S31" s="369"/>
+      <c r="T31" s="369"/>
+      <c r="U31" s="369"/>
+      <c r="V31" s="369"/>
+      <c r="W31" s="369"/>
+      <c r="X31" s="369"/>
+      <c r="Y31" s="369"/>
+      <c r="Z31" s="369"/>
+      <c r="AA31" s="369"/>
+      <c r="AB31" s="369"/>
+      <c r="AC31" s="369"/>
+      <c r="AD31" s="369"/>
       <c r="AE31" s="291"/>
-      <c r="AF31" s="396"/>
+      <c r="AF31" s="397"/>
       <c r="AG31" s="344"/>
       <c r="AH31" s="292"/>
       <c r="AI31" s="315"/>
@@ -11712,11 +11783,11 @@
       <c r="B34" s="326" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="376" t="s">
+      <c r="C34" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="355"/>
-      <c r="E34" s="392"/>
+      <c r="E34" s="336"/>
       <c r="F34" s="337"/>
       <c r="G34" s="337"/>
       <c r="H34" s="337"/>
@@ -11728,23 +11799,23 @@
         <v>37</v>
       </c>
       <c r="N34" s="358"/>
-      <c r="O34" s="337"/>
-      <c r="P34" s="337"/>
-      <c r="Q34" s="337"/>
-      <c r="R34" s="357"/>
+      <c r="O34" s="359"/>
+      <c r="P34" s="359"/>
+      <c r="Q34" s="359"/>
+      <c r="R34" s="360"/>
       <c r="S34" s="299"/>
-      <c r="T34" s="376" t="s">
+      <c r="T34" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U34" s="355"/>
-      <c r="V34" s="395"/>
+      <c r="V34" s="376"/>
       <c r="W34" s="337"/>
       <c r="X34" s="337"/>
       <c r="Y34" s="337"/>
       <c r="Z34" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA34" s="431"/>
+      <c r="AA34" s="378"/>
       <c r="AB34" s="337"/>
       <c r="AC34" s="337"/>
       <c r="AD34" s="357"/>
@@ -11799,7 +11870,7 @@
     </row>
     <row r="36" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="317"/>
-      <c r="B36" s="422" t="s">
+      <c r="B36" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="355"/>
@@ -11807,7 +11878,7 @@
       <c r="E36" s="355"/>
       <c r="F36" s="286"/>
       <c r="G36" s="286"/>
-      <c r="H36" s="376" t="s">
+      <c r="H36" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I36" s="355"/>
@@ -11816,11 +11887,11 @@
       <c r="L36" s="337"/>
       <c r="M36" s="337"/>
       <c r="N36" s="357"/>
-      <c r="O36" s="390" t="s">
+      <c r="O36" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="355"/>
-      <c r="Q36" s="391"/>
+      <c r="Q36" s="394"/>
       <c r="R36" s="356"/>
       <c r="S36" s="337"/>
       <c r="T36" s="337"/>
@@ -11891,7 +11962,7 @@
       <c r="E38" s="355"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
-      <c r="H38" s="368" t="s">
+      <c r="H38" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I38" s="355"/>
@@ -11900,7 +11971,7 @@
       <c r="L38" s="347"/>
       <c r="M38" s="343"/>
       <c r="N38" s="344"/>
-      <c r="O38" s="370" t="s">
+      <c r="O38" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P38" s="355"/>
@@ -11986,7 +12057,7 @@
       <c r="L40" s="355"/>
       <c r="M40" s="355"/>
       <c r="N40" s="355"/>
-      <c r="O40" s="366"/>
+      <c r="O40" s="368"/>
       <c r="P40" s="337"/>
       <c r="Q40" s="337"/>
       <c r="R40" s="337"/>
@@ -12068,7 +12139,7 @@
       <c r="L42" s="355"/>
       <c r="M42" s="355"/>
       <c r="N42" s="355"/>
-      <c r="O42" s="366"/>
+      <c r="O42" s="368"/>
       <c r="P42" s="337"/>
       <c r="Q42" s="337"/>
       <c r="R42" s="337"/>
@@ -12218,7 +12289,7 @@
       <c r="B46" s="326" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="376" t="s">
+      <c r="C46" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="355"/>
@@ -12234,23 +12305,23 @@
         <v>37</v>
       </c>
       <c r="N46" s="358"/>
-      <c r="O46" s="337"/>
-      <c r="P46" s="337"/>
-      <c r="Q46" s="337"/>
-      <c r="R46" s="357"/>
+      <c r="O46" s="359"/>
+      <c r="P46" s="359"/>
+      <c r="Q46" s="359"/>
+      <c r="R46" s="360"/>
       <c r="S46" s="299"/>
-      <c r="T46" s="376" t="s">
+      <c r="T46" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U46" s="355"/>
-      <c r="V46" s="359"/>
+      <c r="V46" s="361"/>
       <c r="W46" s="337"/>
       <c r="X46" s="337"/>
       <c r="Y46" s="337"/>
       <c r="Z46" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA46" s="375"/>
+      <c r="AA46" s="399"/>
       <c r="AB46" s="337"/>
       <c r="AC46" s="337"/>
       <c r="AD46" s="357"/>
@@ -12305,7 +12376,7 @@
     </row>
     <row r="48" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="317"/>
-      <c r="B48" s="422" t="s">
+      <c r="B48" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="355"/>
@@ -12313,7 +12384,7 @@
       <c r="E48" s="355"/>
       <c r="F48" s="286"/>
       <c r="G48" s="286"/>
-      <c r="H48" s="376" t="s">
+      <c r="H48" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I48" s="355"/>
@@ -12322,12 +12393,12 @@
       <c r="L48" s="337"/>
       <c r="M48" s="337"/>
       <c r="N48" s="357"/>
-      <c r="O48" s="390" t="s">
+      <c r="O48" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P48" s="355"/>
-      <c r="Q48" s="391"/>
-      <c r="R48" s="399"/>
+      <c r="Q48" s="394"/>
+      <c r="R48" s="401"/>
       <c r="S48" s="337"/>
       <c r="T48" s="337"/>
       <c r="U48" s="337"/>
@@ -12397,7 +12468,7 @@
       <c r="E50" s="355"/>
       <c r="F50" s="286"/>
       <c r="G50" s="286"/>
-      <c r="H50" s="368" t="s">
+      <c r="H50" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I50" s="355"/>
@@ -12406,12 +12477,12 @@
       <c r="L50" s="347"/>
       <c r="M50" s="343"/>
       <c r="N50" s="344"/>
-      <c r="O50" s="370" t="s">
+      <c r="O50" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P50" s="355"/>
       <c r="Q50" s="355"/>
-      <c r="R50" s="399"/>
+      <c r="R50" s="401"/>
       <c r="S50" s="337"/>
       <c r="T50" s="337"/>
       <c r="U50" s="337"/>
@@ -12492,7 +12563,7 @@
       <c r="L52" s="355"/>
       <c r="M52" s="355"/>
       <c r="N52" s="355"/>
-      <c r="O52" s="366"/>
+      <c r="O52" s="368"/>
       <c r="P52" s="337"/>
       <c r="Q52" s="337"/>
       <c r="R52" s="337"/>
@@ -12574,7 +12645,7 @@
       <c r="L54" s="355"/>
       <c r="M54" s="355"/>
       <c r="N54" s="355"/>
-      <c r="O54" s="366"/>
+      <c r="O54" s="368"/>
       <c r="P54" s="337"/>
       <c r="Q54" s="337"/>
       <c r="R54" s="337"/>
@@ -12724,7 +12795,7 @@
       <c r="B58" s="326" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="376" t="s">
+      <c r="C58" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="355"/>
@@ -12740,23 +12811,23 @@
         <v>37</v>
       </c>
       <c r="N58" s="358"/>
-      <c r="O58" s="337"/>
-      <c r="P58" s="337"/>
-      <c r="Q58" s="337"/>
-      <c r="R58" s="357"/>
+      <c r="O58" s="359"/>
+      <c r="P58" s="359"/>
+      <c r="Q58" s="359"/>
+      <c r="R58" s="360"/>
       <c r="S58" s="299"/>
-      <c r="T58" s="376" t="s">
+      <c r="T58" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U58" s="355"/>
-      <c r="V58" s="359"/>
+      <c r="V58" s="376"/>
       <c r="W58" s="337"/>
       <c r="X58" s="337"/>
       <c r="Y58" s="337"/>
       <c r="Z58" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA58" s="375"/>
+      <c r="AA58" s="378"/>
       <c r="AB58" s="337"/>
       <c r="AC58" s="337"/>
       <c r="AD58" s="357"/>
@@ -12811,7 +12882,7 @@
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A60" s="317"/>
-      <c r="B60" s="422" t="s">
+      <c r="B60" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="355"/>
@@ -12819,7 +12890,7 @@
       <c r="E60" s="355"/>
       <c r="F60" s="286"/>
       <c r="G60" s="286"/>
-      <c r="H60" s="376" t="s">
+      <c r="H60" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="355"/>
@@ -12828,11 +12899,11 @@
       <c r="L60" s="337"/>
       <c r="M60" s="337"/>
       <c r="N60" s="357"/>
-      <c r="O60" s="390" t="s">
+      <c r="O60" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P60" s="355"/>
-      <c r="Q60" s="391"/>
+      <c r="Q60" s="394"/>
       <c r="R60" s="356"/>
       <c r="S60" s="337"/>
       <c r="T60" s="337"/>
@@ -12903,7 +12974,7 @@
       <c r="E62" s="355"/>
       <c r="F62" s="286"/>
       <c r="G62" s="286"/>
-      <c r="H62" s="368" t="s">
+      <c r="H62" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="355"/>
@@ -12912,7 +12983,7 @@
       <c r="L62" s="347"/>
       <c r="M62" s="343"/>
       <c r="N62" s="344"/>
-      <c r="O62" s="370" t="s">
+      <c r="O62" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P62" s="355"/>
@@ -12998,7 +13069,7 @@
       <c r="L64" s="355"/>
       <c r="M64" s="355"/>
       <c r="N64" s="355"/>
-      <c r="O64" s="366"/>
+      <c r="O64" s="368"/>
       <c r="P64" s="337"/>
       <c r="Q64" s="337"/>
       <c r="R64" s="337"/>
@@ -13080,7 +13151,7 @@
       <c r="L66" s="355"/>
       <c r="M66" s="355"/>
       <c r="N66" s="355"/>
-      <c r="O66" s="366"/>
+      <c r="O66" s="368"/>
       <c r="P66" s="337"/>
       <c r="Q66" s="337"/>
       <c r="R66" s="337"/>
@@ -13230,11 +13301,11 @@
       <c r="B70" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="376" t="s">
+      <c r="C70" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="355"/>
-      <c r="E70" s="392"/>
+      <c r="E70" s="336"/>
       <c r="F70" s="337"/>
       <c r="G70" s="337"/>
       <c r="H70" s="337"/>
@@ -13246,23 +13317,23 @@
         <v>37</v>
       </c>
       <c r="N70" s="358"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="357"/>
+      <c r="O70" s="359"/>
+      <c r="P70" s="359"/>
+      <c r="Q70" s="359"/>
+      <c r="R70" s="360"/>
       <c r="S70" s="299"/>
-      <c r="T70" s="376" t="s">
+      <c r="T70" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U70" s="355"/>
-      <c r="V70" s="359"/>
+      <c r="V70" s="361"/>
       <c r="W70" s="337"/>
       <c r="X70" s="337"/>
       <c r="Y70" s="337"/>
       <c r="Z70" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA70" s="375"/>
+      <c r="AA70" s="399"/>
       <c r="AB70" s="337"/>
       <c r="AC70" s="337"/>
       <c r="AD70" s="357"/>
@@ -13317,7 +13388,7 @@
     </row>
     <row r="72" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A72" s="317"/>
-      <c r="B72" s="422" t="s">
+      <c r="B72" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="355"/>
@@ -13325,7 +13396,7 @@
       <c r="E72" s="355"/>
       <c r="F72" s="286"/>
       <c r="G72" s="286"/>
-      <c r="H72" s="376" t="s">
+      <c r="H72" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I72" s="355"/>
@@ -13334,11 +13405,11 @@
       <c r="L72" s="337"/>
       <c r="M72" s="337"/>
       <c r="N72" s="357"/>
-      <c r="O72" s="390" t="s">
+      <c r="O72" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P72" s="355"/>
-      <c r="Q72" s="391"/>
+      <c r="Q72" s="394"/>
       <c r="R72" s="356"/>
       <c r="S72" s="337"/>
       <c r="T72" s="337"/>
@@ -13409,7 +13480,7 @@
       <c r="E74" s="355"/>
       <c r="F74" s="286"/>
       <c r="G74" s="286"/>
-      <c r="H74" s="368" t="s">
+      <c r="H74" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I74" s="355"/>
@@ -13418,7 +13489,7 @@
       <c r="L74" s="347"/>
       <c r="M74" s="343"/>
       <c r="N74" s="344"/>
-      <c r="O74" s="370" t="s">
+      <c r="O74" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P74" s="355"/>
@@ -13504,7 +13575,7 @@
       <c r="L76" s="355"/>
       <c r="M76" s="355"/>
       <c r="N76" s="355"/>
-      <c r="O76" s="366"/>
+      <c r="O76" s="368"/>
       <c r="P76" s="337"/>
       <c r="Q76" s="337"/>
       <c r="R76" s="337"/>
@@ -13586,7 +13657,7 @@
       <c r="L78" s="355"/>
       <c r="M78" s="355"/>
       <c r="N78" s="355"/>
-      <c r="O78" s="366"/>
+      <c r="O78" s="368"/>
       <c r="P78" s="337"/>
       <c r="Q78" s="337"/>
       <c r="R78" s="337"/>
@@ -13778,533 +13849,552 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="168">
-    <mergeCell ref="H76:N76"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="B36:E38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="H4:I8"/>
-    <mergeCell ref="O66:AG66"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="B28:I28"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="J1:T2"/>
-    <mergeCell ref="E70:L70"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:AG4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="B4:C8"/>
+    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="H4:I8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="W15:AG15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:AH20"/>
+    <mergeCell ref="B21:AH21"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R10:AG10"/>
+    <mergeCell ref="B13:E15"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:AG13"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:R15"/>
     <mergeCell ref="T15:V15"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B48:E50"/>
-    <mergeCell ref="H52:N52"/>
-    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="B22:AH22"/>
+    <mergeCell ref="B23:AH23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG29"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="AA34:AD34"/>
     <mergeCell ref="W29:X29"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="R48:AG48"/>
-    <mergeCell ref="H78:N78"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="O78:AG78"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="R38:AG38"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B72:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O54:AG54"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="B13:E15"/>
-    <mergeCell ref="B30:AG30"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B22:AH22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="O42:AG42"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="R62:AG62"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="B60:E62"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="R74:AG74"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="O64:AG64"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="R50:AG50"/>
-    <mergeCell ref="B4:C8"/>
-    <mergeCell ref="O40:AG40"/>
+    <mergeCell ref="Z29:AA29"/>
     <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="B30:AG30"/>
+    <mergeCell ref="B31:AD31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="B36:E38"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:AG36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:AG38"/>
+    <mergeCell ref="B40:E42"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="O40:AG40"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="O42:AG42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:L46"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="B48:E50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:AG48"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:AG50"/>
+    <mergeCell ref="B52:E54"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="O52:AG52"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="O54:AG54"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:L58"/>
+    <mergeCell ref="N58:R58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:Y58"/>
+    <mergeCell ref="AA58:AD58"/>
+    <mergeCell ref="B60:E62"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:AG60"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="R62:AG62"/>
+    <mergeCell ref="B64:E66"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="O64:AG64"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="O66:AG66"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:L70"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="V70:Y70"/>
+    <mergeCell ref="B76:E78"/>
+    <mergeCell ref="H76:N76"/>
+    <mergeCell ref="O76:AG76"/>
+    <mergeCell ref="H78:N78"/>
+    <mergeCell ref="O78:AG78"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="B72:E74"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:AG72"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:N74"/>
     <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="D4:E8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="AF27:AG29"/>
-    <mergeCell ref="R72:AG72"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B23:AH23"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="B64:E66"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="O13:AG13"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="N58:R58"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B52:E54"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="O76:AG76"/>
-    <mergeCell ref="B31:AD31"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B76:E78"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="V58:Y58"/>
-    <mergeCell ref="R60:AG60"/>
-    <mergeCell ref="AA58:AD58"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="E46:L46"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="R36:AG36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="H66:N66"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="E58:L58"/>
-    <mergeCell ref="W4:AG4"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B40:E42"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="W15:AG15"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="R10:AG10"/>
-    <mergeCell ref="R25:X25"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="V70:Y70"/>
-    <mergeCell ref="B21:AH21"/>
-    <mergeCell ref="E20:AH20"/>
-    <mergeCell ref="O52:AG52"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="R74:AG74"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="B13:E15">
-    <cfRule type="expression" dxfId="184" priority="52">
+    <cfRule type="expression" dxfId="188" priority="56">
       <formula>AND($O$13,$L$15,$W$15)=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:G18">
-    <cfRule type="expression" dxfId="183" priority="56">
+    <cfRule type="expression" dxfId="187" priority="60">
       <formula>$H$18=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:I25">
-    <cfRule type="expression" dxfId="182" priority="40">
+    <cfRule type="expression" dxfId="186" priority="44">
       <formula>AND($K$27="",$K$28="",$K$29="",$M$29="",$O$29="",$R$27="",$R$28="",$R$29="",$U$29="",$W$29="",$Z$29="",$AB$29="",$AD$29="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="expression" dxfId="181" priority="39">
+    <cfRule type="expression" dxfId="185" priority="43">
       <formula>$E$34=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:D46">
-    <cfRule type="expression" dxfId="180" priority="28">
+    <cfRule type="expression" dxfId="184" priority="32">
       <formula>$E$46=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:D58">
-    <cfRule type="expression" dxfId="179" priority="19">
+    <cfRule type="expression" dxfId="183" priority="23">
       <formula>$E$58=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:D70">
-    <cfRule type="expression" dxfId="178" priority="8">
+    <cfRule type="expression" dxfId="182" priority="14">
       <formula>$E$70=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E8">
-    <cfRule type="containsBlanks" dxfId="177" priority="57">
+    <cfRule type="containsBlanks" dxfId="181" priority="61">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:L34">
-    <cfRule type="containsBlanks" dxfId="176" priority="38">
+    <cfRule type="containsBlanks" dxfId="180" priority="42">
       <formula>LEN(TRIM(E34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:L46">
-    <cfRule type="containsBlanks" dxfId="175" priority="61">
+    <cfRule type="containsBlanks" dxfId="179" priority="69" stopIfTrue="1">
       <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:L58">
-    <cfRule type="containsBlanks" dxfId="174" priority="18">
+    <cfRule type="containsBlanks" dxfId="178" priority="2">
       <formula>LEN(TRIM(E58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:L70">
-    <cfRule type="containsBlanks" dxfId="173" priority="65">
+    <cfRule type="containsBlanks" dxfId="177" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:I36">
-    <cfRule type="expression" dxfId="172" priority="34">
+    <cfRule type="expression" dxfId="176" priority="38">
       <formula>$J$36=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:I48">
-    <cfRule type="expression" dxfId="171" priority="26">
+    <cfRule type="expression" dxfId="175" priority="30">
       <formula>$J$48=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:I60">
-    <cfRule type="expression" dxfId="170" priority="14">
+    <cfRule type="expression" dxfId="174" priority="20">
       <formula>$J$60=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:I72">
-    <cfRule type="expression" dxfId="169" priority="6">
+    <cfRule type="expression" dxfId="173" priority="12">
       <formula>$J$72=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:K15">
-    <cfRule type="expression" dxfId="168" priority="54">
+    <cfRule type="expression" dxfId="172" priority="58">
       <formula>$L$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:K38">
-    <cfRule type="expression" dxfId="167" priority="31">
+    <cfRule type="expression" dxfId="171" priority="35">
       <formula>$L$38=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:K50">
-    <cfRule type="expression" dxfId="166" priority="23">
+    <cfRule type="expression" dxfId="170" priority="27">
       <formula>$L$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:K62">
-    <cfRule type="expression" dxfId="165" priority="11">
+    <cfRule type="expression" dxfId="169" priority="17">
       <formula>$L$62=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:K74">
-    <cfRule type="expression" dxfId="164" priority="3">
+    <cfRule type="expression" dxfId="168" priority="9">
       <formula>$L$74=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:N13">
-    <cfRule type="expression" dxfId="163" priority="55">
+    <cfRule type="expression" dxfId="167" priority="59">
       <formula>$O$13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:N40">
-    <cfRule type="expression" dxfId="162" priority="30">
+    <cfRule type="expression" dxfId="166" priority="34">
       <formula>$O$40=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:N42">
-    <cfRule type="expression" dxfId="161" priority="29">
+    <cfRule type="expression" dxfId="165" priority="33">
       <formula>$O$42=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:N52">
-    <cfRule type="expression" dxfId="160" priority="22">
+    <cfRule type="expression" dxfId="164" priority="26">
       <formula>$O$52=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:N54">
-    <cfRule type="expression" dxfId="159" priority="21">
+    <cfRule type="expression" dxfId="163" priority="25">
       <formula>$O$54=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:N64">
-    <cfRule type="expression" dxfId="158" priority="10">
+    <cfRule type="expression" dxfId="162" priority="16">
       <formula>$O$64=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:N66">
-    <cfRule type="expression" dxfId="157" priority="9">
+    <cfRule type="expression" dxfId="161" priority="15">
       <formula>$O$66=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:N76">
-    <cfRule type="expression" dxfId="156" priority="2">
+    <cfRule type="expression" dxfId="160" priority="8">
       <formula>$O$76=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:N78">
-    <cfRule type="expression" dxfId="155" priority="1">
+    <cfRule type="expression" dxfId="159" priority="7">
       <formula>$O$78=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AH18">
-    <cfRule type="containsBlanks" dxfId="154" priority="51">
+    <cfRule type="containsBlanks" dxfId="158" priority="55">
       <formula>LEN(TRIM(H18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:N36 R36:AG36 R38:AG38 O40:AG40 O42:AG42">
-    <cfRule type="containsBlanks" dxfId="153" priority="36">
+    <cfRule type="containsBlanks" dxfId="157" priority="40">
       <formula>LEN(TRIM(J36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:N48 R48:AG48 R50:AG50 O52:AG52 O54:AG54">
-    <cfRule type="containsBlanks" dxfId="152" priority="63">
+    <cfRule type="containsBlanks" dxfId="156" priority="66">
       <formula>LEN(TRIM(J48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:N60 R60:AG60 R62:AG62 O64:AG64 O66:AG66">
-    <cfRule type="containsBlanks" dxfId="151" priority="16">
+    <cfRule type="containsBlanks" dxfId="155" priority="22">
       <formula>LEN(TRIM(J60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:N72 R72:AG72 R74:AG74 O76:AG76 O78:AG78">
-    <cfRule type="containsBlanks" dxfId="150" priority="67">
+    <cfRule type="containsBlanks" dxfId="154" priority="68">
       <formula>LEN(TRIM(J72))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:N38">
-    <cfRule type="containsBlanks" dxfId="149" priority="59">
+    <cfRule type="containsBlanks" dxfId="153" priority="63">
       <formula>LEN(TRIM(L38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:N50">
-    <cfRule type="containsBlanks" dxfId="148" priority="60">
+    <cfRule type="containsBlanks" dxfId="152" priority="64">
       <formula>LEN(TRIM(L50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62:N62">
-    <cfRule type="containsBlanks" dxfId="147" priority="20">
+    <cfRule type="containsBlanks" dxfId="151" priority="24">
       <formula>LEN(TRIM(L62))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74:N74">
-    <cfRule type="containsBlanks" dxfId="146" priority="64">
+    <cfRule type="containsBlanks" dxfId="150" priority="67">
       <formula>LEN(TRIM(L74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:R15">
-    <cfRule type="containsBlanks" dxfId="145" priority="42">
+    <cfRule type="containsBlanks" dxfId="149" priority="46">
       <formula>LEN(TRIM(L15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N4">
-    <cfRule type="containsBlanks" dxfId="144" priority="50">
+    <cfRule type="containsBlanks" dxfId="148" priority="54">
       <formula>LEN(TRIM(M4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:R6">
-    <cfRule type="containsBlanks" dxfId="143" priority="48">
+    <cfRule type="containsBlanks" dxfId="147" priority="52">
       <formula>LEN(TRIM(M6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:R8">
-    <cfRule type="containsBlanks" dxfId="142" priority="47">
+    <cfRule type="containsBlanks" dxfId="146" priority="51">
       <formula>LEN(TRIM(M8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36:Q36">
-    <cfRule type="expression" dxfId="141" priority="33">
+    <cfRule type="expression" dxfId="145" priority="37">
       <formula>$R$36=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:Q38">
-    <cfRule type="expression" dxfId="140" priority="32">
+    <cfRule type="expression" dxfId="144" priority="36">
       <formula>$R$38=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48:Q48">
-    <cfRule type="expression" dxfId="139" priority="25">
+    <cfRule type="expression" dxfId="143" priority="29">
       <formula>$R$48=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:Q50">
-    <cfRule type="expression" dxfId="138" priority="24">
+    <cfRule type="expression" dxfId="142" priority="28">
       <formula>$R$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:Q60">
-    <cfRule type="expression" dxfId="137" priority="13">
+    <cfRule type="expression" dxfId="141" priority="19">
       <formula>$R$60=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62:Q62">
-    <cfRule type="expression" dxfId="136" priority="12">
+    <cfRule type="expression" dxfId="140" priority="18">
       <formula>$R$62=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:Q72">
-    <cfRule type="expression" dxfId="135" priority="5">
+    <cfRule type="expression" dxfId="139" priority="11">
       <formula>$R$72=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O74:Q74">
-    <cfRule type="expression" dxfId="134" priority="4">
+    <cfRule type="expression" dxfId="138" priority="10">
       <formula>$R$74=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:AG13">
-    <cfRule type="containsBlanks" dxfId="133" priority="43">
+    <cfRule type="containsBlanks" dxfId="137" priority="47">
       <formula>LEN(TRIM(O13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="containsBlanks" dxfId="132" priority="49">
+    <cfRule type="containsBlanks" dxfId="136" priority="53">
       <formula>LEN(TRIM(P4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:U34">
-    <cfRule type="expression" dxfId="131" priority="35">
+    <cfRule type="expression" dxfId="135" priority="39">
       <formula>OR($V$34="",$AA$34="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U46">
-    <cfRule type="expression" dxfId="130" priority="27">
+    <cfRule type="expression" dxfId="134" priority="31">
       <formula>OR($V$46="",$AA$46="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T58:U58">
-    <cfRule type="expression" dxfId="129" priority="15">
+    <cfRule type="expression" dxfId="133" priority="21">
       <formula>OR($V$58="",$AA$58="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T70:U70">
-    <cfRule type="expression" dxfId="128" priority="7">
+    <cfRule type="expression" dxfId="132" priority="13">
       <formula>OR($V$70="",$AA$70="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:V15">
-    <cfRule type="expression" dxfId="127" priority="53">
+    <cfRule type="expression" dxfId="131" priority="57">
       <formula>$W$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:Y34 AA34:AD34">
-    <cfRule type="containsBlanks" dxfId="126" priority="37">
+    <cfRule type="containsBlanks" dxfId="130" priority="41">
       <formula>LEN(TRIM(V34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V46:Y46 AA46:AD46">
-    <cfRule type="containsBlanks" dxfId="125" priority="62">
+    <cfRule type="containsBlanks" dxfId="129" priority="65">
       <formula>LEN(TRIM(V46))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V58:Y58 AA58:AD58">
-    <cfRule type="containsBlanks" dxfId="124" priority="17">
+  <conditionalFormatting sqref="V58:Y58">
+    <cfRule type="containsBlanks" dxfId="128" priority="6">
       <formula>LEN(TRIM(V58))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V70:Y70 AA70:AD70">
-    <cfRule type="containsBlanks" dxfId="123" priority="66">
+  <conditionalFormatting sqref="V70:Y70">
+    <cfRule type="containsBlanks" dxfId="127" priority="4">
       <formula>LEN(TRIM(V70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AG4">
-    <cfRule type="containsBlanks" dxfId="122" priority="46">
+    <cfRule type="containsBlanks" dxfId="126" priority="50">
       <formula>LEN(TRIM(W4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:AG6">
-    <cfRule type="containsBlanks" dxfId="121" priority="45">
+    <cfRule type="containsBlanks" dxfId="125" priority="49">
       <formula>LEN(TRIM(W6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:AG8">
-    <cfRule type="containsBlanks" dxfId="120" priority="44">
+    <cfRule type="containsBlanks" dxfId="124" priority="48">
       <formula>LEN(TRIM(W8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="containsBlanks" dxfId="119" priority="41">
+    <cfRule type="containsBlanks" dxfId="123" priority="45">
       <formula>LEN(TRIM(W15))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA58:AD58">
+    <cfRule type="containsBlanks" dxfId="122" priority="5">
+      <formula>LEN(TRIM(AA58))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA70:AD70">
+    <cfRule type="containsBlanks" dxfId="121" priority="3">
+      <formula>LEN(TRIM(AA70))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF27:AG29">
-    <cfRule type="containsBlanks" dxfId="118" priority="58">
+    <cfRule type="containsBlanks" dxfId="120" priority="62">
       <formula>LEN(TRIM(AF27))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" prompt="セル右側の▼をクリックして｢新規｣｢変更｣｢削除｣を選んで下さい。_x000a_「変更」の場合は、必ずコメント欄に変更内容を明記して下さい。" sqref="D4:E9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="date" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日付確認" error="使用開始日より前の日付が入力されています。" promptTitle="終了日入力" prompt="1/1 or 2026/1/1 のような形で入力してください。" sqref="N34:R34 N58:R58 N46:R46 N70:R70" xr:uid="{F2809356-1CDC-0840-B9C1-F8A08752ABBF}">
+      <formula1>E34</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日付確認" error="本日より前の日付です。" promptTitle="開始日入力" prompt="1/1 or 2026/1/1 のような形で入力してください。" sqref="E34:L34 E58:L58 E46:L46 E70:L70" xr:uid="{139F8A34-84BF-F84A-8452-D8C7E93942DF}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="V34:Y34 AA34:AD34 V46:Y46 AA46:AD46 V58:Y58 AA58:AD58 V70:Y70 AA70:AD70" xr:uid="{77719520-2E8F-1449-8364-1EC9EC68A50B}">
+      <formula1>"09:00, 10:00, 11:00, 12:00, 13:00, 14:00, 15:00, 16:00, 17:00, 18:00, 19:00, 20:00, 21:00, 22:00, 23:00"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" prompt="セル右側の▼をクリックして｢新規｣｢変更｣｢削除｣を選んで下さい。_x000a_「変更」の場合は、必ずコメント欄に変更内容を明記して下さい。" sqref="D4:E9" xr:uid="{3390622C-8396-3640-BABC-EA6F5B23A60B}">
       <formula1>"新規,変更,削除,　"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="赤色セル右側の▼をクリックして、「屋内」か「屋外」を選んで下さい。_x000a__x000a_屋内と屋外の両方で使用する場合は、「屋外」を選んで下さい。" sqref="L38:N38 L50:N50 L62:N62 L74:N74" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="赤色セル右側の▼をクリックして、「屋内」か「屋外」を選んで下さい。_x000a__x000a_屋内と屋外の両方で使用する場合は、「屋外」を選んで下さい。" sqref="L38:N38 L50:N50 L62:N62 L74:N74" xr:uid="{2FB67004-43F1-4A47-B612-3413F352F96E}">
       <formula1>"屋内,屋外,　"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="1.2GHz帯は原則、Ｌチャンネルの入力となります。_x000a_MまたはHチャンネルを使用する場合は、右側の▼をクリックし、ＭまたはＨを選んで下さい。" sqref="AF27:AG29" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="1.2GHz帯は原則、Ｌチャンネルの入力となります。_x000a_MまたはHチャンネルを使用する場合は、右側の▼をクリックし、ＭまたはＨを選んで下さい。" sqref="AF27:AG29" xr:uid="{CFCE64E4-BFB0-D648-9C2E-A966419D00B0}">
       <formula1>"L,M,H,　"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="「変更」の場合には、必ずコメント欄に変更内容を明記してください。" sqref="D12:E16" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="「変更」の場合には、必ずコメント欄に変更内容を明記してください。" sqref="D12:E16" xr:uid="{4D08DF71-FC9A-5548-BBCA-3632CA779858}">
       <formula1>"新規,変更,削除"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="催事名は運用調整システムにおける必須入力項目となります。また、東京ビッグサイト、幕張メッセなどでの大規模展示会の際はホールの番号やご担当ブースもご記入下さい。" sqref="H18" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation imeMode="on" showInputMessage="1" showErrorMessage="1" prompt="右隣の赤いセルをクリックして下さい。" sqref="B4:C9" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="総務省のチャンネルリストに載っているホール名、部屋名などをご記入下さい。" sqref="H40:AG40 H52:AG52 H64:AG64 H76:AG76" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation type="list" showInputMessage="1" sqref="AF31:AG31" xr:uid="{00000000-0002-0000-0100-000007000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="催事名は運用調整システムにおける必須入力項目となります。また、東京ビッグサイト、幕張メッセなどでの大規模展示会の際はホールの番号やご担当ブースもご記入下さい。" sqref="H18" xr:uid="{CF8A67F2-F4DF-5144-B8A9-9FCDD40D357E}"/>
+    <dataValidation imeMode="on" showInputMessage="1" showErrorMessage="1" prompt="右隣の赤いセルをクリックして下さい。" sqref="B4:C9" xr:uid="{B4727ACC-1F5E-A84A-B23D-D06B4629D45A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="総務省のチャンネルリストに載っているホール名、部屋名などをご記入下さい。" sqref="H40:AG40 H52:AG52 H64:AG64 H76:AG76" xr:uid="{25E2BEA2-148B-F943-9E0D-F008B42DD913}"/>
+    <dataValidation type="list" showInputMessage="1" sqref="AF31:AG31" xr:uid="{A052FE5A-F911-C349-8D40-0C6E8A73B16B}">
       <formula1>"○,　"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="X2" r:id="rId1" xr:uid="{6CCE92AF-EF1B-3140-826D-D0ED90C088D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14314,14 +14404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9856B54B-1C1A-3545-BC44-526FEACC5444}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:L27"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="V70" sqref="V70:Y70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -14348,7 +14438,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="433" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="339"/>
@@ -14359,7 +14449,7 @@
       <c r="G1" s="339"/>
       <c r="H1" s="339"/>
       <c r="I1" s="249"/>
-      <c r="J1" s="433" t="s">
+      <c r="J1" s="434" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="339"/>
@@ -14374,22 +14464,22 @@
       <c r="T1" s="339"/>
       <c r="U1" s="284"/>
       <c r="V1" s="285"/>
-      <c r="W1" s="430"/>
+      <c r="W1" s="432"/>
       <c r="X1" s="339"/>
       <c r="Y1" s="339"/>
       <c r="Z1" s="339"/>
       <c r="AA1" s="339"/>
-      <c r="AB1" s="425" t="s">
+      <c r="AB1" s="427" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="339"/>
-      <c r="AD1" s="434">
+      <c r="AD1" s="435">
         <f ca="1">TODAY()</f>
-        <v>46054</v>
-      </c>
-      <c r="AE1" s="435"/>
-      <c r="AF1" s="435"/>
-      <c r="AG1" s="436"/>
+        <v>46055</v>
+      </c>
+      <c r="AE1" s="436"/>
+      <c r="AF1" s="436"/>
+      <c r="AG1" s="437"/>
       <c r="AH1" s="270"/>
       <c r="AI1" s="249"/>
       <c r="AJ1" s="249"/>
@@ -14422,7 +14512,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="339"/>
-      <c r="X2" s="426" t="s">
+      <c r="X2" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Y2" s="339"/>
@@ -14480,28 +14570,28 @@
       <c r="AK3" s="249"/>
       <c r="AL3" s="249"/>
     </row>
-    <row r="4" spans="1:38" ht="18" customHeight="1">
+    <row r="4" spans="1:38" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="249"/>
-      <c r="B4" s="400" t="s">
+      <c r="B4" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="401"/>
-      <c r="D4" s="406" t="s">
+      <c r="C4" s="403"/>
+      <c r="D4" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="407"/>
+      <c r="E4" s="409"/>
       <c r="F4" s="252"/>
       <c r="G4" s="283"/>
-      <c r="H4" s="428" t="s">
+      <c r="H4" s="430" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="339"/>
       <c r="J4" s="277"/>
-      <c r="K4" s="411" t="s">
+      <c r="K4" s="413" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="339"/>
-      <c r="M4" s="412"/>
+      <c r="M4" s="414"/>
       <c r="N4" s="344"/>
       <c r="O4" s="270" t="s">
         <v>9</v>
@@ -14534,10 +14624,10 @@
     </row>
     <row r="5" spans="1:38" ht="3.75" customHeight="1">
       <c r="A5" s="249"/>
-      <c r="B5" s="402"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="408"/>
+      <c r="B5" s="404"/>
+      <c r="C5" s="405"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="410"/>
       <c r="F5" s="252"/>
       <c r="G5" s="283"/>
       <c r="H5" s="339"/>
@@ -14574,16 +14664,16 @@
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1">
       <c r="A6" s="249"/>
-      <c r="B6" s="402"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="408"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="410"/>
       <c r="F6" s="252"/>
       <c r="G6" s="283"/>
       <c r="H6" s="339"/>
       <c r="I6" s="339"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="415" t="s">
+      <c r="K6" s="417" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="339"/>
@@ -14594,7 +14684,7 @@
       <c r="Q6" s="343"/>
       <c r="R6" s="344"/>
       <c r="S6" s="269"/>
-      <c r="T6" s="371" t="s">
+      <c r="T6" s="373" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="339"/>
@@ -14618,10 +14708,10 @@
     </row>
     <row r="7" spans="1:38" ht="3.75" customHeight="1">
       <c r="A7" s="249"/>
-      <c r="B7" s="402"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="408"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="385"/>
+      <c r="E7" s="410"/>
       <c r="F7" s="252"/>
       <c r="G7" s="283"/>
       <c r="H7" s="339"/>
@@ -14658,16 +14748,16 @@
     </row>
     <row r="8" spans="1:38" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="249"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="409"/>
-      <c r="E8" s="410"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="412"/>
       <c r="F8" s="252"/>
       <c r="G8" s="283"/>
       <c r="H8" s="339"/>
       <c r="I8" s="339"/>
       <c r="J8" s="277"/>
-      <c r="K8" s="415" t="s">
+      <c r="K8" s="417" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="339"/>
@@ -14683,7 +14773,7 @@
       </c>
       <c r="U8" s="339"/>
       <c r="V8" s="339"/>
-      <c r="W8" s="397"/>
+      <c r="W8" s="398"/>
       <c r="X8" s="343"/>
       <c r="Y8" s="343"/>
       <c r="Z8" s="343"/>
@@ -14741,7 +14831,7 @@
       <c r="AL9" s="249"/>
     </row>
     <row r="10" spans="1:38" ht="16.5" customHeight="1">
-      <c r="A10" s="421"/>
+      <c r="A10" s="423"/>
       <c r="B10" s="339"/>
       <c r="C10" s="339"/>
       <c r="D10" s="339"/>
@@ -14758,7 +14848,7 @@
       <c r="O10" s="339"/>
       <c r="P10" s="339"/>
       <c r="Q10" s="339"/>
-      <c r="R10" s="374" t="s">
+      <c r="R10" s="377" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="339"/>
@@ -14864,7 +14954,7 @@
     </row>
     <row r="13" spans="1:38" ht="18" customHeight="1">
       <c r="A13" s="325"/>
-      <c r="B13" s="413" t="s">
+      <c r="B13" s="415" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="339"/>
@@ -14881,7 +14971,7 @@
       <c r="L13" s="339"/>
       <c r="M13" s="339"/>
       <c r="N13" s="339"/>
-      <c r="O13" s="389"/>
+      <c r="O13" s="392"/>
       <c r="P13" s="343"/>
       <c r="Q13" s="343"/>
       <c r="R13" s="343"/>
@@ -14960,7 +15050,7 @@
       <c r="I15" s="339"/>
       <c r="J15" s="339"/>
       <c r="K15" s="339"/>
-      <c r="L15" s="394"/>
+      <c r="L15" s="396"/>
       <c r="M15" s="343"/>
       <c r="N15" s="343"/>
       <c r="O15" s="343"/>
@@ -15072,15 +15162,15 @@
     </row>
     <row r="18" spans="1:41" ht="18" customHeight="1">
       <c r="A18" s="249"/>
-      <c r="B18" s="423" t="s">
+      <c r="B18" s="425" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="339"/>
       <c r="D18" s="339"/>
       <c r="E18" s="339"/>
       <c r="F18" s="339"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="379"/>
+      <c r="G18" s="426"/>
+      <c r="H18" s="382"/>
       <c r="I18" s="343"/>
       <c r="J18" s="343"/>
       <c r="K18" s="343"/>
@@ -15154,41 +15244,41 @@
     </row>
     <row r="20" spans="1:41" ht="18.5" customHeight="1">
       <c r="A20" s="249"/>
-      <c r="B20" s="372" t="s">
+      <c r="B20" s="374" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="363"/>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
-      <c r="I20" s="364"/>
-      <c r="J20" s="364"/>
-      <c r="K20" s="364"/>
-      <c r="L20" s="364"/>
-      <c r="M20" s="364"/>
-      <c r="N20" s="364"/>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
-      <c r="Y20" s="364"/>
-      <c r="Z20" s="364"/>
-      <c r="AA20" s="364"/>
-      <c r="AB20" s="364"/>
-      <c r="AC20" s="364"/>
-      <c r="AD20" s="364"/>
-      <c r="AE20" s="364"/>
-      <c r="AF20" s="364"/>
-      <c r="AG20" s="364"/>
-      <c r="AH20" s="365"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="365"/>
+      <c r="F20" s="366"/>
+      <c r="G20" s="366"/>
+      <c r="H20" s="366"/>
+      <c r="I20" s="366"/>
+      <c r="J20" s="366"/>
+      <c r="K20" s="366"/>
+      <c r="L20" s="366"/>
+      <c r="M20" s="366"/>
+      <c r="N20" s="366"/>
+      <c r="O20" s="366"/>
+      <c r="P20" s="366"/>
+      <c r="Q20" s="366"/>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
+      <c r="T20" s="366"/>
+      <c r="U20" s="366"/>
+      <c r="V20" s="366"/>
+      <c r="W20" s="366"/>
+      <c r="X20" s="366"/>
+      <c r="Y20" s="366"/>
+      <c r="Z20" s="366"/>
+      <c r="AA20" s="366"/>
+      <c r="AB20" s="366"/>
+      <c r="AC20" s="366"/>
+      <c r="AD20" s="366"/>
+      <c r="AE20" s="366"/>
+      <c r="AF20" s="366"/>
+      <c r="AG20" s="366"/>
+      <c r="AH20" s="367"/>
       <c r="AI20" s="249"/>
       <c r="AJ20" s="249"/>
       <c r="AK20" s="249"/>
@@ -15196,39 +15286,39 @@
     </row>
     <row r="21" spans="1:41" ht="18.5" customHeight="1">
       <c r="A21" s="249"/>
-      <c r="B21" s="360"/>
-      <c r="C21" s="361"/>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="361"/>
-      <c r="J21" s="361"/>
-      <c r="K21" s="361"/>
-      <c r="L21" s="361"/>
-      <c r="M21" s="361"/>
-      <c r="N21" s="361"/>
-      <c r="O21" s="361"/>
-      <c r="P21" s="361"/>
-      <c r="Q21" s="361"/>
-      <c r="R21" s="361"/>
-      <c r="S21" s="361"/>
-      <c r="T21" s="361"/>
-      <c r="U21" s="361"/>
-      <c r="V21" s="361"/>
-      <c r="W21" s="361"/>
-      <c r="X21" s="361"/>
-      <c r="Y21" s="361"/>
-      <c r="Z21" s="361"/>
-      <c r="AA21" s="361"/>
-      <c r="AB21" s="361"/>
-      <c r="AC21" s="361"/>
-      <c r="AD21" s="361"/>
-      <c r="AE21" s="361"/>
-      <c r="AF21" s="361"/>
-      <c r="AG21" s="361"/>
-      <c r="AH21" s="362"/>
+      <c r="B21" s="362"/>
+      <c r="C21" s="363"/>
+      <c r="D21" s="363"/>
+      <c r="E21" s="363"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="363"/>
+      <c r="H21" s="363"/>
+      <c r="I21" s="363"/>
+      <c r="J21" s="363"/>
+      <c r="K21" s="363"/>
+      <c r="L21" s="363"/>
+      <c r="M21" s="363"/>
+      <c r="N21" s="363"/>
+      <c r="O21" s="363"/>
+      <c r="P21" s="363"/>
+      <c r="Q21" s="363"/>
+      <c r="R21" s="363"/>
+      <c r="S21" s="363"/>
+      <c r="T21" s="363"/>
+      <c r="U21" s="363"/>
+      <c r="V21" s="363"/>
+      <c r="W21" s="363"/>
+      <c r="X21" s="363"/>
+      <c r="Y21" s="363"/>
+      <c r="Z21" s="363"/>
+      <c r="AA21" s="363"/>
+      <c r="AB21" s="363"/>
+      <c r="AC21" s="363"/>
+      <c r="AD21" s="363"/>
+      <c r="AE21" s="363"/>
+      <c r="AF21" s="363"/>
+      <c r="AG21" s="363"/>
+      <c r="AH21" s="364"/>
       <c r="AI21" s="249"/>
       <c r="AJ21" s="249"/>
       <c r="AK21" s="249"/>
@@ -15236,39 +15326,39 @@
     </row>
     <row r="22" spans="1:41" ht="18.5" customHeight="1">
       <c r="A22" s="249"/>
-      <c r="B22" s="416"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
-      <c r="K22" s="417"/>
-      <c r="L22" s="417"/>
-      <c r="M22" s="417"/>
-      <c r="N22" s="417"/>
-      <c r="O22" s="417"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="417"/>
-      <c r="R22" s="417"/>
-      <c r="S22" s="417"/>
-      <c r="T22" s="417"/>
-      <c r="U22" s="417"/>
-      <c r="V22" s="417"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
-      <c r="AB22" s="417"/>
-      <c r="AC22" s="417"/>
-      <c r="AD22" s="417"/>
-      <c r="AE22" s="417"/>
-      <c r="AF22" s="417"/>
-      <c r="AG22" s="417"/>
-      <c r="AH22" s="418"/>
+      <c r="B22" s="418"/>
+      <c r="C22" s="419"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="419"/>
+      <c r="M22" s="419"/>
+      <c r="N22" s="419"/>
+      <c r="O22" s="419"/>
+      <c r="P22" s="419"/>
+      <c r="Q22" s="419"/>
+      <c r="R22" s="419"/>
+      <c r="S22" s="419"/>
+      <c r="T22" s="419"/>
+      <c r="U22" s="419"/>
+      <c r="V22" s="419"/>
+      <c r="W22" s="419"/>
+      <c r="X22" s="419"/>
+      <c r="Y22" s="419"/>
+      <c r="Z22" s="419"/>
+      <c r="AA22" s="419"/>
+      <c r="AB22" s="419"/>
+      <c r="AC22" s="419"/>
+      <c r="AD22" s="419"/>
+      <c r="AE22" s="419"/>
+      <c r="AF22" s="419"/>
+      <c r="AG22" s="419"/>
+      <c r="AH22" s="420"/>
       <c r="AI22" s="249"/>
       <c r="AJ22" s="249"/>
       <c r="AK22" s="249"/>
@@ -15276,41 +15366,41 @@
     </row>
     <row r="23" spans="1:41" ht="16.5" customHeight="1">
       <c r="A23" s="249"/>
-      <c r="B23" s="386" t="s">
+      <c r="B23" s="389" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="387"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="387"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="387"/>
-      <c r="H23" s="387"/>
-      <c r="I23" s="387"/>
-      <c r="J23" s="387"/>
-      <c r="K23" s="387"/>
-      <c r="L23" s="387"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="387"/>
-      <c r="U23" s="387"/>
-      <c r="V23" s="387"/>
-      <c r="W23" s="387"/>
-      <c r="X23" s="387"/>
-      <c r="Y23" s="387"/>
-      <c r="Z23" s="387"/>
-      <c r="AA23" s="387"/>
-      <c r="AB23" s="387"/>
-      <c r="AC23" s="387"/>
-      <c r="AD23" s="387"/>
-      <c r="AE23" s="387"/>
-      <c r="AF23" s="387"/>
-      <c r="AG23" s="387"/>
-      <c r="AH23" s="388"/>
+      <c r="C23" s="390"/>
+      <c r="D23" s="390"/>
+      <c r="E23" s="390"/>
+      <c r="F23" s="390"/>
+      <c r="G23" s="390"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="390"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="390"/>
+      <c r="L23" s="390"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="390"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="390"/>
+      <c r="V23" s="390"/>
+      <c r="W23" s="390"/>
+      <c r="X23" s="390"/>
+      <c r="Y23" s="390"/>
+      <c r="Z23" s="390"/>
+      <c r="AA23" s="390"/>
+      <c r="AB23" s="390"/>
+      <c r="AC23" s="390"/>
+      <c r="AD23" s="390"/>
+      <c r="AE23" s="390"/>
+      <c r="AF23" s="390"/>
+      <c r="AG23" s="390"/>
+      <c r="AH23" s="391"/>
       <c r="AI23" s="249"/>
       <c r="AJ23" s="249"/>
       <c r="AK23" s="249"/>
@@ -15358,45 +15448,45 @@
     </row>
     <row r="25" spans="1:41" ht="17" customHeight="1">
       <c r="A25" s="249"/>
-      <c r="B25" s="419" t="s">
+      <c r="B25" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="420"/>
-      <c r="D25" s="420"/>
-      <c r="E25" s="420"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="420"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="422"/>
+      <c r="I25" s="422"/>
       <c r="J25" s="249"/>
-      <c r="K25" s="427" t="s">
+      <c r="K25" s="429" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="367"/>
-      <c r="M25" s="367"/>
-      <c r="N25" s="367"/>
-      <c r="O25" s="367"/>
+      <c r="L25" s="369"/>
+      <c r="M25" s="369"/>
+      <c r="N25" s="369"/>
+      <c r="O25" s="369"/>
       <c r="P25" s="350"/>
       <c r="Q25" s="249"/>
-      <c r="R25" s="378" t="s">
+      <c r="R25" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="S25" s="367"/>
-      <c r="T25" s="367"/>
-      <c r="U25" s="367"/>
-      <c r="V25" s="367"/>
-      <c r="W25" s="367"/>
+      <c r="S25" s="369"/>
+      <c r="T25" s="369"/>
+      <c r="U25" s="369"/>
+      <c r="V25" s="369"/>
+      <c r="W25" s="369"/>
       <c r="X25" s="350"/>
       <c r="Y25" s="249"/>
-      <c r="Z25" s="429" t="s">
+      <c r="Z25" s="431" t="s">
         <v>23</v>
       </c>
-      <c r="AA25" s="367"/>
-      <c r="AB25" s="367"/>
-      <c r="AC25" s="367"/>
-      <c r="AD25" s="367"/>
-      <c r="AE25" s="367"/>
-      <c r="AF25" s="367"/>
+      <c r="AA25" s="369"/>
+      <c r="AB25" s="369"/>
+      <c r="AC25" s="369"/>
+      <c r="AD25" s="369"/>
+      <c r="AE25" s="369"/>
+      <c r="AF25" s="369"/>
       <c r="AG25" s="350"/>
       <c r="AH25" s="241"/>
       <c r="AI25" s="249"/>
@@ -15406,15 +15496,15 @@
     </row>
     <row r="26" spans="1:41" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="287"/>
-      <c r="B26" s="398" t="s">
+      <c r="B26" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="367"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="369"/>
+      <c r="H26" s="369"/>
       <c r="I26" s="350"/>
       <c r="J26" s="287"/>
       <c r="K26" s="349" t="s">
@@ -15433,7 +15523,7 @@
       <c r="R26" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="367"/>
+      <c r="S26" s="369"/>
       <c r="T26" s="350"/>
       <c r="U26" s="349" t="s">
         <v>26</v>
@@ -15468,18 +15558,18 @@
     </row>
     <row r="27" spans="1:41" ht="17" customHeight="1">
       <c r="A27" s="249"/>
-      <c r="B27" s="398" t="s">
+      <c r="B27" s="400" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="367"/>
-      <c r="D27" s="367"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="367"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="367"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="369"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="369"/>
       <c r="I27" s="350"/>
       <c r="J27" s="249"/>
-      <c r="K27" s="393"/>
+      <c r="K27" s="395"/>
       <c r="L27" s="344"/>
       <c r="M27" s="353" t="s">
         <v>30</v>
@@ -15514,10 +15604,10 @@
         <v>30</v>
       </c>
       <c r="AE27" s="350"/>
-      <c r="AF27" s="380" t="s">
+      <c r="AF27" s="383" t="s">
         <v>6</v>
       </c>
-      <c r="AG27" s="381"/>
+      <c r="AG27" s="384"/>
       <c r="AH27" s="241"/>
       <c r="AI27" s="249"/>
       <c r="AJ27" s="321"/>
@@ -15526,15 +15616,15 @@
     </row>
     <row r="28" spans="1:41" ht="17" customHeight="1">
       <c r="A28" s="249"/>
-      <c r="B28" s="398" t="s">
+      <c r="B28" s="400" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="367"/>
-      <c r="D28" s="367"/>
-      <c r="E28" s="367"/>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="369"/>
+      <c r="E28" s="369"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
       <c r="I28" s="350"/>
       <c r="J28" s="249"/>
       <c r="K28" s="346"/>
@@ -15572,8 +15662,8 @@
         <v>30</v>
       </c>
       <c r="AE28" s="350"/>
-      <c r="AF28" s="382"/>
-      <c r="AG28" s="383"/>
+      <c r="AF28" s="385"/>
+      <c r="AG28" s="386"/>
       <c r="AH28" s="241"/>
       <c r="AI28" s="249"/>
       <c r="AJ28" s="249"/>
@@ -15582,18 +15672,18 @@
     </row>
     <row r="29" spans="1:41" ht="17" customHeight="1">
       <c r="A29" s="249"/>
-      <c r="B29" s="398" t="s">
+      <c r="B29" s="400" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="367"/>
-      <c r="D29" s="367"/>
-      <c r="E29" s="367"/>
-      <c r="F29" s="367"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="367"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="369"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="369"/>
+      <c r="G29" s="369"/>
+      <c r="H29" s="369"/>
       <c r="I29" s="350"/>
       <c r="J29" s="249"/>
-      <c r="K29" s="412"/>
+      <c r="K29" s="414"/>
       <c r="L29" s="344"/>
       <c r="M29" s="346"/>
       <c r="N29" s="344"/>
@@ -15608,14 +15698,14 @@
       <c r="W29" s="346"/>
       <c r="X29" s="344"/>
       <c r="Y29" s="289"/>
-      <c r="Z29" s="377"/>
+      <c r="Z29" s="380"/>
       <c r="AA29" s="344"/>
       <c r="AB29" s="346"/>
       <c r="AC29" s="344"/>
       <c r="AD29" s="346"/>
       <c r="AE29" s="344"/>
-      <c r="AF29" s="384"/>
-      <c r="AG29" s="385"/>
+      <c r="AF29" s="387"/>
+      <c r="AG29" s="388"/>
       <c r="AH29" s="241"/>
       <c r="AI29" s="249"/>
       <c r="AJ29" s="249"/>
@@ -15624,7 +15714,7 @@
     </row>
     <row r="30" spans="1:41" ht="16.5" customHeight="1">
       <c r="A30" s="249"/>
-      <c r="B30" s="414" t="s">
+      <c r="B30" s="416" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="339"/>
@@ -15667,39 +15757,39 @@
     </row>
     <row r="31" spans="1:41" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="314"/>
-      <c r="B31" s="369" t="s">
+      <c r="B31" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="367"/>
-      <c r="D31" s="367"/>
-      <c r="E31" s="367"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="367"/>
-      <c r="I31" s="367"/>
-      <c r="J31" s="367"/>
-      <c r="K31" s="367"/>
-      <c r="L31" s="367"/>
-      <c r="M31" s="367"/>
-      <c r="N31" s="367"/>
-      <c r="O31" s="367"/>
-      <c r="P31" s="367"/>
-      <c r="Q31" s="367"/>
-      <c r="R31" s="367"/>
-      <c r="S31" s="367"/>
-      <c r="T31" s="367"/>
-      <c r="U31" s="367"/>
-      <c r="V31" s="367"/>
-      <c r="W31" s="367"/>
-      <c r="X31" s="367"/>
-      <c r="Y31" s="367"/>
-      <c r="Z31" s="367"/>
-      <c r="AA31" s="367"/>
-      <c r="AB31" s="367"/>
-      <c r="AC31" s="367"/>
-      <c r="AD31" s="367"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="369"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="369"/>
+      <c r="G31" s="369"/>
+      <c r="H31" s="369"/>
+      <c r="I31" s="369"/>
+      <c r="J31" s="369"/>
+      <c r="K31" s="369"/>
+      <c r="L31" s="369"/>
+      <c r="M31" s="369"/>
+      <c r="N31" s="369"/>
+      <c r="O31" s="369"/>
+      <c r="P31" s="369"/>
+      <c r="Q31" s="369"/>
+      <c r="R31" s="369"/>
+      <c r="S31" s="369"/>
+      <c r="T31" s="369"/>
+      <c r="U31" s="369"/>
+      <c r="V31" s="369"/>
+      <c r="W31" s="369"/>
+      <c r="X31" s="369"/>
+      <c r="Y31" s="369"/>
+      <c r="Z31" s="369"/>
+      <c r="AA31" s="369"/>
+      <c r="AB31" s="369"/>
+      <c r="AC31" s="369"/>
+      <c r="AD31" s="369"/>
       <c r="AE31" s="291"/>
-      <c r="AF31" s="396"/>
+      <c r="AF31" s="397"/>
       <c r="AG31" s="344"/>
       <c r="AH31" s="292"/>
       <c r="AI31" s="315"/>
@@ -15792,11 +15882,11 @@
       <c r="B34" s="326" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="376" t="s">
+      <c r="C34" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="355"/>
-      <c r="E34" s="392"/>
+      <c r="E34" s="336"/>
       <c r="F34" s="337"/>
       <c r="G34" s="337"/>
       <c r="H34" s="337"/>
@@ -15808,23 +15898,23 @@
         <v>37</v>
       </c>
       <c r="N34" s="358"/>
-      <c r="O34" s="337"/>
-      <c r="P34" s="337"/>
-      <c r="Q34" s="337"/>
-      <c r="R34" s="357"/>
+      <c r="O34" s="359"/>
+      <c r="P34" s="359"/>
+      <c r="Q34" s="359"/>
+      <c r="R34" s="360"/>
       <c r="S34" s="299"/>
-      <c r="T34" s="376" t="s">
+      <c r="T34" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U34" s="355"/>
-      <c r="V34" s="395"/>
+      <c r="V34" s="376"/>
       <c r="W34" s="337"/>
       <c r="X34" s="337"/>
       <c r="Y34" s="337"/>
       <c r="Z34" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA34" s="431"/>
+      <c r="AA34" s="378"/>
       <c r="AB34" s="337"/>
       <c r="AC34" s="337"/>
       <c r="AD34" s="357"/>
@@ -15879,7 +15969,7 @@
     </row>
     <row r="36" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="317"/>
-      <c r="B36" s="422" t="s">
+      <c r="B36" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="355"/>
@@ -15887,7 +15977,7 @@
       <c r="E36" s="355"/>
       <c r="F36" s="286"/>
       <c r="G36" s="286"/>
-      <c r="H36" s="376" t="s">
+      <c r="H36" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I36" s="355"/>
@@ -15896,11 +15986,11 @@
       <c r="L36" s="337"/>
       <c r="M36" s="337"/>
       <c r="N36" s="357"/>
-      <c r="O36" s="390" t="s">
+      <c r="O36" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="355"/>
-      <c r="Q36" s="391"/>
+      <c r="Q36" s="394"/>
       <c r="R36" s="356"/>
       <c r="S36" s="337"/>
       <c r="T36" s="337"/>
@@ -15971,7 +16061,7 @@
       <c r="E38" s="355"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
-      <c r="H38" s="368" t="s">
+      <c r="H38" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I38" s="355"/>
@@ -15980,7 +16070,7 @@
       <c r="L38" s="347"/>
       <c r="M38" s="343"/>
       <c r="N38" s="344"/>
-      <c r="O38" s="370" t="s">
+      <c r="O38" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P38" s="355"/>
@@ -16066,7 +16156,7 @@
       <c r="L40" s="355"/>
       <c r="M40" s="355"/>
       <c r="N40" s="355"/>
-      <c r="O40" s="366"/>
+      <c r="O40" s="368"/>
       <c r="P40" s="337"/>
       <c r="Q40" s="337"/>
       <c r="R40" s="337"/>
@@ -16148,7 +16238,7 @@
       <c r="L42" s="355"/>
       <c r="M42" s="355"/>
       <c r="N42" s="355"/>
-      <c r="O42" s="366"/>
+      <c r="O42" s="368"/>
       <c r="P42" s="337"/>
       <c r="Q42" s="337"/>
       <c r="R42" s="337"/>
@@ -16298,7 +16388,7 @@
       <c r="B46" s="326" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="376" t="s">
+      <c r="C46" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="355"/>
@@ -16314,23 +16404,23 @@
         <v>37</v>
       </c>
       <c r="N46" s="358"/>
-      <c r="O46" s="337"/>
-      <c r="P46" s="337"/>
-      <c r="Q46" s="337"/>
-      <c r="R46" s="357"/>
+      <c r="O46" s="359"/>
+      <c r="P46" s="359"/>
+      <c r="Q46" s="359"/>
+      <c r="R46" s="360"/>
       <c r="S46" s="299"/>
-      <c r="T46" s="376" t="s">
+      <c r="T46" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U46" s="355"/>
-      <c r="V46" s="359"/>
+      <c r="V46" s="361"/>
       <c r="W46" s="337"/>
       <c r="X46" s="337"/>
       <c r="Y46" s="337"/>
       <c r="Z46" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA46" s="375"/>
+      <c r="AA46" s="399"/>
       <c r="AB46" s="337"/>
       <c r="AC46" s="337"/>
       <c r="AD46" s="357"/>
@@ -16385,7 +16475,7 @@
     </row>
     <row r="48" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="317"/>
-      <c r="B48" s="422" t="s">
+      <c r="B48" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="355"/>
@@ -16393,7 +16483,7 @@
       <c r="E48" s="355"/>
       <c r="F48" s="286"/>
       <c r="G48" s="286"/>
-      <c r="H48" s="376" t="s">
+      <c r="H48" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I48" s="355"/>
@@ -16402,12 +16492,12 @@
       <c r="L48" s="337"/>
       <c r="M48" s="337"/>
       <c r="N48" s="357"/>
-      <c r="O48" s="390" t="s">
+      <c r="O48" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P48" s="355"/>
-      <c r="Q48" s="391"/>
-      <c r="R48" s="399"/>
+      <c r="Q48" s="394"/>
+      <c r="R48" s="401"/>
       <c r="S48" s="337"/>
       <c r="T48" s="337"/>
       <c r="U48" s="337"/>
@@ -16477,7 +16567,7 @@
       <c r="E50" s="355"/>
       <c r="F50" s="286"/>
       <c r="G50" s="286"/>
-      <c r="H50" s="368" t="s">
+      <c r="H50" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I50" s="355"/>
@@ -16486,12 +16576,12 @@
       <c r="L50" s="347"/>
       <c r="M50" s="343"/>
       <c r="N50" s="344"/>
-      <c r="O50" s="370" t="s">
+      <c r="O50" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P50" s="355"/>
       <c r="Q50" s="355"/>
-      <c r="R50" s="399"/>
+      <c r="R50" s="401"/>
       <c r="S50" s="337"/>
       <c r="T50" s="337"/>
       <c r="U50" s="337"/>
@@ -16572,7 +16662,7 @@
       <c r="L52" s="355"/>
       <c r="M52" s="355"/>
       <c r="N52" s="355"/>
-      <c r="O52" s="366"/>
+      <c r="O52" s="368"/>
       <c r="P52" s="337"/>
       <c r="Q52" s="337"/>
       <c r="R52" s="337"/>
@@ -16654,7 +16744,7 @@
       <c r="L54" s="355"/>
       <c r="M54" s="355"/>
       <c r="N54" s="355"/>
-      <c r="O54" s="366"/>
+      <c r="O54" s="368"/>
       <c r="P54" s="337"/>
       <c r="Q54" s="337"/>
       <c r="R54" s="337"/>
@@ -16804,7 +16894,7 @@
       <c r="B58" s="326" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="376" t="s">
+      <c r="C58" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="355"/>
@@ -16820,23 +16910,23 @@
         <v>37</v>
       </c>
       <c r="N58" s="358"/>
-      <c r="O58" s="337"/>
-      <c r="P58" s="337"/>
-      <c r="Q58" s="337"/>
-      <c r="R58" s="357"/>
+      <c r="O58" s="359"/>
+      <c r="P58" s="359"/>
+      <c r="Q58" s="359"/>
+      <c r="R58" s="360"/>
       <c r="S58" s="299"/>
-      <c r="T58" s="376" t="s">
+      <c r="T58" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U58" s="355"/>
-      <c r="V58" s="359"/>
+      <c r="V58" s="376"/>
       <c r="W58" s="337"/>
       <c r="X58" s="337"/>
       <c r="Y58" s="337"/>
       <c r="Z58" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA58" s="375"/>
+      <c r="AA58" s="378"/>
       <c r="AB58" s="337"/>
       <c r="AC58" s="337"/>
       <c r="AD58" s="357"/>
@@ -16891,7 +16981,7 @@
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A60" s="317"/>
-      <c r="B60" s="422" t="s">
+      <c r="B60" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="355"/>
@@ -16899,7 +16989,7 @@
       <c r="E60" s="355"/>
       <c r="F60" s="286"/>
       <c r="G60" s="286"/>
-      <c r="H60" s="376" t="s">
+      <c r="H60" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="355"/>
@@ -16908,11 +16998,11 @@
       <c r="L60" s="337"/>
       <c r="M60" s="337"/>
       <c r="N60" s="357"/>
-      <c r="O60" s="390" t="s">
+      <c r="O60" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P60" s="355"/>
-      <c r="Q60" s="391"/>
+      <c r="Q60" s="394"/>
       <c r="R60" s="356"/>
       <c r="S60" s="337"/>
       <c r="T60" s="337"/>
@@ -16983,7 +17073,7 @@
       <c r="E62" s="355"/>
       <c r="F62" s="286"/>
       <c r="G62" s="286"/>
-      <c r="H62" s="368" t="s">
+      <c r="H62" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="355"/>
@@ -16992,7 +17082,7 @@
       <c r="L62" s="347"/>
       <c r="M62" s="343"/>
       <c r="N62" s="344"/>
-      <c r="O62" s="370" t="s">
+      <c r="O62" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P62" s="355"/>
@@ -17078,7 +17168,7 @@
       <c r="L64" s="355"/>
       <c r="M64" s="355"/>
       <c r="N64" s="355"/>
-      <c r="O64" s="366"/>
+      <c r="O64" s="368"/>
       <c r="P64" s="337"/>
       <c r="Q64" s="337"/>
       <c r="R64" s="337"/>
@@ -17160,7 +17250,7 @@
       <c r="L66" s="355"/>
       <c r="M66" s="355"/>
       <c r="N66" s="355"/>
-      <c r="O66" s="366"/>
+      <c r="O66" s="368"/>
       <c r="P66" s="337"/>
       <c r="Q66" s="337"/>
       <c r="R66" s="337"/>
@@ -17310,11 +17400,11 @@
       <c r="B70" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="376" t="s">
+      <c r="C70" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="355"/>
-      <c r="E70" s="392"/>
+      <c r="E70" s="336"/>
       <c r="F70" s="337"/>
       <c r="G70" s="337"/>
       <c r="H70" s="337"/>
@@ -17326,23 +17416,23 @@
         <v>37</v>
       </c>
       <c r="N70" s="358"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="357"/>
+      <c r="O70" s="359"/>
+      <c r="P70" s="359"/>
+      <c r="Q70" s="359"/>
+      <c r="R70" s="360"/>
       <c r="S70" s="299"/>
-      <c r="T70" s="376" t="s">
+      <c r="T70" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U70" s="355"/>
-      <c r="V70" s="359"/>
+      <c r="V70" s="361"/>
       <c r="W70" s="337"/>
       <c r="X70" s="337"/>
       <c r="Y70" s="337"/>
       <c r="Z70" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA70" s="375"/>
+      <c r="AA70" s="399"/>
       <c r="AB70" s="337"/>
       <c r="AC70" s="337"/>
       <c r="AD70" s="357"/>
@@ -17397,7 +17487,7 @@
     </row>
     <row r="72" spans="1:38" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A72" s="317"/>
-      <c r="B72" s="422" t="s">
+      <c r="B72" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="355"/>
@@ -17405,7 +17495,7 @@
       <c r="E72" s="355"/>
       <c r="F72" s="286"/>
       <c r="G72" s="286"/>
-      <c r="H72" s="376" t="s">
+      <c r="H72" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I72" s="355"/>
@@ -17414,11 +17504,11 @@
       <c r="L72" s="337"/>
       <c r="M72" s="337"/>
       <c r="N72" s="357"/>
-      <c r="O72" s="390" t="s">
+      <c r="O72" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P72" s="355"/>
-      <c r="Q72" s="391"/>
+      <c r="Q72" s="394"/>
       <c r="R72" s="356"/>
       <c r="S72" s="337"/>
       <c r="T72" s="337"/>
@@ -17489,7 +17579,7 @@
       <c r="E74" s="355"/>
       <c r="F74" s="286"/>
       <c r="G74" s="286"/>
-      <c r="H74" s="368" t="s">
+      <c r="H74" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I74" s="355"/>
@@ -17498,7 +17588,7 @@
       <c r="L74" s="347"/>
       <c r="M74" s="343"/>
       <c r="N74" s="344"/>
-      <c r="O74" s="370" t="s">
+      <c r="O74" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P74" s="355"/>
@@ -17584,7 +17674,7 @@
       <c r="L76" s="355"/>
       <c r="M76" s="355"/>
       <c r="N76" s="355"/>
-      <c r="O76" s="366"/>
+      <c r="O76" s="368"/>
       <c r="P76" s="337"/>
       <c r="Q76" s="337"/>
       <c r="R76" s="337"/>
@@ -17666,7 +17756,7 @@
       <c r="L78" s="355"/>
       <c r="M78" s="355"/>
       <c r="N78" s="355"/>
-      <c r="O78" s="366"/>
+      <c r="O78" s="368"/>
       <c r="P78" s="337"/>
       <c r="Q78" s="337"/>
       <c r="R78" s="337"/>
@@ -17858,533 +17948,552 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="168">
-    <mergeCell ref="H76:N76"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="B36:E38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="H4:I8"/>
-    <mergeCell ref="O66:AG66"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="B28:I28"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="J1:T2"/>
-    <mergeCell ref="E70:L70"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:AG4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="B4:C8"/>
+    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="H4:I8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="W15:AG15"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:AH20"/>
+    <mergeCell ref="B21:AH21"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R10:AG10"/>
+    <mergeCell ref="B13:E15"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:AG13"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:R15"/>
     <mergeCell ref="T15:V15"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B48:E50"/>
-    <mergeCell ref="H52:N52"/>
-    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="B22:AH22"/>
+    <mergeCell ref="B23:AH23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG29"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="AA34:AD34"/>
     <mergeCell ref="W29:X29"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="R48:AG48"/>
-    <mergeCell ref="H78:N78"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="O78:AG78"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="R38:AG38"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B72:E74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H64:N64"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O54:AG54"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="B13:E15"/>
-    <mergeCell ref="B30:AG30"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B22:AH22"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="O42:AG42"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="R62:AG62"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="B60:E62"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="R74:AG74"/>
-    <mergeCell ref="J72:N72"/>
-    <mergeCell ref="O64:AG64"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="R50:AG50"/>
-    <mergeCell ref="B4:C8"/>
-    <mergeCell ref="O40:AG40"/>
+    <mergeCell ref="Z29:AA29"/>
     <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="B30:AG30"/>
+    <mergeCell ref="B31:AD31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="B36:E38"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:AG36"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:AG38"/>
+    <mergeCell ref="B40:E42"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="O40:AG40"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="O42:AG42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:L46"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="B48:E50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:AG48"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R50:AG50"/>
+    <mergeCell ref="B52:E54"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="O52:AG52"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="O54:AG54"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:L58"/>
+    <mergeCell ref="N58:R58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:Y58"/>
+    <mergeCell ref="AA58:AD58"/>
+    <mergeCell ref="B60:E62"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:AG60"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="R62:AG62"/>
+    <mergeCell ref="B64:E66"/>
+    <mergeCell ref="H64:N64"/>
+    <mergeCell ref="O64:AG64"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="O66:AG66"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:L70"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="V70:Y70"/>
+    <mergeCell ref="B76:E78"/>
+    <mergeCell ref="H76:N76"/>
+    <mergeCell ref="O76:AG76"/>
+    <mergeCell ref="H78:N78"/>
+    <mergeCell ref="O78:AG78"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="B72:E74"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:N72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:AG72"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:N74"/>
     <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="D4:E8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="AF27:AG29"/>
-    <mergeCell ref="R72:AG72"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B23:AH23"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="B64:E66"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="O13:AG13"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="N58:R58"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B52:E54"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="O76:AG76"/>
-    <mergeCell ref="B31:AD31"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B76:E78"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="V58:Y58"/>
-    <mergeCell ref="R60:AG60"/>
-    <mergeCell ref="AA58:AD58"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="E46:L46"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="R36:AG36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="H66:N66"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="E58:L58"/>
-    <mergeCell ref="W4:AG4"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B40:E42"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="W15:AG15"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="R10:AG10"/>
-    <mergeCell ref="R25:X25"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="V70:Y70"/>
-    <mergeCell ref="B21:AH21"/>
-    <mergeCell ref="E20:AH20"/>
-    <mergeCell ref="O52:AG52"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="R74:AG74"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="B13:E15">
-    <cfRule type="expression" dxfId="117" priority="52">
+    <cfRule type="expression" dxfId="119" priority="56">
       <formula>AND($O$13,$L$15,$W$15)=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:G18">
-    <cfRule type="expression" dxfId="116" priority="56">
+    <cfRule type="expression" dxfId="118" priority="60">
       <formula>$H$18=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:I25">
-    <cfRule type="expression" dxfId="115" priority="40">
+    <cfRule type="expression" dxfId="117" priority="44">
       <formula>AND($K$27="",$K$28="",$K$29="",$M$29="",$O$29="",$R$27="",$R$28="",$R$29="",$U$29="",$W$29="",$Z$29="",$AB$29="",$AD$29="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D34">
-    <cfRule type="expression" dxfId="114" priority="39">
+    <cfRule type="expression" dxfId="116" priority="43">
       <formula>$E$34=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:D46">
-    <cfRule type="expression" dxfId="113" priority="28">
+    <cfRule type="expression" dxfId="115" priority="32">
       <formula>$E$46=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:D58">
-    <cfRule type="expression" dxfId="112" priority="19">
+    <cfRule type="expression" dxfId="114" priority="23">
       <formula>$E$58=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:D70">
-    <cfRule type="expression" dxfId="111" priority="8">
+    <cfRule type="expression" dxfId="113" priority="14">
       <formula>$E$70=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E8">
-    <cfRule type="containsBlanks" dxfId="110" priority="57">
+    <cfRule type="containsBlanks" dxfId="112" priority="61">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:L34">
-    <cfRule type="containsBlanks" dxfId="109" priority="38">
+    <cfRule type="containsBlanks" dxfId="111" priority="42">
       <formula>LEN(TRIM(E34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:L46">
-    <cfRule type="containsBlanks" dxfId="108" priority="61">
+    <cfRule type="containsBlanks" dxfId="110" priority="69" stopIfTrue="1">
       <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:L58">
-    <cfRule type="containsBlanks" dxfId="107" priority="18">
+    <cfRule type="containsBlanks" dxfId="109" priority="2">
       <formula>LEN(TRIM(E58))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:L70">
-    <cfRule type="containsBlanks" dxfId="106" priority="65">
+    <cfRule type="containsBlanks" dxfId="108" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:I36">
-    <cfRule type="expression" dxfId="105" priority="34">
+    <cfRule type="expression" dxfId="107" priority="38">
       <formula>$J$36=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:I48">
-    <cfRule type="expression" dxfId="104" priority="26">
+    <cfRule type="expression" dxfId="106" priority="30">
       <formula>$J$48=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:I60">
-    <cfRule type="expression" dxfId="103" priority="14">
+    <cfRule type="expression" dxfId="105" priority="20">
       <formula>$J$60=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:I72">
-    <cfRule type="expression" dxfId="102" priority="6">
+    <cfRule type="expression" dxfId="104" priority="12">
       <formula>$J$72=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:K15">
-    <cfRule type="expression" dxfId="101" priority="54">
+    <cfRule type="expression" dxfId="103" priority="58">
       <formula>$L$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:K38">
-    <cfRule type="expression" dxfId="100" priority="31">
+    <cfRule type="expression" dxfId="102" priority="35">
       <formula>$L$38=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:K50">
-    <cfRule type="expression" dxfId="99" priority="23">
+    <cfRule type="expression" dxfId="101" priority="27">
       <formula>$L$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:K62">
-    <cfRule type="expression" dxfId="98" priority="11">
+    <cfRule type="expression" dxfId="100" priority="17">
       <formula>$L$62=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:K74">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="99" priority="9">
       <formula>$L$74=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:N13">
-    <cfRule type="expression" dxfId="96" priority="55">
+    <cfRule type="expression" dxfId="98" priority="59">
       <formula>$O$13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:N40">
-    <cfRule type="expression" dxfId="95" priority="30">
+    <cfRule type="expression" dxfId="97" priority="34">
       <formula>$O$40=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:N42">
-    <cfRule type="expression" dxfId="94" priority="29">
+    <cfRule type="expression" dxfId="96" priority="33">
       <formula>$O$42=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:N52">
-    <cfRule type="expression" dxfId="93" priority="22">
+    <cfRule type="expression" dxfId="95" priority="26">
       <formula>$O$52=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:N54">
-    <cfRule type="expression" dxfId="92" priority="21">
+    <cfRule type="expression" dxfId="94" priority="25">
       <formula>$O$54=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:N64">
-    <cfRule type="expression" dxfId="91" priority="10">
+    <cfRule type="expression" dxfId="93" priority="16">
       <formula>$O$64=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:N66">
-    <cfRule type="expression" dxfId="90" priority="9">
+    <cfRule type="expression" dxfId="92" priority="15">
       <formula>$O$66=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:N76">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="91" priority="8">
       <formula>$O$76=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:N78">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="90" priority="7">
       <formula>$O$78=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:AH18">
-    <cfRule type="containsBlanks" dxfId="87" priority="51">
+    <cfRule type="containsBlanks" dxfId="89" priority="55">
       <formula>LEN(TRIM(H18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:N36 R36:AG36 R38:AG38 O40:AG40 O42:AG42">
-    <cfRule type="containsBlanks" dxfId="86" priority="36">
+    <cfRule type="containsBlanks" dxfId="88" priority="40">
       <formula>LEN(TRIM(J36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:N48 R48:AG48 R50:AG50 O52:AG52 O54:AG54">
-    <cfRule type="containsBlanks" dxfId="85" priority="63">
+    <cfRule type="containsBlanks" dxfId="87" priority="66">
       <formula>LEN(TRIM(J48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:N60 R60:AG60 R62:AG62 O64:AG64 O66:AG66">
-    <cfRule type="containsBlanks" dxfId="84" priority="16">
+    <cfRule type="containsBlanks" dxfId="86" priority="22">
       <formula>LEN(TRIM(J60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:N72 R72:AG72 R74:AG74 O76:AG76 O78:AG78">
-    <cfRule type="containsBlanks" dxfId="83" priority="67">
+    <cfRule type="containsBlanks" dxfId="85" priority="68">
       <formula>LEN(TRIM(J72))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:N38">
-    <cfRule type="containsBlanks" dxfId="82" priority="59">
+    <cfRule type="containsBlanks" dxfId="84" priority="63">
       <formula>LEN(TRIM(L38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:N50">
-    <cfRule type="containsBlanks" dxfId="81" priority="60">
+    <cfRule type="containsBlanks" dxfId="83" priority="64">
       <formula>LEN(TRIM(L50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62:N62">
-    <cfRule type="containsBlanks" dxfId="80" priority="20">
+    <cfRule type="containsBlanks" dxfId="82" priority="24">
       <formula>LEN(TRIM(L62))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74:N74">
-    <cfRule type="containsBlanks" dxfId="79" priority="64">
+    <cfRule type="containsBlanks" dxfId="81" priority="67">
       <formula>LEN(TRIM(L74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:R15">
-    <cfRule type="containsBlanks" dxfId="78" priority="42">
+    <cfRule type="containsBlanks" dxfId="80" priority="46">
       <formula>LEN(TRIM(L15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N4">
-    <cfRule type="containsBlanks" dxfId="77" priority="50">
+    <cfRule type="containsBlanks" dxfId="79" priority="54">
       <formula>LEN(TRIM(M4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:R6">
-    <cfRule type="containsBlanks" dxfId="76" priority="48">
+    <cfRule type="containsBlanks" dxfId="78" priority="52">
       <formula>LEN(TRIM(M6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:R8">
-    <cfRule type="containsBlanks" dxfId="75" priority="47">
+    <cfRule type="containsBlanks" dxfId="77" priority="51">
       <formula>LEN(TRIM(M8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36:Q36">
-    <cfRule type="expression" dxfId="74" priority="33">
+    <cfRule type="expression" dxfId="76" priority="37">
       <formula>$R$36=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:Q38">
-    <cfRule type="expression" dxfId="73" priority="32">
+    <cfRule type="expression" dxfId="75" priority="36">
       <formula>$R$38=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48:Q48">
-    <cfRule type="expression" dxfId="72" priority="25">
+    <cfRule type="expression" dxfId="74" priority="29">
       <formula>$R$48=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:Q50">
-    <cfRule type="expression" dxfId="71" priority="24">
+    <cfRule type="expression" dxfId="73" priority="28">
       <formula>$R$50=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:Q60">
-    <cfRule type="expression" dxfId="70" priority="13">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>$R$60=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62:Q62">
-    <cfRule type="expression" dxfId="69" priority="12">
+    <cfRule type="expression" dxfId="71" priority="18">
       <formula>$R$62=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:Q72">
-    <cfRule type="expression" dxfId="68" priority="5">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>$R$72=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O74:Q74">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="69" priority="10">
       <formula>$R$74=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:AG13">
-    <cfRule type="containsBlanks" dxfId="66" priority="43">
+    <cfRule type="containsBlanks" dxfId="68" priority="47">
       <formula>LEN(TRIM(O13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="containsBlanks" dxfId="65" priority="49">
+    <cfRule type="containsBlanks" dxfId="67" priority="53">
       <formula>LEN(TRIM(P4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34:U34">
-    <cfRule type="expression" dxfId="64" priority="35">
+    <cfRule type="expression" dxfId="66" priority="39">
       <formula>OR($V$34="",$AA$34="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U46">
-    <cfRule type="expression" dxfId="63" priority="27">
+    <cfRule type="expression" dxfId="65" priority="31">
       <formula>OR($V$46="",$AA$46="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T58:U58">
-    <cfRule type="expression" dxfId="62" priority="15">
+    <cfRule type="expression" dxfId="64" priority="21">
       <formula>OR($V$58="",$AA$58="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T70:U70">
-    <cfRule type="expression" dxfId="61" priority="7">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>OR($V$70="",$AA$70="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:V15">
-    <cfRule type="expression" dxfId="60" priority="53">
+    <cfRule type="expression" dxfId="62" priority="57">
       <formula>$W$15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:Y34 AA34:AD34">
-    <cfRule type="containsBlanks" dxfId="59" priority="37">
+    <cfRule type="containsBlanks" dxfId="61" priority="41">
       <formula>LEN(TRIM(V34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V46:Y46 AA46:AD46">
-    <cfRule type="containsBlanks" dxfId="58" priority="62">
+    <cfRule type="containsBlanks" dxfId="60" priority="65">
       <formula>LEN(TRIM(V46))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V58:Y58 AA58:AD58">
-    <cfRule type="containsBlanks" dxfId="57" priority="17">
+  <conditionalFormatting sqref="V58:Y58">
+    <cfRule type="containsBlanks" dxfId="59" priority="6">
       <formula>LEN(TRIM(V58))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V70:Y70 AA70:AD70">
-    <cfRule type="containsBlanks" dxfId="56" priority="66">
+  <conditionalFormatting sqref="V70:Y70">
+    <cfRule type="containsBlanks" dxfId="58" priority="4">
       <formula>LEN(TRIM(V70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AG4">
-    <cfRule type="containsBlanks" dxfId="55" priority="46">
+    <cfRule type="containsBlanks" dxfId="57" priority="50">
       <formula>LEN(TRIM(W4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:AG6">
-    <cfRule type="containsBlanks" dxfId="54" priority="45">
+    <cfRule type="containsBlanks" dxfId="56" priority="49">
       <formula>LEN(TRIM(W6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:AG8">
-    <cfRule type="containsBlanks" dxfId="53" priority="44">
+    <cfRule type="containsBlanks" dxfId="55" priority="48">
       <formula>LEN(TRIM(W8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:AG15">
-    <cfRule type="containsBlanks" dxfId="52" priority="41">
+    <cfRule type="containsBlanks" dxfId="54" priority="45">
       <formula>LEN(TRIM(W15))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA58:AD58">
+    <cfRule type="containsBlanks" dxfId="53" priority="5">
+      <formula>LEN(TRIM(AA58))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA70:AD70">
+    <cfRule type="containsBlanks" dxfId="52" priority="3">
+      <formula>LEN(TRIM(AA70))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF27:AG29">
-    <cfRule type="containsBlanks" dxfId="51" priority="58">
+    <cfRule type="containsBlanks" dxfId="51" priority="62">
       <formula>LEN(TRIM(AF27))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" showInputMessage="1" sqref="AF31:AG31" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="list" showInputMessage="1" sqref="AF31:AG31" xr:uid="{E9508C98-7833-1C4E-943D-491CFC250EA3}">
       <formula1>"○,　"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="総務省のチャンネルリストに載っているホール名、部屋名などをご記入下さい。" sqref="H40:AG40 H52:AG52 H64:AG64 H76:AG76" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation imeMode="on" showInputMessage="1" showErrorMessage="1" prompt="右隣の赤いセルをクリックして下さい。" sqref="B4:C9" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="催事名は運用調整システムにおける必須入力項目となります。また、東京ビッグサイト、幕張メッセなどでの大規模展示会の際はホールの番号やご担当ブースもご記入下さい。" sqref="H18" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="「変更」の場合には、必ずコメント欄に変更内容を明記してください。" sqref="D12:E16" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="総務省のチャンネルリストに載っているホール名、部屋名などをご記入下さい。" sqref="H40:AG40 H52:AG52 H64:AG64 H76:AG76" xr:uid="{8E8ADCA0-48F4-8D4E-A7E1-4B0DEA70297F}"/>
+    <dataValidation imeMode="on" showInputMessage="1" showErrorMessage="1" prompt="右隣の赤いセルをクリックして下さい。" sqref="B4:C9" xr:uid="{26306931-29E6-2442-A052-CF33A90E7177}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="催事名は運用調整システムにおける必須入力項目となります。また、東京ビッグサイト、幕張メッセなどでの大規模展示会の際はホールの番号やご担当ブースもご記入下さい。" sqref="H18" xr:uid="{968C8404-17AC-8043-8ACE-1DED75376349}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="「変更」の場合には、必ずコメント欄に変更内容を明記してください。" sqref="D12:E16" xr:uid="{275D123B-1C05-1345-8482-3714742866BF}">
       <formula1>"新規,変更,削除"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="1.2GHz帯は原則、Ｌチャンネルの入力となります。_x000a_MまたはHチャンネルを使用する場合は、右側の▼をクリックし、ＭまたはＨを選んで下さい。" sqref="AF27:AG29" xr:uid="{00000000-0002-0000-0200-000005000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="1.2GHz帯は原則、Ｌチャンネルの入力となります。_x000a_MまたはHチャンネルを使用する場合は、右側の▼をクリックし、ＭまたはＨを選んで下さい。" sqref="AF27:AG29" xr:uid="{29C18896-7B3E-BC49-8E4D-5127F9C1515C}">
       <formula1>"L,M,H,　"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="赤色セル右側の▼をクリックして、「屋内」か「屋外」を選んで下さい。_x000a__x000a_屋内と屋外の両方で使用する場合は、「屋外」を選んで下さい。" sqref="L38:N38 L50:N50 L62:N62 L74:N74" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="赤色セル右側の▼をクリックして、「屋内」か「屋外」を選んで下さい。_x000a__x000a_屋内と屋外の両方で使用する場合は、「屋外」を選んで下さい。" sqref="L38:N38 L50:N50 L62:N62 L74:N74" xr:uid="{ED3119FC-5711-8749-B828-E2C7D1F522C3}">
       <formula1>"屋内,屋外,　"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" prompt="セル右側の▼をクリックして｢新規｣｢変更｣｢削除｣を選んで下さい。_x000a_「変更」の場合は、必ずコメント欄に変更内容を明記して下さい。" sqref="D4:E9" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" prompt="セル右側の▼をクリックして｢新規｣｢変更｣｢削除｣を選んで下さい。_x000a_「変更」の場合は、必ずコメント欄に変更内容を明記して下さい。" sqref="D4:E9" xr:uid="{5B7A88FB-80C4-424C-87B1-D7DCEC1E9DC5}">
       <formula1>"新規,変更,削除,　"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="V34:Y34 AA34:AD34 V46:Y46 AA46:AD46 V58:Y58 AA58:AD58 V70:Y70 AA70:AD70" xr:uid="{B53E4636-FF4F-A340-A496-530F37CEDAB7}">
+      <formula1>"09:00, 10:00, 11:00, 12:00, 13:00, 14:00, 15:00, 16:00, 17:00, 18:00, 19:00, 20:00, 21:00, 22:00, 23:00"</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日付確認" error="本日より前の日付です。" promptTitle="開始日入力" prompt="1/1 or 2026/1/1 のような形で入力してください。" sqref="E34:L34 E58:L58 E46:L46 E70:L70" xr:uid="{EA98DDFC-07A9-4445-BD6C-6653360F8A4D}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日付確認" error="使用開始日より前の日付が入力されています。" promptTitle="終了日入力" prompt="1/1 or 2026/1/1 のような形で入力してください。" sqref="N34:R34 N58:R58 N46:R46 N70:R70" xr:uid="{BA5041E7-68A5-D140-B6E9-F5D0D2EA95A1}">
+      <formula1>E34</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="X2" r:id="rId1" xr:uid="{BA3DE02E-0C98-A04F-AB19-5742A172445C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18428,7 +18537,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="433" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="440"/>
@@ -18439,7 +18548,7 @@
       <c r="G1" s="440"/>
       <c r="H1" s="440"/>
       <c r="I1" s="249"/>
-      <c r="J1" s="433" t="s">
+      <c r="J1" s="434" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="440"/>
@@ -18454,22 +18563,22 @@
       <c r="T1" s="440"/>
       <c r="U1" s="284"/>
       <c r="V1" s="285"/>
-      <c r="W1" s="430"/>
+      <c r="W1" s="432"/>
       <c r="X1" s="440"/>
       <c r="Y1" s="440"/>
       <c r="Z1" s="440"/>
       <c r="AA1" s="440"/>
-      <c r="AB1" s="425" t="s">
+      <c r="AB1" s="427" t="s">
         <v>2</v>
       </c>
       <c r="AC1" s="440"/>
-      <c r="AD1" s="434">
+      <c r="AD1" s="435">
         <f ca="1">TODAY()</f>
-        <v>46054</v>
-      </c>
-      <c r="AE1" s="435"/>
-      <c r="AF1" s="435"/>
-      <c r="AG1" s="436"/>
+        <v>46055</v>
+      </c>
+      <c r="AE1" s="436"/>
+      <c r="AF1" s="436"/>
+      <c r="AG1" s="437"/>
       <c r="AH1" s="270"/>
     </row>
     <row r="2" spans="1:36" ht="16.5" customHeight="1" thickBot="1">
@@ -18498,7 +18607,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="440"/>
-      <c r="X2" s="426" t="s">
+      <c r="X2" s="428" t="s">
         <v>4</v>
       </c>
       <c r="Y2" s="440"/>
@@ -18552,22 +18661,22 @@
     </row>
     <row r="4" spans="1:36" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="249"/>
-      <c r="B4" s="400" t="s">
+      <c r="B4" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="401"/>
-      <c r="D4" s="406" t="s">
+      <c r="C4" s="403"/>
+      <c r="D4" s="408" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="407"/>
+      <c r="E4" s="409"/>
       <c r="F4" s="252"/>
       <c r="G4" s="283"/>
-      <c r="H4" s="428" t="s">
+      <c r="H4" s="430" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="440"/>
       <c r="J4" s="277"/>
-      <c r="K4" s="411" t="s">
+      <c r="K4" s="413" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="440"/>
@@ -18578,7 +18687,7 @@
       <c r="O4" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="445" t="s">
+      <c r="P4" s="447" t="s">
         <v>54</v>
       </c>
       <c r="Q4" s="337"/>
@@ -18589,7 +18698,7 @@
       </c>
       <c r="U4" s="440"/>
       <c r="V4" s="440"/>
-      <c r="W4" s="399" t="s">
+      <c r="W4" s="401" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="337"/>
@@ -18606,10 +18715,10 @@
     </row>
     <row r="5" spans="1:36" ht="3.75" customHeight="1">
       <c r="A5" s="249"/>
-      <c r="B5" s="402"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="408"/>
+      <c r="B5" s="404"/>
+      <c r="C5" s="405"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="410"/>
       <c r="F5" s="252"/>
       <c r="G5" s="283"/>
       <c r="H5" s="440"/>
@@ -18642,20 +18751,20 @@
     </row>
     <row r="6" spans="1:36" ht="18" customHeight="1">
       <c r="A6" s="249"/>
-      <c r="B6" s="402"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="408"/>
+      <c r="B6" s="404"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="410"/>
       <c r="F6" s="252"/>
       <c r="G6" s="283"/>
       <c r="H6" s="440"/>
       <c r="I6" s="440"/>
       <c r="J6" s="277"/>
-      <c r="K6" s="415" t="s">
+      <c r="K6" s="417" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="440"/>
-      <c r="M6" s="399" t="s">
+      <c r="M6" s="401" t="s">
         <v>56</v>
       </c>
       <c r="N6" s="337"/>
@@ -18664,12 +18773,12 @@
       <c r="Q6" s="337"/>
       <c r="R6" s="357"/>
       <c r="S6" s="269"/>
-      <c r="T6" s="371" t="s">
+      <c r="T6" s="373" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="440"/>
       <c r="V6" s="440"/>
-      <c r="W6" s="399" t="s">
+      <c r="W6" s="401" t="s">
         <v>57</v>
       </c>
       <c r="X6" s="337"/>
@@ -18686,10 +18795,10 @@
     </row>
     <row r="7" spans="1:36" ht="3.75" customHeight="1">
       <c r="A7" s="249"/>
-      <c r="B7" s="402"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="408"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="385"/>
+      <c r="E7" s="410"/>
       <c r="F7" s="252"/>
       <c r="G7" s="283"/>
       <c r="H7" s="440"/>
@@ -18722,20 +18831,20 @@
     </row>
     <row r="8" spans="1:36" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="249"/>
-      <c r="B8" s="404"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="409"/>
-      <c r="E8" s="410"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="407"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="412"/>
       <c r="F8" s="252"/>
       <c r="G8" s="283"/>
       <c r="H8" s="440"/>
       <c r="I8" s="440"/>
       <c r="J8" s="277"/>
-      <c r="K8" s="415" t="s">
+      <c r="K8" s="417" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="440"/>
-      <c r="M8" s="399" t="s">
+      <c r="M8" s="401" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="337"/>
@@ -18749,7 +18858,7 @@
       </c>
       <c r="U8" s="440"/>
       <c r="V8" s="440"/>
-      <c r="W8" s="446" t="s">
+      <c r="W8" s="448" t="s">
         <v>59</v>
       </c>
       <c r="X8" s="337"/>
@@ -18801,7 +18910,7 @@
       <c r="AH9" s="261"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="421"/>
+      <c r="A10" s="423"/>
       <c r="B10" s="440"/>
       <c r="C10" s="440"/>
       <c r="D10" s="440"/>
@@ -18818,7 +18927,7 @@
       <c r="O10" s="440"/>
       <c r="P10" s="440"/>
       <c r="Q10" s="440"/>
-      <c r="R10" s="374" t="s">
+      <c r="R10" s="377" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="440"/>
@@ -18912,7 +19021,7 @@
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1">
       <c r="A13" s="325"/>
-      <c r="B13" s="413" t="s">
+      <c r="B13" s="415" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="440"/>
@@ -18929,7 +19038,7 @@
       <c r="L13" s="440"/>
       <c r="M13" s="440"/>
       <c r="N13" s="440"/>
-      <c r="O13" s="389" t="s">
+      <c r="O13" s="392" t="s">
         <v>60</v>
       </c>
       <c r="P13" s="343"/>
@@ -19002,7 +19111,7 @@
       <c r="I15" s="440"/>
       <c r="J15" s="440"/>
       <c r="K15" s="440"/>
-      <c r="L15" s="389" t="s">
+      <c r="L15" s="392" t="s">
         <v>61</v>
       </c>
       <c r="M15" s="343"/>
@@ -19106,15 +19215,15 @@
     </row>
     <row r="18" spans="1:41" ht="18" customHeight="1">
       <c r="A18" s="249"/>
-      <c r="B18" s="423" t="s">
+      <c r="B18" s="425" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="440"/>
       <c r="D18" s="440"/>
       <c r="E18" s="440"/>
       <c r="F18" s="440"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="389" t="s">
+      <c r="G18" s="426"/>
+      <c r="H18" s="392" t="s">
         <v>63</v>
       </c>
       <c r="I18" s="343"/>
@@ -19182,157 +19291,157 @@
     </row>
     <row r="20" spans="1:41" ht="18.5" customHeight="1">
       <c r="A20" s="249"/>
-      <c r="B20" s="372" t="s">
+      <c r="B20" s="374" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="363" t="s">
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="365" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="364"/>
-      <c r="G20" s="364"/>
-      <c r="H20" s="364"/>
-      <c r="I20" s="364"/>
-      <c r="J20" s="364"/>
-      <c r="K20" s="364"/>
-      <c r="L20" s="364"/>
-      <c r="M20" s="364"/>
-      <c r="N20" s="364"/>
-      <c r="O20" s="364"/>
-      <c r="P20" s="364"/>
-      <c r="Q20" s="364"/>
-      <c r="R20" s="364"/>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="364"/>
-      <c r="V20" s="364"/>
-      <c r="W20" s="364"/>
-      <c r="X20" s="364"/>
-      <c r="Y20" s="364"/>
-      <c r="Z20" s="364"/>
-      <c r="AA20" s="364"/>
-      <c r="AB20" s="364"/>
-      <c r="AC20" s="364"/>
-      <c r="AD20" s="364"/>
-      <c r="AE20" s="364"/>
-      <c r="AF20" s="364"/>
-      <c r="AG20" s="364"/>
-      <c r="AH20" s="365"/>
+      <c r="F20" s="366"/>
+      <c r="G20" s="366"/>
+      <c r="H20" s="366"/>
+      <c r="I20" s="366"/>
+      <c r="J20" s="366"/>
+      <c r="K20" s="366"/>
+      <c r="L20" s="366"/>
+      <c r="M20" s="366"/>
+      <c r="N20" s="366"/>
+      <c r="O20" s="366"/>
+      <c r="P20" s="366"/>
+      <c r="Q20" s="366"/>
+      <c r="R20" s="366"/>
+      <c r="S20" s="366"/>
+      <c r="T20" s="366"/>
+      <c r="U20" s="366"/>
+      <c r="V20" s="366"/>
+      <c r="W20" s="366"/>
+      <c r="X20" s="366"/>
+      <c r="Y20" s="366"/>
+      <c r="Z20" s="366"/>
+      <c r="AA20" s="366"/>
+      <c r="AB20" s="366"/>
+      <c r="AC20" s="366"/>
+      <c r="AD20" s="366"/>
+      <c r="AE20" s="366"/>
+      <c r="AF20" s="366"/>
+      <c r="AG20" s="366"/>
+      <c r="AH20" s="367"/>
     </row>
     <row r="21" spans="1:41" ht="18.5" customHeight="1">
       <c r="A21" s="249"/>
-      <c r="B21" s="360" t="s">
+      <c r="B21" s="362" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="361"/>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="361"/>
-      <c r="J21" s="361"/>
-      <c r="K21" s="361"/>
-      <c r="L21" s="361"/>
-      <c r="M21" s="361"/>
-      <c r="N21" s="361"/>
-      <c r="O21" s="361"/>
-      <c r="P21" s="361"/>
-      <c r="Q21" s="361"/>
-      <c r="R21" s="361"/>
-      <c r="S21" s="361"/>
-      <c r="T21" s="361"/>
-      <c r="U21" s="361"/>
-      <c r="V21" s="361"/>
-      <c r="W21" s="361"/>
-      <c r="X21" s="361"/>
-      <c r="Y21" s="361"/>
-      <c r="Z21" s="361"/>
-      <c r="AA21" s="361"/>
-      <c r="AB21" s="361"/>
-      <c r="AC21" s="361"/>
-      <c r="AD21" s="361"/>
-      <c r="AE21" s="361"/>
-      <c r="AF21" s="361"/>
-      <c r="AG21" s="361"/>
-      <c r="AH21" s="362"/>
+      <c r="C21" s="363"/>
+      <c r="D21" s="363"/>
+      <c r="E21" s="363"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="363"/>
+      <c r="H21" s="363"/>
+      <c r="I21" s="363"/>
+      <c r="J21" s="363"/>
+      <c r="K21" s="363"/>
+      <c r="L21" s="363"/>
+      <c r="M21" s="363"/>
+      <c r="N21" s="363"/>
+      <c r="O21" s="363"/>
+      <c r="P21" s="363"/>
+      <c r="Q21" s="363"/>
+      <c r="R21" s="363"/>
+      <c r="S21" s="363"/>
+      <c r="T21" s="363"/>
+      <c r="U21" s="363"/>
+      <c r="V21" s="363"/>
+      <c r="W21" s="363"/>
+      <c r="X21" s="363"/>
+      <c r="Y21" s="363"/>
+      <c r="Z21" s="363"/>
+      <c r="AA21" s="363"/>
+      <c r="AB21" s="363"/>
+      <c r="AC21" s="363"/>
+      <c r="AD21" s="363"/>
+      <c r="AE21" s="363"/>
+      <c r="AF21" s="363"/>
+      <c r="AG21" s="363"/>
+      <c r="AH21" s="364"/>
     </row>
     <row r="22" spans="1:41" ht="18.5" customHeight="1">
       <c r="A22" s="249"/>
-      <c r="B22" s="416" t="s">
+      <c r="B22" s="418" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="417"/>
-      <c r="J22" s="417"/>
-      <c r="K22" s="417"/>
-      <c r="L22" s="417"/>
-      <c r="M22" s="417"/>
-      <c r="N22" s="417"/>
-      <c r="O22" s="417"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="417"/>
-      <c r="R22" s="417"/>
-      <c r="S22" s="417"/>
-      <c r="T22" s="417"/>
-      <c r="U22" s="417"/>
-      <c r="V22" s="417"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
-      <c r="AB22" s="417"/>
-      <c r="AC22" s="417"/>
-      <c r="AD22" s="417"/>
-      <c r="AE22" s="417"/>
-      <c r="AF22" s="417"/>
-      <c r="AG22" s="417"/>
-      <c r="AH22" s="418"/>
+      <c r="C22" s="419"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="419"/>
+      <c r="M22" s="419"/>
+      <c r="N22" s="419"/>
+      <c r="O22" s="419"/>
+      <c r="P22" s="419"/>
+      <c r="Q22" s="419"/>
+      <c r="R22" s="419"/>
+      <c r="S22" s="419"/>
+      <c r="T22" s="419"/>
+      <c r="U22" s="419"/>
+      <c r="V22" s="419"/>
+      <c r="W22" s="419"/>
+      <c r="X22" s="419"/>
+      <c r="Y22" s="419"/>
+      <c r="Z22" s="419"/>
+      <c r="AA22" s="419"/>
+      <c r="AB22" s="419"/>
+      <c r="AC22" s="419"/>
+      <c r="AD22" s="419"/>
+      <c r="AE22" s="419"/>
+      <c r="AF22" s="419"/>
+      <c r="AG22" s="419"/>
+      <c r="AH22" s="420"/>
     </row>
     <row r="23" spans="1:41" ht="16.5" customHeight="1">
       <c r="A23" s="249"/>
-      <c r="B23" s="386" t="s">
+      <c r="B23" s="389" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="387"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="387"/>
-      <c r="F23" s="387"/>
-      <c r="G23" s="387"/>
-      <c r="H23" s="387"/>
-      <c r="I23" s="387"/>
-      <c r="J23" s="387"/>
-      <c r="K23" s="387"/>
-      <c r="L23" s="387"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="387"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="387"/>
-      <c r="U23" s="387"/>
-      <c r="V23" s="387"/>
-      <c r="W23" s="387"/>
-      <c r="X23" s="387"/>
-      <c r="Y23" s="387"/>
-      <c r="Z23" s="387"/>
-      <c r="AA23" s="387"/>
-      <c r="AB23" s="387"/>
-      <c r="AC23" s="387"/>
-      <c r="AD23" s="387"/>
-      <c r="AE23" s="387"/>
-      <c r="AF23" s="387"/>
-      <c r="AG23" s="387"/>
-      <c r="AH23" s="388"/>
+      <c r="C23" s="390"/>
+      <c r="D23" s="390"/>
+      <c r="E23" s="390"/>
+      <c r="F23" s="390"/>
+      <c r="G23" s="390"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="390"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="390"/>
+      <c r="L23" s="390"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="390"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="390"/>
+      <c r="V23" s="390"/>
+      <c r="W23" s="390"/>
+      <c r="X23" s="390"/>
+      <c r="Y23" s="390"/>
+      <c r="Z23" s="390"/>
+      <c r="AA23" s="390"/>
+      <c r="AB23" s="390"/>
+      <c r="AC23" s="390"/>
+      <c r="AD23" s="390"/>
+      <c r="AE23" s="390"/>
+      <c r="AF23" s="390"/>
+      <c r="AG23" s="390"/>
+      <c r="AH23" s="391"/>
     </row>
     <row r="24" spans="1:41" ht="3.75" customHeight="1">
       <c r="A24" s="249"/>
@@ -19372,59 +19481,59 @@
     </row>
     <row r="25" spans="1:41" ht="17" customHeight="1">
       <c r="A25" s="249"/>
-      <c r="B25" s="419" t="s">
+      <c r="B25" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="420"/>
-      <c r="D25" s="420"/>
-      <c r="E25" s="420"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="420"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="422"/>
+      <c r="F25" s="422"/>
+      <c r="G25" s="422"/>
+      <c r="H25" s="422"/>
+      <c r="I25" s="422"/>
       <c r="J25" s="249"/>
-      <c r="K25" s="427" t="s">
+      <c r="K25" s="429" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="367"/>
-      <c r="M25" s="367"/>
-      <c r="N25" s="367"/>
-      <c r="O25" s="367"/>
+      <c r="L25" s="369"/>
+      <c r="M25" s="369"/>
+      <c r="N25" s="369"/>
+      <c r="O25" s="369"/>
       <c r="P25" s="350"/>
       <c r="Q25" s="249"/>
-      <c r="R25" s="378" t="s">
+      <c r="R25" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="S25" s="367"/>
-      <c r="T25" s="367"/>
-      <c r="U25" s="367"/>
-      <c r="V25" s="367"/>
-      <c r="W25" s="367"/>
+      <c r="S25" s="369"/>
+      <c r="T25" s="369"/>
+      <c r="U25" s="369"/>
+      <c r="V25" s="369"/>
+      <c r="W25" s="369"/>
       <c r="X25" s="350"/>
       <c r="Y25" s="249"/>
-      <c r="Z25" s="429" t="s">
+      <c r="Z25" s="431" t="s">
         <v>23</v>
       </c>
-      <c r="AA25" s="367"/>
-      <c r="AB25" s="367"/>
-      <c r="AC25" s="367"/>
-      <c r="AD25" s="367"/>
-      <c r="AE25" s="367"/>
-      <c r="AF25" s="367"/>
+      <c r="AA25" s="369"/>
+      <c r="AB25" s="369"/>
+      <c r="AC25" s="369"/>
+      <c r="AD25" s="369"/>
+      <c r="AE25" s="369"/>
+      <c r="AF25" s="369"/>
       <c r="AG25" s="350"/>
       <c r="AH25" s="241"/>
     </row>
     <row r="26" spans="1:41" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="287"/>
-      <c r="B26" s="398" t="s">
+      <c r="B26" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="367"/>
-      <c r="D26" s="367"/>
-      <c r="E26" s="367"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="369"/>
+      <c r="H26" s="369"/>
       <c r="I26" s="350"/>
       <c r="J26" s="287"/>
       <c r="K26" s="349" t="s">
@@ -19443,7 +19552,7 @@
       <c r="R26" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="367"/>
+      <c r="S26" s="369"/>
       <c r="T26" s="350"/>
       <c r="U26" s="349" t="s">
         <v>26</v>
@@ -19474,18 +19583,18 @@
     </row>
     <row r="27" spans="1:41" ht="17" customHeight="1">
       <c r="A27" s="249"/>
-      <c r="B27" s="398" t="s">
+      <c r="B27" s="400" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="367"/>
-      <c r="D27" s="367"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="367"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="367"/>
+      <c r="C27" s="369"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="369"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="369"/>
       <c r="I27" s="350"/>
       <c r="J27" s="249"/>
-      <c r="K27" s="443" t="s">
+      <c r="K27" s="445" t="s">
         <v>67</v>
       </c>
       <c r="L27" s="344"/>
@@ -19522,26 +19631,26 @@
         <v>30</v>
       </c>
       <c r="AE27" s="350"/>
-      <c r="AF27" s="380" t="s">
+      <c r="AF27" s="383" t="s">
         <v>68</v>
       </c>
-      <c r="AG27" s="381"/>
+      <c r="AG27" s="384"/>
       <c r="AH27" s="241"/>
     </row>
     <row r="28" spans="1:41" ht="17" customHeight="1">
       <c r="A28" s="249"/>
-      <c r="B28" s="398" t="s">
+      <c r="B28" s="400" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="367"/>
-      <c r="D28" s="367"/>
-      <c r="E28" s="367"/>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="369"/>
+      <c r="D28" s="369"/>
+      <c r="E28" s="369"/>
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
       <c r="I28" s="350"/>
       <c r="J28" s="249"/>
-      <c r="K28" s="443" t="s">
+      <c r="K28" s="445" t="s">
         <v>47</v>
       </c>
       <c r="L28" s="344"/>
@@ -19578,24 +19687,24 @@
         <v>30</v>
       </c>
       <c r="AE28" s="350"/>
-      <c r="AF28" s="382"/>
-      <c r="AG28" s="383"/>
+      <c r="AF28" s="385"/>
+      <c r="AG28" s="386"/>
       <c r="AH28" s="241"/>
     </row>
     <row r="29" spans="1:41" ht="17" customHeight="1">
       <c r="A29" s="249"/>
-      <c r="B29" s="398" t="s">
+      <c r="B29" s="400" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="367"/>
-      <c r="D29" s="367"/>
-      <c r="E29" s="367"/>
-      <c r="F29" s="367"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="367"/>
+      <c r="C29" s="369"/>
+      <c r="D29" s="369"/>
+      <c r="E29" s="369"/>
+      <c r="F29" s="369"/>
+      <c r="G29" s="369"/>
+      <c r="H29" s="369"/>
       <c r="I29" s="350"/>
       <c r="J29" s="249"/>
-      <c r="K29" s="412" t="s">
+      <c r="K29" s="414" t="s">
         <v>49</v>
       </c>
       <c r="L29" s="344"/>
@@ -19604,7 +19713,7 @@
       <c r="O29" s="346"/>
       <c r="P29" s="344"/>
       <c r="Q29" s="289"/>
-      <c r="R29" s="443" t="s">
+      <c r="R29" s="445" t="s">
         <v>47</v>
       </c>
       <c r="S29" s="343"/>
@@ -19614,7 +19723,7 @@
       <c r="W29" s="346"/>
       <c r="X29" s="344"/>
       <c r="Y29" s="289"/>
-      <c r="Z29" s="443" t="s">
+      <c r="Z29" s="445" t="s">
         <v>49</v>
       </c>
       <c r="AA29" s="344"/>
@@ -19622,13 +19731,13 @@
       <c r="AC29" s="344"/>
       <c r="AD29" s="346"/>
       <c r="AE29" s="344"/>
-      <c r="AF29" s="384"/>
-      <c r="AG29" s="385"/>
+      <c r="AF29" s="387"/>
+      <c r="AG29" s="388"/>
       <c r="AH29" s="241"/>
     </row>
     <row r="30" spans="1:41" ht="16.5" customHeight="1">
       <c r="A30" s="249"/>
-      <c r="B30" s="414" t="s">
+      <c r="B30" s="416" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="440"/>
@@ -19667,39 +19776,39 @@
     </row>
     <row r="31" spans="1:41" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="314"/>
-      <c r="B31" s="369" t="s">
+      <c r="B31" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="367"/>
-      <c r="D31" s="367"/>
-      <c r="E31" s="367"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="367"/>
-      <c r="I31" s="367"/>
-      <c r="J31" s="367"/>
-      <c r="K31" s="367"/>
-      <c r="L31" s="367"/>
-      <c r="M31" s="367"/>
-      <c r="N31" s="367"/>
-      <c r="O31" s="367"/>
-      <c r="P31" s="367"/>
-      <c r="Q31" s="367"/>
-      <c r="R31" s="367"/>
-      <c r="S31" s="367"/>
-      <c r="T31" s="367"/>
-      <c r="U31" s="367"/>
-      <c r="V31" s="367"/>
-      <c r="W31" s="367"/>
-      <c r="X31" s="367"/>
-      <c r="Y31" s="367"/>
-      <c r="Z31" s="367"/>
-      <c r="AA31" s="367"/>
-      <c r="AB31" s="367"/>
-      <c r="AC31" s="367"/>
-      <c r="AD31" s="367"/>
+      <c r="C31" s="369"/>
+      <c r="D31" s="369"/>
+      <c r="E31" s="369"/>
+      <c r="F31" s="369"/>
+      <c r="G31" s="369"/>
+      <c r="H31" s="369"/>
+      <c r="I31" s="369"/>
+      <c r="J31" s="369"/>
+      <c r="K31" s="369"/>
+      <c r="L31" s="369"/>
+      <c r="M31" s="369"/>
+      <c r="N31" s="369"/>
+      <c r="O31" s="369"/>
+      <c r="P31" s="369"/>
+      <c r="Q31" s="369"/>
+      <c r="R31" s="369"/>
+      <c r="S31" s="369"/>
+      <c r="T31" s="369"/>
+      <c r="U31" s="369"/>
+      <c r="V31" s="369"/>
+      <c r="W31" s="369"/>
+      <c r="X31" s="369"/>
+      <c r="Y31" s="369"/>
+      <c r="Z31" s="369"/>
+      <c r="AA31" s="369"/>
+      <c r="AB31" s="369"/>
+      <c r="AC31" s="369"/>
+      <c r="AD31" s="369"/>
       <c r="AE31" s="291"/>
-      <c r="AF31" s="396"/>
+      <c r="AF31" s="397"/>
       <c r="AG31" s="344"/>
       <c r="AH31" s="292"/>
     </row>
@@ -19780,11 +19889,11 @@
       <c r="B34" s="326" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="376" t="s">
+      <c r="C34" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="438"/>
-      <c r="E34" s="392">
+      <c r="E34" s="336">
         <v>44044</v>
       </c>
       <c r="F34" s="337"/>
@@ -19797,7 +19906,7 @@
       <c r="M34" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="N34" s="431" t="s">
+      <c r="N34" s="378" t="s">
         <v>69</v>
       </c>
       <c r="O34" s="337"/>
@@ -19805,11 +19914,11 @@
       <c r="Q34" s="337"/>
       <c r="R34" s="357"/>
       <c r="S34" s="299"/>
-      <c r="T34" s="376" t="s">
+      <c r="T34" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U34" s="438"/>
-      <c r="V34" s="395" t="s">
+      <c r="V34" s="376" t="s">
         <v>70</v>
       </c>
       <c r="W34" s="337"/>
@@ -19818,7 +19927,7 @@
       <c r="Z34" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA34" s="431" t="s">
+      <c r="AA34" s="378" t="s">
         <v>71</v>
       </c>
       <c r="AB34" s="337"/>
@@ -19867,7 +19976,7 @@
     </row>
     <row r="36" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="317"/>
-      <c r="B36" s="422" t="s">
+      <c r="B36" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="438"/>
@@ -19875,23 +19984,23 @@
       <c r="E36" s="438"/>
       <c r="F36" s="286"/>
       <c r="G36" s="286"/>
-      <c r="H36" s="376" t="s">
+      <c r="H36" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I36" s="438"/>
-      <c r="J36" s="442" t="s">
+      <c r="J36" s="444" t="s">
         <v>72</v>
       </c>
       <c r="K36" s="337"/>
       <c r="L36" s="337"/>
       <c r="M36" s="337"/>
       <c r="N36" s="357"/>
-      <c r="O36" s="390" t="s">
+      <c r="O36" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P36" s="438"/>
-      <c r="Q36" s="391"/>
-      <c r="R36" s="442" t="s">
+      <c r="Q36" s="394"/>
+      <c r="R36" s="444" t="s">
         <v>73</v>
       </c>
       <c r="S36" s="337"/>
@@ -19955,7 +20064,7 @@
       <c r="E38" s="438"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
-      <c r="H38" s="368" t="s">
+      <c r="H38" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I38" s="438"/>
@@ -19966,12 +20075,12 @@
       </c>
       <c r="M38" s="343"/>
       <c r="N38" s="344"/>
-      <c r="O38" s="370" t="s">
+      <c r="O38" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P38" s="438"/>
       <c r="Q38" s="438"/>
-      <c r="R38" s="442" t="s">
+      <c r="R38" s="444" t="s">
         <v>75</v>
       </c>
       <c r="S38" s="337"/>
@@ -20029,7 +20138,7 @@
     </row>
     <row r="40" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A40" s="317"/>
-      <c r="B40" s="437" t="s">
+      <c r="B40" s="442" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="438"/>
@@ -20046,7 +20155,7 @@
       <c r="L40" s="438"/>
       <c r="M40" s="438"/>
       <c r="N40" s="438"/>
-      <c r="O40" s="366" t="s">
+      <c r="O40" s="368" t="s">
         <v>76</v>
       </c>
       <c r="P40" s="337"/>
@@ -20122,7 +20231,7 @@
       <c r="L42" s="438"/>
       <c r="M42" s="438"/>
       <c r="N42" s="438"/>
-      <c r="O42" s="366" t="s">
+      <c r="O42" s="368" t="s">
         <v>77</v>
       </c>
       <c r="P42" s="337"/>
@@ -20258,11 +20367,11 @@
       <c r="B46" s="326" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="376" t="s">
+      <c r="C46" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="438"/>
-      <c r="E46" s="336">
+      <c r="E46" s="443">
         <v>44052</v>
       </c>
       <c r="F46" s="337"/>
@@ -20275,17 +20384,17 @@
       <c r="M46" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="358"/>
+      <c r="N46" s="449"/>
       <c r="O46" s="337"/>
       <c r="P46" s="337"/>
       <c r="Q46" s="337"/>
       <c r="R46" s="357"/>
       <c r="S46" s="299"/>
-      <c r="T46" s="376" t="s">
+      <c r="T46" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U46" s="438"/>
-      <c r="V46" s="395" t="s">
+      <c r="V46" s="376" t="s">
         <v>78</v>
       </c>
       <c r="W46" s="337"/>
@@ -20294,7 +20403,7 @@
       <c r="Z46" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA46" s="431" t="s">
+      <c r="AA46" s="378" t="s">
         <v>79</v>
       </c>
       <c r="AB46" s="337"/>
@@ -20343,7 +20452,7 @@
     </row>
     <row r="48" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="317"/>
-      <c r="B48" s="422" t="s">
+      <c r="B48" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="438"/>
@@ -20351,23 +20460,23 @@
       <c r="E48" s="438"/>
       <c r="F48" s="286"/>
       <c r="G48" s="286"/>
-      <c r="H48" s="376" t="s">
+      <c r="H48" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I48" s="438"/>
-      <c r="J48" s="442" t="s">
+      <c r="J48" s="444" t="s">
         <v>80</v>
       </c>
       <c r="K48" s="337"/>
       <c r="L48" s="337"/>
       <c r="M48" s="337"/>
       <c r="N48" s="357"/>
-      <c r="O48" s="444" t="s">
+      <c r="O48" s="446" t="s">
         <v>41</v>
       </c>
       <c r="P48" s="438"/>
-      <c r="Q48" s="391"/>
-      <c r="R48" s="399"/>
+      <c r="Q48" s="394"/>
+      <c r="R48" s="401"/>
       <c r="S48" s="337"/>
       <c r="T48" s="337"/>
       <c r="U48" s="337"/>
@@ -20429,7 +20538,7 @@
       <c r="E50" s="438"/>
       <c r="F50" s="286"/>
       <c r="G50" s="286"/>
-      <c r="H50" s="368" t="s">
+      <c r="H50" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I50" s="438"/>
@@ -20440,12 +20549,12 @@
       </c>
       <c r="M50" s="343"/>
       <c r="N50" s="344"/>
-      <c r="O50" s="370" t="s">
+      <c r="O50" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P50" s="438"/>
       <c r="Q50" s="438"/>
-      <c r="R50" s="399" t="s">
+      <c r="R50" s="401" t="s">
         <v>81</v>
       </c>
       <c r="S50" s="337"/>
@@ -20503,7 +20612,7 @@
     </row>
     <row r="52" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A52" s="317"/>
-      <c r="B52" s="437" t="s">
+      <c r="B52" s="442" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="438"/>
@@ -20520,7 +20629,7 @@
       <c r="L52" s="438"/>
       <c r="M52" s="438"/>
       <c r="N52" s="438"/>
-      <c r="O52" s="366" t="s">
+      <c r="O52" s="368" t="s">
         <v>82</v>
       </c>
       <c r="P52" s="337"/>
@@ -20596,7 +20705,7 @@
       <c r="L54" s="438"/>
       <c r="M54" s="438"/>
       <c r="N54" s="438"/>
-      <c r="O54" s="366" t="s">
+      <c r="O54" s="368" t="s">
         <v>77</v>
       </c>
       <c r="P54" s="337"/>
@@ -20732,11 +20841,11 @@
       <c r="B58" s="326" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="376" t="s">
+      <c r="C58" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="438"/>
-      <c r="E58" s="336"/>
+      <c r="E58" s="443"/>
       <c r="F58" s="337"/>
       <c r="G58" s="337"/>
       <c r="H58" s="337"/>
@@ -20747,24 +20856,24 @@
       <c r="M58" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="N58" s="358"/>
+      <c r="N58" s="449"/>
       <c r="O58" s="337"/>
       <c r="P58" s="337"/>
       <c r="Q58" s="337"/>
       <c r="R58" s="357"/>
       <c r="S58" s="299"/>
-      <c r="T58" s="376" t="s">
+      <c r="T58" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U58" s="438"/>
-      <c r="V58" s="359"/>
+      <c r="V58" s="361"/>
       <c r="W58" s="337"/>
       <c r="X58" s="337"/>
       <c r="Y58" s="337"/>
       <c r="Z58" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA58" s="375"/>
+      <c r="AA58" s="399"/>
       <c r="AB58" s="337"/>
       <c r="AC58" s="337"/>
       <c r="AD58" s="357"/>
@@ -20811,7 +20920,7 @@
     </row>
     <row r="60" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A60" s="317"/>
-      <c r="B60" s="422" t="s">
+      <c r="B60" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="438"/>
@@ -20819,7 +20928,7 @@
       <c r="E60" s="438"/>
       <c r="F60" s="286"/>
       <c r="G60" s="286"/>
-      <c r="H60" s="376" t="s">
+      <c r="H60" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I60" s="438"/>
@@ -20828,11 +20937,11 @@
       <c r="L60" s="337"/>
       <c r="M60" s="337"/>
       <c r="N60" s="357"/>
-      <c r="O60" s="390" t="s">
+      <c r="O60" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P60" s="438"/>
-      <c r="Q60" s="391"/>
+      <c r="Q60" s="394"/>
       <c r="R60" s="356"/>
       <c r="S60" s="337"/>
       <c r="T60" s="337"/>
@@ -20895,7 +21004,7 @@
       <c r="E62" s="438"/>
       <c r="F62" s="286"/>
       <c r="G62" s="286"/>
-      <c r="H62" s="368" t="s">
+      <c r="H62" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="438"/>
@@ -20904,7 +21013,7 @@
       <c r="L62" s="347"/>
       <c r="M62" s="343"/>
       <c r="N62" s="344"/>
-      <c r="O62" s="370" t="s">
+      <c r="O62" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P62" s="438"/>
@@ -20965,7 +21074,7 @@
     </row>
     <row r="64" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A64" s="317"/>
-      <c r="B64" s="437" t="s">
+      <c r="B64" s="442" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="438"/>
@@ -20982,7 +21091,7 @@
       <c r="L64" s="438"/>
       <c r="M64" s="438"/>
       <c r="N64" s="438"/>
-      <c r="O64" s="366"/>
+      <c r="O64" s="368"/>
       <c r="P64" s="337"/>
       <c r="Q64" s="337"/>
       <c r="R64" s="337"/>
@@ -21056,7 +21165,7 @@
       <c r="L66" s="438"/>
       <c r="M66" s="438"/>
       <c r="N66" s="438"/>
-      <c r="O66" s="366"/>
+      <c r="O66" s="368"/>
       <c r="P66" s="337"/>
       <c r="Q66" s="337"/>
       <c r="R66" s="337"/>
@@ -21190,11 +21299,11 @@
       <c r="B70" s="326" t="s">
         <v>49</v>
       </c>
-      <c r="C70" s="376" t="s">
+      <c r="C70" s="379" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="438"/>
-      <c r="E70" s="392"/>
+      <c r="E70" s="336"/>
       <c r="F70" s="337"/>
       <c r="G70" s="337"/>
       <c r="H70" s="337"/>
@@ -21205,24 +21314,24 @@
       <c r="M70" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="358"/>
+      <c r="N70" s="449"/>
       <c r="O70" s="337"/>
       <c r="P70" s="337"/>
       <c r="Q70" s="337"/>
       <c r="R70" s="357"/>
       <c r="S70" s="299"/>
-      <c r="T70" s="376" t="s">
+      <c r="T70" s="379" t="s">
         <v>38</v>
       </c>
       <c r="U70" s="438"/>
-      <c r="V70" s="359"/>
+      <c r="V70" s="361"/>
       <c r="W70" s="337"/>
       <c r="X70" s="337"/>
       <c r="Y70" s="337"/>
       <c r="Z70" s="300" t="s">
         <v>37</v>
       </c>
-      <c r="AA70" s="375"/>
+      <c r="AA70" s="399"/>
       <c r="AB70" s="337"/>
       <c r="AC70" s="337"/>
       <c r="AD70" s="357"/>
@@ -21269,7 +21378,7 @@
     </row>
     <row r="72" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A72" s="317"/>
-      <c r="B72" s="422" t="s">
+      <c r="B72" s="424" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="438"/>
@@ -21277,7 +21386,7 @@
       <c r="E72" s="438"/>
       <c r="F72" s="286"/>
       <c r="G72" s="286"/>
-      <c r="H72" s="376" t="s">
+      <c r="H72" s="379" t="s">
         <v>40</v>
       </c>
       <c r="I72" s="438"/>
@@ -21286,11 +21395,11 @@
       <c r="L72" s="337"/>
       <c r="M72" s="337"/>
       <c r="N72" s="357"/>
-      <c r="O72" s="390" t="s">
+      <c r="O72" s="393" t="s">
         <v>41</v>
       </c>
       <c r="P72" s="438"/>
-      <c r="Q72" s="391"/>
+      <c r="Q72" s="394"/>
       <c r="R72" s="356"/>
       <c r="S72" s="337"/>
       <c r="T72" s="337"/>
@@ -21353,7 +21462,7 @@
       <c r="E74" s="438"/>
       <c r="F74" s="286"/>
       <c r="G74" s="286"/>
-      <c r="H74" s="368" t="s">
+      <c r="H74" s="370" t="s">
         <v>42</v>
       </c>
       <c r="I74" s="438"/>
@@ -21362,7 +21471,7 @@
       <c r="L74" s="347"/>
       <c r="M74" s="343"/>
       <c r="N74" s="344"/>
-      <c r="O74" s="370" t="s">
+      <c r="O74" s="372" t="s">
         <v>43</v>
       </c>
       <c r="P74" s="438"/>
@@ -21423,7 +21532,7 @@
     </row>
     <row r="76" spans="1:34" s="7" customFormat="1" ht="17" customHeight="1">
       <c r="A76" s="317"/>
-      <c r="B76" s="437" t="s">
+      <c r="B76" s="442" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="438"/>
@@ -21440,7 +21549,7 @@
       <c r="L76" s="438"/>
       <c r="M76" s="438"/>
       <c r="N76" s="438"/>
-      <c r="O76" s="366"/>
+      <c r="O76" s="368"/>
       <c r="P76" s="337"/>
       <c r="Q76" s="337"/>
       <c r="R76" s="337"/>
@@ -21514,7 +21623,7 @@
       <c r="L78" s="438"/>
       <c r="M78" s="438"/>
       <c r="N78" s="438"/>
-      <c r="O78" s="366"/>
+      <c r="O78" s="368"/>
       <c r="P78" s="337"/>
       <c r="Q78" s="337"/>
       <c r="R78" s="337"/>
@@ -22128,37 +22237,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="452" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
+      <c r="B1" s="453"/>
+      <c r="C1" s="453"/>
+      <c r="D1" s="453"/>
+      <c r="E1" s="453"/>
+      <c r="F1" s="453"/>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="451"/>
-      <c r="B2" s="451"/>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
+      <c r="A2" s="454"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="447" t="s">
+      <c r="A3" s="450" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="455" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="453"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="454"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="456"/>
+      <c r="F3" s="457"/>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" thickBot="1">
-      <c r="A4" s="448"/>
+      <c r="A4" s="451"/>
       <c r="B4" s="14" t="s">
         <v>87</v>
       </c>
@@ -23032,10 +23141,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="17" customHeight="1" thickBot="1">
-      <c r="F1" s="447" t="s">
+      <c r="F1" s="450" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="453"/>
+      <c r="G1" s="456"/>
       <c r="H1" s="62">
         <v>13</v>
       </c>
@@ -23161,7 +23270,7 @@
       </c>
     </row>
     <row r="2" spans="1:51" ht="17" customHeight="1" thickBot="1">
-      <c r="F2" s="459" t="s">
+      <c r="F2" s="462" t="s">
         <v>93</v>
       </c>
       <c r="G2" s="68" t="s">
@@ -23292,7 +23401,7 @@
       </c>
     </row>
     <row r="3" spans="1:51" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="F3" s="460"/>
+      <c r="F3" s="463"/>
       <c r="G3" s="75" t="s">
         <v>88</v>
       </c>
@@ -23421,7 +23530,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" ht="17" customHeight="1" thickBot="1">
-      <c r="F4" s="460"/>
+      <c r="F4" s="463"/>
       <c r="G4" s="82" t="s">
         <v>89</v>
       </c>
@@ -23550,7 +23659,7 @@
       </c>
     </row>
     <row r="5" spans="1:51" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="F5" s="460"/>
+      <c r="F5" s="463"/>
       <c r="G5" s="89" t="s">
         <v>90</v>
       </c>
@@ -23679,7 +23788,7 @@
       </c>
     </row>
     <row r="6" spans="1:51" ht="17" customHeight="1" thickBot="1">
-      <c r="F6" s="461"/>
+      <c r="F6" s="464"/>
       <c r="G6" s="90" t="s">
         <v>91</v>
       </c>
@@ -25060,10 +25169,10 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="462" t="s">
+      <c r="F28" s="465" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="420"/>
+      <c r="G28" s="422"/>
       <c r="H28" s="62">
         <v>13</v>
       </c>
@@ -25196,7 +25305,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="459" t="s">
+      <c r="F29" s="462" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="68" t="s">
@@ -25334,7 +25443,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="460"/>
+      <c r="F30" s="463"/>
       <c r="G30" s="75" t="s">
         <v>88</v>
       </c>
@@ -25470,7 +25579,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="460"/>
+      <c r="F31" s="463"/>
       <c r="G31" s="82" t="s">
         <v>89</v>
       </c>
@@ -25603,7 +25712,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="460"/>
+      <c r="F32" s="463"/>
       <c r="G32" s="89" t="s">
         <v>90</v>
       </c>
@@ -25736,7 +25845,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="461"/>
+      <c r="F33" s="464"/>
       <c r="G33" s="90" t="s">
         <v>91</v>
       </c>
@@ -25920,10 +26029,10 @@
         <v>102</v>
       </c>
       <c r="E35" s="104"/>
-      <c r="F35" s="455" t="s">
+      <c r="F35" s="458" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="408"/>
+      <c r="G35" s="410"/>
       <c r="H35" s="105" t="s">
         <v>104</v>
       </c>
@@ -25977,8 +26086,8 @@
         <v>106</v>
       </c>
       <c r="E36" s="104"/>
-      <c r="F36" s="456"/>
-      <c r="G36" s="408"/>
+      <c r="F36" s="459"/>
+      <c r="G36" s="410"/>
       <c r="H36" s="116"/>
       <c r="I36" s="117"/>
       <c r="J36" s="117"/>
@@ -26083,10 +26192,10 @@
         <v>110</v>
       </c>
       <c r="E38" s="104"/>
-      <c r="F38" s="455" t="s">
+      <c r="F38" s="458" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="408"/>
+      <c r="G38" s="410"/>
       <c r="H38" s="132" t="s">
         <v>112</v>
       </c>
@@ -26142,8 +26251,8 @@
         <v>115</v>
       </c>
       <c r="E39" s="104"/>
-      <c r="F39" s="456"/>
-      <c r="G39" s="408"/>
+      <c r="F39" s="459"/>
+      <c r="G39" s="410"/>
       <c r="H39" s="109"/>
       <c r="I39" s="110"/>
       <c r="J39" s="110"/>
@@ -26244,10 +26353,10 @@
         <v>117</v>
       </c>
       <c r="E41" s="104"/>
-      <c r="F41" s="455" t="s">
+      <c r="F41" s="458" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="408"/>
+      <c r="G41" s="410"/>
       <c r="H41" s="148"/>
       <c r="I41" s="135"/>
       <c r="J41" s="135"/>
@@ -26299,8 +26408,8 @@
         <v>120</v>
       </c>
       <c r="E42" s="104"/>
-      <c r="F42" s="456"/>
-      <c r="G42" s="408"/>
+      <c r="F42" s="459"/>
+      <c r="G42" s="410"/>
       <c r="H42" s="132" t="s">
         <v>121</v>
       </c>
@@ -26401,10 +26510,10 @@
         <v>122</v>
       </c>
       <c r="E44" s="104"/>
-      <c r="F44" s="455" t="s">
+      <c r="F44" s="458" t="s">
         <v>123</v>
       </c>
-      <c r="G44" s="408"/>
+      <c r="G44" s="410"/>
       <c r="H44" s="125"/>
       <c r="I44" s="117"/>
       <c r="J44" s="117"/>
@@ -26460,8 +26569,8 @@
         <v>106</v>
       </c>
       <c r="E45" s="104"/>
-      <c r="F45" s="456"/>
-      <c r="G45" s="408"/>
+      <c r="F45" s="459"/>
+      <c r="G45" s="410"/>
       <c r="H45" s="162" t="s">
         <v>127</v>
       </c>
@@ -26562,10 +26671,10 @@
         <v>117</v>
       </c>
       <c r="E47" s="104"/>
-      <c r="F47" s="455" t="s">
+      <c r="F47" s="458" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="408"/>
+      <c r="G47" s="410"/>
       <c r="H47" s="132" t="s">
         <v>129</v>
       </c>
@@ -26619,8 +26728,8 @@
         <v>131</v>
       </c>
       <c r="E48" s="104"/>
-      <c r="F48" s="456"/>
-      <c r="G48" s="408"/>
+      <c r="F48" s="459"/>
+      <c r="G48" s="410"/>
       <c r="H48" s="172"/>
       <c r="I48" s="173"/>
       <c r="J48" s="173"/>
@@ -26723,10 +26832,10 @@
         <v>122</v>
       </c>
       <c r="E50" s="104"/>
-      <c r="F50" s="455" t="s">
+      <c r="F50" s="458" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="408"/>
+      <c r="G50" s="410"/>
       <c r="H50" s="181" t="s">
         <v>135</v>
       </c>
@@ -26778,8 +26887,8 @@
         <v>136</v>
       </c>
       <c r="E51" s="104"/>
-      <c r="F51" s="456"/>
-      <c r="G51" s="408"/>
+      <c r="F51" s="459"/>
+      <c r="G51" s="410"/>
       <c r="H51" s="125"/>
       <c r="I51" s="117"/>
       <c r="J51" s="117"/>
@@ -26880,10 +26989,10 @@
         <v>122</v>
       </c>
       <c r="E53" s="184"/>
-      <c r="F53" s="455" t="s">
+      <c r="F53" s="458" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="408"/>
+      <c r="G53" s="410"/>
       <c r="H53" s="185"/>
       <c r="I53" s="170"/>
       <c r="J53" s="170"/>
@@ -26935,8 +27044,8 @@
         <v>106</v>
       </c>
       <c r="E54" s="184"/>
-      <c r="F54" s="456"/>
-      <c r="G54" s="408"/>
+      <c r="F54" s="459"/>
+      <c r="G54" s="410"/>
       <c r="H54" s="189"/>
       <c r="I54" s="177"/>
       <c r="J54" s="177"/>
@@ -27039,10 +27148,10 @@
         <v>117</v>
       </c>
       <c r="E56" s="104"/>
-      <c r="F56" s="455" t="s">
+      <c r="F56" s="458" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="408"/>
+      <c r="G56" s="410"/>
       <c r="H56" s="181" t="s">
         <v>143</v>
       </c>
@@ -27096,8 +27205,8 @@
         <v>145</v>
       </c>
       <c r="E57" s="104"/>
-      <c r="F57" s="456"/>
-      <c r="G57" s="408"/>
+      <c r="F57" s="459"/>
+      <c r="G57" s="410"/>
       <c r="H57" s="125"/>
       <c r="I57" s="117"/>
       <c r="J57" s="117"/>
@@ -27198,10 +27307,10 @@
         <v>122</v>
       </c>
       <c r="E59" s="104"/>
-      <c r="F59" s="455" t="s">
+      <c r="F59" s="458" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="408"/>
+      <c r="G59" s="410"/>
       <c r="H59" s="105" t="s">
         <v>148</v>
       </c>
@@ -27253,8 +27362,8 @@
         <v>136</v>
       </c>
       <c r="E60" s="104"/>
-      <c r="F60" s="456"/>
-      <c r="G60" s="408"/>
+      <c r="F60" s="459"/>
+      <c r="G60" s="410"/>
       <c r="H60" s="125"/>
       <c r="I60" s="117"/>
       <c r="J60" s="117"/>
@@ -27355,10 +27464,10 @@
         <v>122</v>
       </c>
       <c r="E62" s="104"/>
-      <c r="F62" s="455" t="s">
+      <c r="F62" s="458" t="s">
         <v>150</v>
       </c>
-      <c r="G62" s="408"/>
+      <c r="G62" s="410"/>
       <c r="H62" s="132" t="s">
         <v>151</v>
       </c>
@@ -27410,8 +27519,8 @@
         <v>152</v>
       </c>
       <c r="E63" s="184"/>
-      <c r="F63" s="456"/>
-      <c r="G63" s="408"/>
+      <c r="F63" s="459"/>
+      <c r="G63" s="410"/>
       <c r="H63" s="109"/>
       <c r="I63" s="110"/>
       <c r="J63" s="110"/>
@@ -27512,10 +27621,10 @@
         <v>154</v>
       </c>
       <c r="E65" s="200"/>
-      <c r="F65" s="455" t="s">
+      <c r="F65" s="458" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="408"/>
+      <c r="G65" s="410"/>
       <c r="H65" s="201" t="s">
         <v>156</v>
       </c>
@@ -27620,10 +27729,10 @@
         <v>122</v>
       </c>
       <c r="E67" s="104"/>
-      <c r="F67" s="455" t="s">
+      <c r="F67" s="458" t="s">
         <v>159</v>
       </c>
-      <c r="G67" s="408"/>
+      <c r="G67" s="410"/>
       <c r="H67" s="181" t="s">
         <v>160</v>
       </c>
@@ -27687,8 +27796,8 @@
         <v>136</v>
       </c>
       <c r="E68" s="104"/>
-      <c r="F68" s="456"/>
-      <c r="G68" s="408"/>
+      <c r="F68" s="459"/>
+      <c r="G68" s="410"/>
       <c r="H68" s="125"/>
       <c r="I68" s="117"/>
       <c r="J68" s="118"/>
@@ -27706,13 +27815,13 @@
       <c r="T68" s="117"/>
       <c r="U68" s="117"/>
       <c r="V68" s="118"/>
-      <c r="W68" s="457" t="s">
+      <c r="W68" s="460" t="s">
         <v>168</v>
       </c>
-      <c r="X68" s="458"/>
-      <c r="Y68" s="458"/>
-      <c r="Z68" s="458"/>
-      <c r="AA68" s="410"/>
+      <c r="X68" s="461"/>
+      <c r="Y68" s="461"/>
+      <c r="Z68" s="461"/>
+      <c r="AA68" s="412"/>
       <c r="AB68" s="125"/>
       <c r="AC68" s="117"/>
       <c r="AD68" s="117"/>
@@ -27793,10 +27902,10 @@
         <v>122</v>
       </c>
       <c r="E70" s="104"/>
-      <c r="F70" s="455" t="s">
+      <c r="F70" s="458" t="s">
         <v>170</v>
       </c>
-      <c r="G70" s="408"/>
+      <c r="G70" s="410"/>
       <c r="H70" s="132" t="s">
         <v>171</v>
       </c>
@@ -27848,8 +27957,8 @@
         <v>106</v>
       </c>
       <c r="E71" s="104"/>
-      <c r="F71" s="456"/>
-      <c r="G71" s="408"/>
+      <c r="F71" s="459"/>
+      <c r="G71" s="410"/>
       <c r="H71" s="109"/>
       <c r="I71" s="110"/>
       <c r="J71" s="110"/>
